--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhD_project\Neuromophic Camera\pcb and schematics\embedded neuromophic camera\EmbeddedNeuromophicCamera_PADS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Data/github_prjs/EmbeddedNeuromophicCamera_PADS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DED09958-641F-4E99-8FCB-2659B0F86B56}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17216490-413F-944F-98E3-439278CECCEB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="12735" xr2:uid="{8EA9F011-AF60-47FB-BBDE-C3F1296126CD}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{8EA9F011-AF60-47FB-BBDE-C3F1296126CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$G$3</definedName>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1477" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1693" uniqueCount="437">
   <si>
     <t>Name</t>
   </si>
@@ -1080,54 +1082,6 @@
     <t>XFR</t>
   </si>
   <si>
-    <t>TEST1</t>
-  </si>
-  <si>
-    <t>TESTPADTESTPAD_40-ROUND</t>
-  </si>
-  <si>
-    <t>TESTPAD_40-ROUND</t>
-  </si>
-  <si>
-    <t>TEST2</t>
-  </si>
-  <si>
-    <t>TEST3</t>
-  </si>
-  <si>
-    <t>TEST4</t>
-  </si>
-  <si>
-    <t>TEST5</t>
-  </si>
-  <si>
-    <t>TEST6</t>
-  </si>
-  <si>
-    <t>TEST7</t>
-  </si>
-  <si>
-    <t>TEST8</t>
-  </si>
-  <si>
-    <t>TEST9</t>
-  </si>
-  <si>
-    <t>TEST10</t>
-  </si>
-  <si>
-    <t>TEST11</t>
-  </si>
-  <si>
-    <t>TEST12</t>
-  </si>
-  <si>
-    <t>TEST13</t>
-  </si>
-  <si>
-    <t>TEST14</t>
-  </si>
-  <si>
     <t>U1</t>
   </si>
   <si>
@@ -1249,6 +1203,163 @@
   </si>
   <si>
     <t xml:space="preserve"> Design Part count: 290</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>XC7Z100-1FFG900</t>
+  </si>
+  <si>
+    <t>XC7Z045-1FFG900</t>
+  </si>
+  <si>
+    <t>XC7Z045-2FFG900</t>
+  </si>
+  <si>
+    <t>XC7Z100-2FFG900</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>APX221/AXP22/AXP228/AXP229</t>
+  </si>
+  <si>
+    <t>CLK_24M</t>
+  </si>
+  <si>
+    <t>CLK_50M</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Part Report bom for main_pads.pcb on 2/26/2019 10:16:17 (For IC)</t>
+    </r>
+  </si>
+  <si>
+    <t>price (CNY)</t>
+  </si>
+  <si>
+    <t>HDR2X10 (DIP20_100mils)</t>
+  </si>
+  <si>
+    <t>USB3.0 (Type A female)</t>
+  </si>
+  <si>
+    <t>HN1X5 (SIP5_100mils)</t>
+  </si>
+  <si>
+    <t>1nf</t>
+  </si>
+  <si>
+    <t>47uf_6.3V</t>
+  </si>
+  <si>
+    <t>100nf</t>
+  </si>
+  <si>
+    <t>22uf_6.3V</t>
+  </si>
+  <si>
+    <t>4.7uf</t>
+  </si>
+  <si>
+    <t>10uf_6.3V</t>
+  </si>
+  <si>
+    <t>1uf_6.3V</t>
+  </si>
+  <si>
+    <t>10uf</t>
+  </si>
+  <si>
+    <t>0.47uf</t>
+  </si>
+  <si>
+    <t>1N5819</t>
+  </si>
+  <si>
+    <t>SMJ60A</t>
+  </si>
+  <si>
+    <t>1N5822</t>
+  </si>
+  <si>
+    <t>LED0805_Yellow</t>
+  </si>
+  <si>
+    <t>LED0805_Red</t>
+  </si>
+  <si>
+    <t>LED0805_Orange</t>
+  </si>
+  <si>
+    <t>LED0805_Green</t>
+  </si>
+  <si>
+    <t>LED0805_Blue</t>
+  </si>
+  <si>
+    <t>IRLML6402</t>
+  </si>
+  <si>
+    <t>DIP14_JTAG</t>
+  </si>
+  <si>
+    <t>MicroUSB_Female</t>
+  </si>
+  <si>
+    <t>molex_slimstack_529910808</t>
+  </si>
+  <si>
+    <t>TIP18_100mil</t>
+  </si>
+  <si>
+    <t>FB0805/600R/2A</t>
+  </si>
+  <si>
+    <t>SWPA4018/1.5uH/3A/DCR&lt;0.1R</t>
+  </si>
+  <si>
+    <t>8x8MM/2.2uH/3A/YS75</t>
+  </si>
+  <si>
+    <t>LED0603_Yellow</t>
+  </si>
+  <si>
+    <t>DIP40_100mil</t>
+  </si>
+  <si>
+    <t>LIPO_2PIN_80MIL</t>
+  </si>
+  <si>
+    <t>TFC-WPAPR-08/MicroSD</t>
+  </si>
+  <si>
+    <t>SIP8_200mil</t>
+  </si>
+  <si>
+    <t>LED0603_Red</t>
+  </si>
+  <si>
+    <t>SMD_SW</t>
+  </si>
+  <si>
+    <t>POWER_JACK</t>
+  </si>
+  <si>
+    <t>ß</t>
   </si>
 </sst>
 </file>
@@ -1292,10 +1403,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1610,29 +1728,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED008CBA-9651-4434-9CA4-378A54734DD1}">
-  <dimension ref="A1:G295"/>
+  <dimension ref="A1:G281"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A265" sqref="A265:XFD265"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1655,7 +1773,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1675,7 +1793,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1695,7 +1813,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1705,6 +1823,9 @@
       <c r="C6" t="s">
         <v>13</v>
       </c>
+      <c r="D6" t="s">
+        <v>405</v>
+      </c>
       <c r="E6" t="s">
         <v>14</v>
       </c>
@@ -1715,7 +1836,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1725,6 +1846,9 @@
       <c r="C7" t="s">
         <v>18</v>
       </c>
+      <c r="D7" t="s">
+        <v>403</v>
+      </c>
       <c r="E7" t="s">
         <v>14</v>
       </c>
@@ -1735,7 +1859,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1745,6 +1869,9 @@
       <c r="C8" t="s">
         <v>21</v>
       </c>
+      <c r="D8" t="s">
+        <v>404</v>
+      </c>
       <c r="E8" t="s">
         <v>14</v>
       </c>
@@ -1755,7 +1882,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -1765,6 +1892,9 @@
       <c r="C9" t="s">
         <v>18</v>
       </c>
+      <c r="D9" t="s">
+        <v>406</v>
+      </c>
       <c r="E9" t="s">
         <v>14</v>
       </c>
@@ -1775,7 +1905,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -1785,6 +1915,9 @@
       <c r="C10" t="s">
         <v>21</v>
       </c>
+      <c r="D10" t="s">
+        <v>404</v>
+      </c>
       <c r="E10" t="s">
         <v>14</v>
       </c>
@@ -1795,7 +1928,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -1805,6 +1938,9 @@
       <c r="C11" t="s">
         <v>13</v>
       </c>
+      <c r="D11" t="s">
+        <v>405</v>
+      </c>
       <c r="E11" t="s">
         <v>14</v>
       </c>
@@ -1815,7 +1951,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -1825,6 +1961,9 @@
       <c r="C12" t="s">
         <v>21</v>
       </c>
+      <c r="D12" t="s">
+        <v>404</v>
+      </c>
       <c r="E12" t="s">
         <v>14</v>
       </c>
@@ -1835,7 +1974,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -1845,6 +1984,9 @@
       <c r="C13" t="s">
         <v>21</v>
       </c>
+      <c r="D13" t="s">
+        <v>404</v>
+      </c>
       <c r="E13" t="s">
         <v>14</v>
       </c>
@@ -1855,7 +1997,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -1865,6 +2007,9 @@
       <c r="C14" t="s">
         <v>21</v>
       </c>
+      <c r="D14" t="s">
+        <v>404</v>
+      </c>
       <c r="E14" t="s">
         <v>9</v>
       </c>
@@ -1875,7 +2020,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -1885,6 +2030,9 @@
       <c r="C15" t="s">
         <v>13</v>
       </c>
+      <c r="D15" t="s">
+        <v>405</v>
+      </c>
       <c r="E15" t="s">
         <v>9</v>
       </c>
@@ -1895,7 +2043,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -1905,6 +2053,9 @@
       <c r="C16" t="s">
         <v>13</v>
       </c>
+      <c r="D16" t="s">
+        <v>405</v>
+      </c>
       <c r="E16" t="s">
         <v>9</v>
       </c>
@@ -1915,7 +2066,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -1925,6 +2076,9 @@
       <c r="C17" t="s">
         <v>13</v>
       </c>
+      <c r="D17" t="s">
+        <v>405</v>
+      </c>
       <c r="E17" t="s">
         <v>14</v>
       </c>
@@ -1935,7 +2089,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -1945,6 +2099,9 @@
       <c r="C18" t="s">
         <v>13</v>
       </c>
+      <c r="D18" t="s">
+        <v>405</v>
+      </c>
       <c r="E18" t="s">
         <v>14</v>
       </c>
@@ -1955,7 +2112,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -1965,6 +2122,9 @@
       <c r="C19" t="s">
         <v>18</v>
       </c>
+      <c r="D19" t="s">
+        <v>406</v>
+      </c>
       <c r="E19" t="s">
         <v>9</v>
       </c>
@@ -1975,7 +2135,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -1985,6 +2145,9 @@
       <c r="C20" t="s">
         <v>13</v>
       </c>
+      <c r="D20" t="s">
+        <v>405</v>
+      </c>
       <c r="E20" t="s">
         <v>9</v>
       </c>
@@ -1995,7 +2158,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -2005,6 +2168,9 @@
       <c r="C21" t="s">
         <v>18</v>
       </c>
+      <c r="D21" t="s">
+        <v>406</v>
+      </c>
       <c r="E21" t="s">
         <v>9</v>
       </c>
@@ -2015,7 +2181,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -2025,6 +2191,9 @@
       <c r="C22" t="s">
         <v>18</v>
       </c>
+      <c r="D22" t="s">
+        <v>406</v>
+      </c>
       <c r="E22" t="s">
         <v>14</v>
       </c>
@@ -2035,7 +2204,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -2045,6 +2214,9 @@
       <c r="C23" t="s">
         <v>13</v>
       </c>
+      <c r="D23" t="s">
+        <v>405</v>
+      </c>
       <c r="E23" t="s">
         <v>14</v>
       </c>
@@ -2055,7 +2227,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -2065,6 +2237,9 @@
       <c r="C24" t="s">
         <v>18</v>
       </c>
+      <c r="D24" t="s">
+        <v>406</v>
+      </c>
       <c r="E24" t="s">
         <v>14</v>
       </c>
@@ -2075,7 +2250,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -2085,6 +2260,9 @@
       <c r="C25" t="s">
         <v>13</v>
       </c>
+      <c r="D25" t="s">
+        <v>405</v>
+      </c>
       <c r="E25" t="s">
         <v>9</v>
       </c>
@@ -2095,7 +2273,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -2105,6 +2283,9 @@
       <c r="C26" t="s">
         <v>13</v>
       </c>
+      <c r="D26" t="s">
+        <v>405</v>
+      </c>
       <c r="E26" t="s">
         <v>14</v>
       </c>
@@ -2115,7 +2296,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>40</v>
       </c>
@@ -2125,6 +2306,9 @@
       <c r="C27" t="s">
         <v>13</v>
       </c>
+      <c r="D27" t="s">
+        <v>405</v>
+      </c>
       <c r="E27" t="s">
         <v>14</v>
       </c>
@@ -2135,7 +2319,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>41</v>
       </c>
@@ -2145,6 +2329,9 @@
       <c r="C28" t="s">
         <v>13</v>
       </c>
+      <c r="D28" t="s">
+        <v>405</v>
+      </c>
       <c r="E28" t="s">
         <v>9</v>
       </c>
@@ -2155,7 +2342,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>42</v>
       </c>
@@ -2165,6 +2352,9 @@
       <c r="C29" t="s">
         <v>13</v>
       </c>
+      <c r="D29" t="s">
+        <v>405</v>
+      </c>
       <c r="E29" t="s">
         <v>14</v>
       </c>
@@ -2175,7 +2365,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>43</v>
       </c>
@@ -2185,6 +2375,9 @@
       <c r="C30" t="s">
         <v>13</v>
       </c>
+      <c r="D30" t="s">
+        <v>405</v>
+      </c>
       <c r="E30" t="s">
         <v>14</v>
       </c>
@@ -2195,7 +2388,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>44</v>
       </c>
@@ -2205,6 +2398,9 @@
       <c r="C31" t="s">
         <v>13</v>
       </c>
+      <c r="D31" t="s">
+        <v>405</v>
+      </c>
       <c r="E31" t="s">
         <v>14</v>
       </c>
@@ -2215,7 +2411,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>45</v>
       </c>
@@ -2225,6 +2421,9 @@
       <c r="C32" t="s">
         <v>13</v>
       </c>
+      <c r="D32" t="s">
+        <v>405</v>
+      </c>
       <c r="E32" t="s">
         <v>14</v>
       </c>
@@ -2235,7 +2434,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>46</v>
       </c>
@@ -2245,6 +2444,9 @@
       <c r="C33" t="s">
         <v>13</v>
       </c>
+      <c r="D33" t="s">
+        <v>405</v>
+      </c>
       <c r="E33" t="s">
         <v>14</v>
       </c>
@@ -2255,7 +2457,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>47</v>
       </c>
@@ -2265,6 +2467,9 @@
       <c r="C34" t="s">
         <v>13</v>
       </c>
+      <c r="D34" t="s">
+        <v>405</v>
+      </c>
       <c r="E34" t="s">
         <v>14</v>
       </c>
@@ -2275,7 +2480,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>48</v>
       </c>
@@ -2285,6 +2490,9 @@
       <c r="C35" t="s">
         <v>13</v>
       </c>
+      <c r="D35" t="s">
+        <v>405</v>
+      </c>
       <c r="E35" t="s">
         <v>14</v>
       </c>
@@ -2295,7 +2503,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>49</v>
       </c>
@@ -2305,6 +2513,9 @@
       <c r="C36" t="s">
         <v>13</v>
       </c>
+      <c r="D36" t="s">
+        <v>405</v>
+      </c>
       <c r="E36" t="s">
         <v>14</v>
       </c>
@@ -2315,7 +2526,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>50</v>
       </c>
@@ -2325,6 +2536,9 @@
       <c r="C37" t="s">
         <v>13</v>
       </c>
+      <c r="D37" t="s">
+        <v>405</v>
+      </c>
       <c r="E37" t="s">
         <v>14</v>
       </c>
@@ -2335,7 +2549,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>51</v>
       </c>
@@ -2345,6 +2559,9 @@
       <c r="C38" t="s">
         <v>13</v>
       </c>
+      <c r="D38" t="s">
+        <v>405</v>
+      </c>
       <c r="E38" t="s">
         <v>14</v>
       </c>
@@ -2355,7 +2572,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>52</v>
       </c>
@@ -2365,6 +2582,9 @@
       <c r="C39" t="s">
         <v>13</v>
       </c>
+      <c r="D39" t="s">
+        <v>405</v>
+      </c>
       <c r="E39" t="s">
         <v>14</v>
       </c>
@@ -2375,7 +2595,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>53</v>
       </c>
@@ -2385,6 +2605,9 @@
       <c r="C40" t="s">
         <v>13</v>
       </c>
+      <c r="D40" t="s">
+        <v>405</v>
+      </c>
       <c r="E40" t="s">
         <v>14</v>
       </c>
@@ -2395,7 +2618,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>54</v>
       </c>
@@ -2405,6 +2628,9 @@
       <c r="C41" t="s">
         <v>13</v>
       </c>
+      <c r="D41" t="s">
+        <v>405</v>
+      </c>
       <c r="E41" t="s">
         <v>14</v>
       </c>
@@ -2415,7 +2641,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>55</v>
       </c>
@@ -2425,6 +2651,9 @@
       <c r="C42" t="s">
         <v>13</v>
       </c>
+      <c r="D42" t="s">
+        <v>405</v>
+      </c>
       <c r="E42" t="s">
         <v>9</v>
       </c>
@@ -2435,7 +2664,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>56</v>
       </c>
@@ -2445,6 +2674,9 @@
       <c r="C43" t="s">
         <v>13</v>
       </c>
+      <c r="D43" t="s">
+        <v>405</v>
+      </c>
       <c r="E43" t="s">
         <v>14</v>
       </c>
@@ -2455,7 +2687,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>57</v>
       </c>
@@ -2465,6 +2697,9 @@
       <c r="C44" t="s">
         <v>13</v>
       </c>
+      <c r="D44" t="s">
+        <v>405</v>
+      </c>
       <c r="E44" t="s">
         <v>14</v>
       </c>
@@ -2475,7 +2710,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>58</v>
       </c>
@@ -2485,6 +2720,9 @@
       <c r="C45" t="s">
         <v>13</v>
       </c>
+      <c r="D45" t="s">
+        <v>405</v>
+      </c>
       <c r="E45" t="s">
         <v>14</v>
       </c>
@@ -2495,7 +2733,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>59</v>
       </c>
@@ -2505,6 +2743,9 @@
       <c r="C46" t="s">
         <v>13</v>
       </c>
+      <c r="D46" t="s">
+        <v>405</v>
+      </c>
       <c r="E46" t="s">
         <v>14</v>
       </c>
@@ -2515,7 +2756,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>60</v>
       </c>
@@ -2525,6 +2766,9 @@
       <c r="C47" t="s">
         <v>13</v>
       </c>
+      <c r="D47" t="s">
+        <v>405</v>
+      </c>
       <c r="E47" t="s">
         <v>14</v>
       </c>
@@ -2535,7 +2779,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>61</v>
       </c>
@@ -2545,6 +2789,9 @@
       <c r="C48" t="s">
         <v>13</v>
       </c>
+      <c r="D48" t="s">
+        <v>405</v>
+      </c>
       <c r="E48" t="s">
         <v>14</v>
       </c>
@@ -2555,7 +2802,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>62</v>
       </c>
@@ -2565,6 +2812,9 @@
       <c r="C49" t="s">
         <v>13</v>
       </c>
+      <c r="D49" t="s">
+        <v>405</v>
+      </c>
       <c r="E49" t="s">
         <v>14</v>
       </c>
@@ -2575,7 +2825,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>63</v>
       </c>
@@ -2585,6 +2835,9 @@
       <c r="C50" t="s">
         <v>13</v>
       </c>
+      <c r="D50" t="s">
+        <v>405</v>
+      </c>
       <c r="E50" t="s">
         <v>14</v>
       </c>
@@ -2595,7 +2848,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>64</v>
       </c>
@@ -2605,6 +2858,9 @@
       <c r="C51" t="s">
         <v>13</v>
       </c>
+      <c r="D51" t="s">
+        <v>405</v>
+      </c>
       <c r="E51" t="s">
         <v>14</v>
       </c>
@@ -2615,7 +2871,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>65</v>
       </c>
@@ -2625,6 +2881,9 @@
       <c r="C52" t="s">
         <v>13</v>
       </c>
+      <c r="D52" t="s">
+        <v>405</v>
+      </c>
       <c r="E52" t="s">
         <v>14</v>
       </c>
@@ -2635,7 +2894,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>66</v>
       </c>
@@ -2645,6 +2904,9 @@
       <c r="C53" t="s">
         <v>13</v>
       </c>
+      <c r="D53" t="s">
+        <v>405</v>
+      </c>
       <c r="E53" t="s">
         <v>14</v>
       </c>
@@ -2655,7 +2917,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>67</v>
       </c>
@@ -2665,6 +2927,9 @@
       <c r="C54" t="s">
         <v>13</v>
       </c>
+      <c r="D54" t="s">
+        <v>405</v>
+      </c>
       <c r="E54" t="s">
         <v>14</v>
       </c>
@@ -2675,7 +2940,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>68</v>
       </c>
@@ -2685,6 +2950,9 @@
       <c r="C55" t="s">
         <v>13</v>
       </c>
+      <c r="D55" t="s">
+        <v>405</v>
+      </c>
       <c r="E55" t="s">
         <v>14</v>
       </c>
@@ -2695,7 +2963,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>69</v>
       </c>
@@ -2705,6 +2973,9 @@
       <c r="C56" t="s">
         <v>13</v>
       </c>
+      <c r="D56" t="s">
+        <v>405</v>
+      </c>
       <c r="E56" t="s">
         <v>9</v>
       </c>
@@ -2715,7 +2986,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>70</v>
       </c>
@@ -2725,6 +2996,9 @@
       <c r="C57" t="s">
         <v>13</v>
       </c>
+      <c r="D57" t="s">
+        <v>405</v>
+      </c>
       <c r="E57" t="s">
         <v>9</v>
       </c>
@@ -2735,7 +3009,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>71</v>
       </c>
@@ -2745,6 +3019,9 @@
       <c r="C58" t="s">
         <v>13</v>
       </c>
+      <c r="D58" t="s">
+        <v>405</v>
+      </c>
       <c r="E58" t="s">
         <v>14</v>
       </c>
@@ -2755,7 +3032,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>72</v>
       </c>
@@ -2765,6 +3042,9 @@
       <c r="C59" t="s">
         <v>13</v>
       </c>
+      <c r="D59" t="s">
+        <v>407</v>
+      </c>
       <c r="E59" t="s">
         <v>14</v>
       </c>
@@ -2775,7 +3055,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>73</v>
       </c>
@@ -2785,6 +3065,9 @@
       <c r="C60" t="s">
         <v>13</v>
       </c>
+      <c r="D60" t="s">
+        <v>405</v>
+      </c>
       <c r="E60" t="s">
         <v>14</v>
       </c>
@@ -2795,7 +3078,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>74</v>
       </c>
@@ -2805,6 +3088,9 @@
       <c r="C61" t="s">
         <v>13</v>
       </c>
+      <c r="D61" t="s">
+        <v>407</v>
+      </c>
       <c r="E61" t="s">
         <v>14</v>
       </c>
@@ -2815,7 +3101,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>75</v>
       </c>
@@ -2825,6 +3111,9 @@
       <c r="C62" t="s">
         <v>13</v>
       </c>
+      <c r="D62" t="s">
+        <v>405</v>
+      </c>
       <c r="E62" t="s">
         <v>14</v>
       </c>
@@ -2835,7 +3124,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>76</v>
       </c>
@@ -2845,6 +3134,9 @@
       <c r="C63" t="s">
         <v>13</v>
       </c>
+      <c r="D63" t="s">
+        <v>407</v>
+      </c>
       <c r="E63" t="s">
         <v>14</v>
       </c>
@@ -2855,7 +3147,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>77</v>
       </c>
@@ -2865,6 +3157,9 @@
       <c r="C64" t="s">
         <v>13</v>
       </c>
+      <c r="D64" t="s">
+        <v>405</v>
+      </c>
       <c r="E64" t="s">
         <v>14</v>
       </c>
@@ -2875,7 +3170,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>78</v>
       </c>
@@ -2885,6 +3180,9 @@
       <c r="C65" t="s">
         <v>13</v>
       </c>
+      <c r="D65" t="s">
+        <v>407</v>
+      </c>
       <c r="E65" t="s">
         <v>14</v>
       </c>
@@ -2895,7 +3193,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>79</v>
       </c>
@@ -2905,6 +3203,9 @@
       <c r="C66" t="s">
         <v>13</v>
       </c>
+      <c r="D66" t="s">
+        <v>405</v>
+      </c>
       <c r="E66" t="s">
         <v>14</v>
       </c>
@@ -2915,7 +3216,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>80</v>
       </c>
@@ -2925,6 +3226,9 @@
       <c r="C67" t="s">
         <v>13</v>
       </c>
+      <c r="D67" t="s">
+        <v>407</v>
+      </c>
       <c r="E67" t="s">
         <v>14</v>
       </c>
@@ -2935,7 +3239,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>81</v>
       </c>
@@ -2945,6 +3249,9 @@
       <c r="C68" t="s">
         <v>13</v>
       </c>
+      <c r="D68" t="s">
+        <v>405</v>
+      </c>
       <c r="E68" t="s">
         <v>14</v>
       </c>
@@ -2955,7 +3262,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>82</v>
       </c>
@@ -2965,6 +3272,9 @@
       <c r="C69" t="s">
         <v>13</v>
       </c>
+      <c r="D69" t="s">
+        <v>407</v>
+      </c>
       <c r="E69" t="s">
         <v>14</v>
       </c>
@@ -2975,7 +3285,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>83</v>
       </c>
@@ -2985,6 +3295,9 @@
       <c r="C70" t="s">
         <v>13</v>
       </c>
+      <c r="D70" t="s">
+        <v>405</v>
+      </c>
       <c r="E70" t="s">
         <v>14</v>
       </c>
@@ -2995,7 +3308,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>84</v>
       </c>
@@ -3005,6 +3318,9 @@
       <c r="C71" t="s">
         <v>13</v>
       </c>
+      <c r="D71" t="s">
+        <v>407</v>
+      </c>
       <c r="E71" t="s">
         <v>14</v>
       </c>
@@ -3015,7 +3331,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>85</v>
       </c>
@@ -3025,6 +3341,9 @@
       <c r="C72" t="s">
         <v>13</v>
       </c>
+      <c r="D72" t="s">
+        <v>405</v>
+      </c>
       <c r="E72" t="s">
         <v>14</v>
       </c>
@@ -3035,7 +3354,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>86</v>
       </c>
@@ -3045,6 +3364,9 @@
       <c r="C73" t="s">
         <v>13</v>
       </c>
+      <c r="D73" t="s">
+        <v>407</v>
+      </c>
       <c r="E73" t="s">
         <v>14</v>
       </c>
@@ -3055,7 +3377,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>87</v>
       </c>
@@ -3065,6 +3387,9 @@
       <c r="C74" t="s">
         <v>13</v>
       </c>
+      <c r="D74" t="s">
+        <v>405</v>
+      </c>
       <c r="E74" t="s">
         <v>14</v>
       </c>
@@ -3075,7 +3400,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>88</v>
       </c>
@@ -3085,6 +3410,9 @@
       <c r="C75" t="s">
         <v>13</v>
       </c>
+      <c r="D75" t="s">
+        <v>407</v>
+      </c>
       <c r="E75" t="s">
         <v>14</v>
       </c>
@@ -3095,7 +3423,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>89</v>
       </c>
@@ -3105,6 +3433,9 @@
       <c r="C76" t="s">
         <v>13</v>
       </c>
+      <c r="D76" t="s">
+        <v>405</v>
+      </c>
       <c r="E76" t="s">
         <v>14</v>
       </c>
@@ -3115,7 +3446,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>90</v>
       </c>
@@ -3125,6 +3456,9 @@
       <c r="C77" t="s">
         <v>13</v>
       </c>
+      <c r="D77" t="s">
+        <v>407</v>
+      </c>
       <c r="E77" t="s">
         <v>14</v>
       </c>
@@ -3135,7 +3469,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>91</v>
       </c>
@@ -3145,6 +3479,9 @@
       <c r="C78" t="s">
         <v>13</v>
       </c>
+      <c r="D78" t="s">
+        <v>405</v>
+      </c>
       <c r="E78" t="s">
         <v>14</v>
       </c>
@@ -3155,7 +3492,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>92</v>
       </c>
@@ -3165,6 +3502,9 @@
       <c r="C79" t="s">
         <v>13</v>
       </c>
+      <c r="D79" t="s">
+        <v>407</v>
+      </c>
       <c r="E79" t="s">
         <v>14</v>
       </c>
@@ -3175,7 +3515,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>93</v>
       </c>
@@ -3185,6 +3525,9 @@
       <c r="C80" t="s">
         <v>13</v>
       </c>
+      <c r="D80" t="s">
+        <v>405</v>
+      </c>
       <c r="E80" t="s">
         <v>14</v>
       </c>
@@ -3195,7 +3538,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>94</v>
       </c>
@@ -3205,6 +3548,9 @@
       <c r="C81" t="s">
         <v>13</v>
       </c>
+      <c r="D81" t="s">
+        <v>407</v>
+      </c>
       <c r="E81" t="s">
         <v>14</v>
       </c>
@@ -3215,7 +3561,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>95</v>
       </c>
@@ -3225,6 +3571,9 @@
       <c r="C82" t="s">
         <v>13</v>
       </c>
+      <c r="D82" t="s">
+        <v>405</v>
+      </c>
       <c r="E82" t="s">
         <v>14</v>
       </c>
@@ -3235,7 +3584,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>96</v>
       </c>
@@ -3245,6 +3594,9 @@
       <c r="C83" t="s">
         <v>13</v>
       </c>
+      <c r="D83" t="s">
+        <v>407</v>
+      </c>
       <c r="E83" t="s">
         <v>14</v>
       </c>
@@ -3255,7 +3607,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>97</v>
       </c>
@@ -3265,6 +3617,9 @@
       <c r="C84" t="s">
         <v>13</v>
       </c>
+      <c r="D84" t="s">
+        <v>405</v>
+      </c>
       <c r="E84" t="s">
         <v>14</v>
       </c>
@@ -3275,7 +3630,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>98</v>
       </c>
@@ -3285,6 +3640,9 @@
       <c r="C85" t="s">
         <v>13</v>
       </c>
+      <c r="D85" t="s">
+        <v>407</v>
+      </c>
       <c r="E85" t="s">
         <v>14</v>
       </c>
@@ -3295,7 +3653,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>99</v>
       </c>
@@ -3305,6 +3663,9 @@
       <c r="C86" t="s">
         <v>13</v>
       </c>
+      <c r="D86" t="s">
+        <v>405</v>
+      </c>
       <c r="E86" t="s">
         <v>14</v>
       </c>
@@ -3315,7 +3676,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>100</v>
       </c>
@@ -3325,6 +3686,9 @@
       <c r="C87" t="s">
         <v>13</v>
       </c>
+      <c r="D87" t="s">
+        <v>407</v>
+      </c>
       <c r="E87" t="s">
         <v>14</v>
       </c>
@@ -3335,7 +3699,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>101</v>
       </c>
@@ -3345,6 +3709,9 @@
       <c r="C88" t="s">
         <v>13</v>
       </c>
+      <c r="D88" t="s">
+        <v>405</v>
+      </c>
       <c r="E88" t="s">
         <v>14</v>
       </c>
@@ -3355,7 +3722,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>102</v>
       </c>
@@ -3365,6 +3732,9 @@
       <c r="C89" t="s">
         <v>13</v>
       </c>
+      <c r="D89" t="s">
+        <v>407</v>
+      </c>
       <c r="E89" t="s">
         <v>14</v>
       </c>
@@ -3375,7 +3745,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>103</v>
       </c>
@@ -3385,6 +3755,9 @@
       <c r="C90" t="s">
         <v>13</v>
       </c>
+      <c r="D90" t="s">
+        <v>405</v>
+      </c>
       <c r="E90" t="s">
         <v>14</v>
       </c>
@@ -3395,7 +3768,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>104</v>
       </c>
@@ -3405,6 +3778,9 @@
       <c r="C91" t="s">
         <v>13</v>
       </c>
+      <c r="D91" t="s">
+        <v>407</v>
+      </c>
       <c r="E91" t="s">
         <v>14</v>
       </c>
@@ -3415,7 +3791,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>105</v>
       </c>
@@ -3425,6 +3801,9 @@
       <c r="C92" t="s">
         <v>13</v>
       </c>
+      <c r="D92" t="s">
+        <v>405</v>
+      </c>
       <c r="E92" t="s">
         <v>14</v>
       </c>
@@ -3435,7 +3814,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>106</v>
       </c>
@@ -3445,6 +3824,9 @@
       <c r="C93" t="s">
         <v>13</v>
       </c>
+      <c r="D93" t="s">
+        <v>407</v>
+      </c>
       <c r="E93" t="s">
         <v>14</v>
       </c>
@@ -3455,7 +3837,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>107</v>
       </c>
@@ -3465,6 +3847,9 @@
       <c r="C94" t="s">
         <v>18</v>
       </c>
+      <c r="D94" t="s">
+        <v>406</v>
+      </c>
       <c r="E94" t="s">
         <v>14</v>
       </c>
@@ -3475,7 +3860,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>108</v>
       </c>
@@ -3485,6 +3870,9 @@
       <c r="C95" t="s">
         <v>18</v>
       </c>
+      <c r="D95" t="s">
+        <v>408</v>
+      </c>
       <c r="E95" t="s">
         <v>9</v>
       </c>
@@ -3495,7 +3883,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>109</v>
       </c>
@@ -3505,6 +3893,9 @@
       <c r="C96" t="s">
         <v>18</v>
       </c>
+      <c r="D96" t="s">
+        <v>408</v>
+      </c>
       <c r="E96" t="s">
         <v>9</v>
       </c>
@@ -3515,7 +3906,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>110</v>
       </c>
@@ -3525,6 +3916,9 @@
       <c r="C97" t="s">
         <v>18</v>
       </c>
+      <c r="D97" t="s">
+        <v>408</v>
+      </c>
       <c r="E97" t="s">
         <v>14</v>
       </c>
@@ -3535,7 +3929,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>111</v>
       </c>
@@ -3545,6 +3939,9 @@
       <c r="C98" t="s">
         <v>18</v>
       </c>
+      <c r="D98" t="s">
+        <v>408</v>
+      </c>
       <c r="E98" t="s">
         <v>9</v>
       </c>
@@ -3555,7 +3952,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>112</v>
       </c>
@@ -3565,6 +3962,9 @@
       <c r="C99" t="s">
         <v>18</v>
       </c>
+      <c r="D99" t="s">
+        <v>408</v>
+      </c>
       <c r="E99" t="s">
         <v>9</v>
       </c>
@@ -3575,7 +3975,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>113</v>
       </c>
@@ -3585,6 +3985,9 @@
       <c r="C100" t="s">
         <v>18</v>
       </c>
+      <c r="D100" t="s">
+        <v>408</v>
+      </c>
       <c r="E100" t="s">
         <v>14</v>
       </c>
@@ -3595,7 +3998,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>114</v>
       </c>
@@ -3605,6 +4008,9 @@
       <c r="C101" t="s">
         <v>18</v>
       </c>
+      <c r="D101" t="s">
+        <v>408</v>
+      </c>
       <c r="E101" t="s">
         <v>9</v>
       </c>
@@ -3615,7 +4021,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>115</v>
       </c>
@@ -3625,6 +4031,9 @@
       <c r="C102" t="s">
         <v>18</v>
       </c>
+      <c r="D102" t="s">
+        <v>408</v>
+      </c>
       <c r="E102" t="s">
         <v>14</v>
       </c>
@@ -3635,7 +4044,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>116</v>
       </c>
@@ -3645,6 +4054,9 @@
       <c r="C103" t="s">
         <v>18</v>
       </c>
+      <c r="D103" t="s">
+        <v>408</v>
+      </c>
       <c r="E103" t="s">
         <v>9</v>
       </c>
@@ -3655,7 +4067,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>117</v>
       </c>
@@ -3665,6 +4077,9 @@
       <c r="C104" t="s">
         <v>18</v>
       </c>
+      <c r="D104" t="s">
+        <v>408</v>
+      </c>
       <c r="E104" t="s">
         <v>14</v>
       </c>
@@ -3675,7 +4090,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>118</v>
       </c>
@@ -3685,6 +4100,9 @@
       <c r="C105" t="s">
         <v>18</v>
       </c>
+      <c r="D105" t="s">
+        <v>408</v>
+      </c>
       <c r="E105" t="s">
         <v>9</v>
       </c>
@@ -3695,7 +4113,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>119</v>
       </c>
@@ -3705,6 +4123,9 @@
       <c r="C106" t="s">
         <v>18</v>
       </c>
+      <c r="D106" t="s">
+        <v>408</v>
+      </c>
       <c r="E106" t="s">
         <v>9</v>
       </c>
@@ -3715,7 +4136,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>120</v>
       </c>
@@ -3725,6 +4146,9 @@
       <c r="C107" t="s">
         <v>18</v>
       </c>
+      <c r="D107" t="s">
+        <v>408</v>
+      </c>
       <c r="E107" t="s">
         <v>14</v>
       </c>
@@ -3735,7 +4159,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>121</v>
       </c>
@@ -3745,6 +4169,9 @@
       <c r="C108" t="s">
         <v>18</v>
       </c>
+      <c r="D108" t="s">
+        <v>406</v>
+      </c>
       <c r="E108" t="s">
         <v>9</v>
       </c>
@@ -3755,7 +4182,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>122</v>
       </c>
@@ -3765,6 +4192,9 @@
       <c r="C109" t="s">
         <v>13</v>
       </c>
+      <c r="D109" t="s">
+        <v>405</v>
+      </c>
       <c r="E109" t="s">
         <v>14</v>
       </c>
@@ -3775,7 +4205,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>123</v>
       </c>
@@ -3785,6 +4215,9 @@
       <c r="C110" t="s">
         <v>18</v>
       </c>
+      <c r="D110" t="s">
+        <v>406</v>
+      </c>
       <c r="E110" t="s">
         <v>9</v>
       </c>
@@ -3795,7 +4228,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>124</v>
       </c>
@@ -3805,6 +4238,9 @@
       <c r="C111" t="s">
         <v>18</v>
       </c>
+      <c r="D111" t="s">
+        <v>409</v>
+      </c>
       <c r="E111" t="s">
         <v>9</v>
       </c>
@@ -3815,7 +4251,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>125</v>
       </c>
@@ -3825,6 +4261,9 @@
       <c r="C112" t="s">
         <v>18</v>
       </c>
+      <c r="D112" t="s">
+        <v>409</v>
+      </c>
       <c r="E112" t="s">
         <v>14</v>
       </c>
@@ -3835,7 +4274,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>126</v>
       </c>
@@ -3845,6 +4284,9 @@
       <c r="C113" t="s">
         <v>18</v>
       </c>
+      <c r="D113" t="s">
+        <v>406</v>
+      </c>
       <c r="E113" t="s">
         <v>14</v>
       </c>
@@ -3855,7 +4297,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>127</v>
       </c>
@@ -3865,6 +4307,9 @@
       <c r="C114" t="s">
         <v>18</v>
       </c>
+      <c r="D114" t="s">
+        <v>408</v>
+      </c>
       <c r="E114" t="s">
         <v>14</v>
       </c>
@@ -3875,7 +4320,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>128</v>
       </c>
@@ -3885,6 +4330,9 @@
       <c r="C115" t="s">
         <v>18</v>
       </c>
+      <c r="D115" t="s">
+        <v>408</v>
+      </c>
       <c r="E115" t="s">
         <v>14</v>
       </c>
@@ -3895,7 +4343,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>129</v>
       </c>
@@ -3905,6 +4353,9 @@
       <c r="C116" t="s">
         <v>18</v>
       </c>
+      <c r="D116" t="s">
+        <v>408</v>
+      </c>
       <c r="E116" t="s">
         <v>14</v>
       </c>
@@ -3915,7 +4366,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>130</v>
       </c>
@@ -3925,6 +4376,9 @@
       <c r="C117" t="s">
         <v>18</v>
       </c>
+      <c r="D117" t="s">
+        <v>408</v>
+      </c>
       <c r="E117" t="s">
         <v>9</v>
       </c>
@@ -3935,7 +4389,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>131</v>
       </c>
@@ -3945,6 +4399,9 @@
       <c r="C118" t="s">
         <v>18</v>
       </c>
+      <c r="D118" t="s">
+        <v>408</v>
+      </c>
       <c r="E118" t="s">
         <v>14</v>
       </c>
@@ -3955,7 +4412,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>132</v>
       </c>
@@ -3965,6 +4422,9 @@
       <c r="C119" t="s">
         <v>18</v>
       </c>
+      <c r="D119" t="s">
+        <v>408</v>
+      </c>
       <c r="E119" t="s">
         <v>14</v>
       </c>
@@ -3975,7 +4435,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>133</v>
       </c>
@@ -3985,6 +4445,9 @@
       <c r="C120" t="s">
         <v>18</v>
       </c>
+      <c r="D120" t="s">
+        <v>408</v>
+      </c>
       <c r="E120" t="s">
         <v>14</v>
       </c>
@@ -3995,7 +4458,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>134</v>
       </c>
@@ -4005,6 +4468,9 @@
       <c r="C121" t="s">
         <v>18</v>
       </c>
+      <c r="D121" t="s">
+        <v>408</v>
+      </c>
       <c r="E121" t="s">
         <v>9</v>
       </c>
@@ -4015,7 +4481,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>135</v>
       </c>
@@ -4025,6 +4491,9 @@
       <c r="C122" t="s">
         <v>18</v>
       </c>
+      <c r="D122" t="s">
+        <v>408</v>
+      </c>
       <c r="E122" t="s">
         <v>14</v>
       </c>
@@ -4035,7 +4504,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>136</v>
       </c>
@@ -4045,6 +4514,9 @@
       <c r="C123" t="s">
         <v>18</v>
       </c>
+      <c r="D123" t="s">
+        <v>408</v>
+      </c>
       <c r="E123" t="s">
         <v>14</v>
       </c>
@@ -4055,7 +4527,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>137</v>
       </c>
@@ -4065,6 +4537,9 @@
       <c r="C124" t="s">
         <v>18</v>
       </c>
+      <c r="D124" t="s">
+        <v>408</v>
+      </c>
       <c r="E124" t="s">
         <v>14</v>
       </c>
@@ -4075,7 +4550,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>138</v>
       </c>
@@ -4085,6 +4560,9 @@
       <c r="C125" t="s">
         <v>18</v>
       </c>
+      <c r="D125" t="s">
+        <v>408</v>
+      </c>
       <c r="E125" t="s">
         <v>14</v>
       </c>
@@ -4095,7 +4573,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>139</v>
       </c>
@@ -4105,6 +4583,9 @@
       <c r="C126" t="s">
         <v>18</v>
       </c>
+      <c r="D126" t="s">
+        <v>408</v>
+      </c>
       <c r="E126" t="s">
         <v>9</v>
       </c>
@@ -4115,7 +4596,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>140</v>
       </c>
@@ -4125,6 +4606,9 @@
       <c r="C127" t="s">
         <v>18</v>
       </c>
+      <c r="D127" t="s">
+        <v>408</v>
+      </c>
       <c r="E127" t="s">
         <v>9</v>
       </c>
@@ -4135,7 +4619,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>141</v>
       </c>
@@ -4145,6 +4629,9 @@
       <c r="C128" t="s">
         <v>18</v>
       </c>
+      <c r="D128" t="s">
+        <v>408</v>
+      </c>
       <c r="E128" t="s">
         <v>9</v>
       </c>
@@ -4155,7 +4642,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>142</v>
       </c>
@@ -4165,6 +4652,9 @@
       <c r="C129" t="s">
         <v>18</v>
       </c>
+      <c r="D129" t="s">
+        <v>408</v>
+      </c>
       <c r="E129" t="s">
         <v>9</v>
       </c>
@@ -4175,7 +4665,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>143</v>
       </c>
@@ -4185,6 +4675,9 @@
       <c r="C130" t="s">
         <v>18</v>
       </c>
+      <c r="D130" t="s">
+        <v>408</v>
+      </c>
       <c r="E130" t="s">
         <v>14</v>
       </c>
@@ -4195,7 +4688,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>144</v>
       </c>
@@ -4205,6 +4698,9 @@
       <c r="C131" t="s">
         <v>18</v>
       </c>
+      <c r="D131" t="s">
+        <v>408</v>
+      </c>
       <c r="E131" t="s">
         <v>14</v>
       </c>
@@ -4215,7 +4711,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>145</v>
       </c>
@@ -4225,6 +4721,9 @@
       <c r="C132" t="s">
         <v>18</v>
       </c>
+      <c r="D132" t="s">
+        <v>408</v>
+      </c>
       <c r="E132" t="s">
         <v>14</v>
       </c>
@@ -4235,7 +4734,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>146</v>
       </c>
@@ -4245,6 +4744,9 @@
       <c r="C133" t="s">
         <v>18</v>
       </c>
+      <c r="D133" t="s">
+        <v>408</v>
+      </c>
       <c r="E133" t="s">
         <v>9</v>
       </c>
@@ -4255,7 +4757,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>147</v>
       </c>
@@ -4265,6 +4767,9 @@
       <c r="C134" t="s">
         <v>18</v>
       </c>
+      <c r="D134" t="s">
+        <v>408</v>
+      </c>
       <c r="E134" t="s">
         <v>14</v>
       </c>
@@ -4275,7 +4780,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>148</v>
       </c>
@@ -4285,6 +4790,9 @@
       <c r="C135" t="s">
         <v>18</v>
       </c>
+      <c r="D135" t="s">
+        <v>408</v>
+      </c>
       <c r="E135" t="s">
         <v>14</v>
       </c>
@@ -4295,7 +4803,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>149</v>
       </c>
@@ -4305,6 +4813,9 @@
       <c r="C136" t="s">
         <v>18</v>
       </c>
+      <c r="D136" t="s">
+        <v>408</v>
+      </c>
       <c r="E136" t="s">
         <v>14</v>
       </c>
@@ -4315,7 +4826,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>150</v>
       </c>
@@ -4325,6 +4836,9 @@
       <c r="C137" t="s">
         <v>18</v>
       </c>
+      <c r="D137" t="s">
+        <v>408</v>
+      </c>
       <c r="E137" t="s">
         <v>14</v>
       </c>
@@ -4335,7 +4849,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>151</v>
       </c>
@@ -4345,6 +4859,9 @@
       <c r="C138" t="s">
         <v>18</v>
       </c>
+      <c r="D138" t="s">
+        <v>409</v>
+      </c>
       <c r="E138" t="s">
         <v>14</v>
       </c>
@@ -4355,7 +4872,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>152</v>
       </c>
@@ -4365,6 +4882,9 @@
       <c r="C139" t="s">
         <v>13</v>
       </c>
+      <c r="D139" t="s">
+        <v>410</v>
+      </c>
       <c r="E139" t="s">
         <v>14</v>
       </c>
@@ -4375,7 +4895,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>153</v>
       </c>
@@ -4385,6 +4905,9 @@
       <c r="C140" t="s">
         <v>13</v>
       </c>
+      <c r="D140" t="s">
+        <v>411</v>
+      </c>
       <c r="E140" t="s">
         <v>14</v>
       </c>
@@ -4395,7 +4918,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>154</v>
       </c>
@@ -4405,6 +4928,9 @@
       <c r="C141" t="s">
         <v>156</v>
       </c>
+      <c r="D141" t="s">
+        <v>412</v>
+      </c>
       <c r="E141" t="s">
         <v>9</v>
       </c>
@@ -4415,7 +4941,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>158</v>
       </c>
@@ -4425,6 +4951,9 @@
       <c r="C142" t="s">
         <v>160</v>
       </c>
+      <c r="D142" t="s">
+        <v>413</v>
+      </c>
       <c r="E142" t="s">
         <v>9</v>
       </c>
@@ -4435,7 +4964,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>161</v>
       </c>
@@ -4445,6 +4974,9 @@
       <c r="C143" t="s">
         <v>163</v>
       </c>
+      <c r="D143" t="s">
+        <v>412</v>
+      </c>
       <c r="E143" t="s">
         <v>9</v>
       </c>
@@ -4455,7 +4987,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>164</v>
       </c>
@@ -4465,6 +4997,9 @@
       <c r="C144" t="s">
         <v>166</v>
       </c>
+      <c r="D144" t="s">
+        <v>414</v>
+      </c>
       <c r="E144" t="s">
         <v>9</v>
       </c>
@@ -4475,7 +5010,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>167</v>
       </c>
@@ -4485,6 +5020,9 @@
       <c r="C145" t="s">
         <v>166</v>
       </c>
+      <c r="D145" t="s">
+        <v>414</v>
+      </c>
       <c r="E145" t="s">
         <v>14</v>
       </c>
@@ -4495,7 +5033,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>168</v>
       </c>
@@ -4515,7 +5053,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>171</v>
       </c>
@@ -4525,6 +5063,9 @@
       <c r="C147" t="s">
         <v>173</v>
       </c>
+      <c r="D147" t="s">
+        <v>415</v>
+      </c>
       <c r="E147" t="s">
         <v>9</v>
       </c>
@@ -4535,7 +5076,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>174</v>
       </c>
@@ -4545,6 +5086,9 @@
       <c r="C148" t="s">
         <v>173</v>
       </c>
+      <c r="D148" t="s">
+        <v>416</v>
+      </c>
       <c r="E148" t="s">
         <v>9</v>
       </c>
@@ -4555,7 +5099,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>175</v>
       </c>
@@ -4565,6 +5109,9 @@
       <c r="C149" t="s">
         <v>173</v>
       </c>
+      <c r="D149" t="s">
+        <v>417</v>
+      </c>
       <c r="E149" t="s">
         <v>9</v>
       </c>
@@ -4575,7 +5122,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>176</v>
       </c>
@@ -4585,6 +5132,9 @@
       <c r="C150" t="s">
         <v>173</v>
       </c>
+      <c r="D150" t="s">
+        <v>418</v>
+      </c>
       <c r="E150" t="s">
         <v>9</v>
       </c>
@@ -4595,7 +5145,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>177</v>
       </c>
@@ -4605,6 +5155,9 @@
       <c r="C151" t="s">
         <v>173</v>
       </c>
+      <c r="D151" t="s">
+        <v>419</v>
+      </c>
       <c r="E151" t="s">
         <v>9</v>
       </c>
@@ -4615,7 +5168,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>178</v>
       </c>
@@ -4625,6 +5178,9 @@
       <c r="C152" t="s">
         <v>173</v>
       </c>
+      <c r="D152" t="s">
+        <v>416</v>
+      </c>
       <c r="E152" t="s">
         <v>9</v>
       </c>
@@ -4635,7 +5191,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>179</v>
       </c>
@@ -4645,6 +5201,9 @@
       <c r="C153" t="s">
         <v>181</v>
       </c>
+      <c r="D153" t="s">
+        <v>420</v>
+      </c>
       <c r="E153" t="s">
         <v>9</v>
       </c>
@@ -4655,7 +5214,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>182</v>
       </c>
@@ -4665,6 +5224,9 @@
       <c r="C154" t="s">
         <v>184</v>
       </c>
+      <c r="D154" t="s">
+        <v>421</v>
+      </c>
       <c r="E154" t="s">
         <v>9</v>
       </c>
@@ -4675,7 +5237,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>186</v>
       </c>
@@ -4685,6 +5247,9 @@
       <c r="C155" t="s">
         <v>184</v>
       </c>
+      <c r="D155" t="s">
+        <v>421</v>
+      </c>
       <c r="E155" t="s">
         <v>9</v>
       </c>
@@ -4695,7 +5260,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>187</v>
       </c>
@@ -4705,6 +5270,9 @@
       <c r="C156" t="s">
         <v>189</v>
       </c>
+      <c r="D156" t="s">
+        <v>422</v>
+      </c>
       <c r="E156" t="s">
         <v>9</v>
       </c>
@@ -4715,7 +5283,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>190</v>
       </c>
@@ -4725,6 +5293,9 @@
       <c r="C157" t="s">
         <v>192</v>
       </c>
+      <c r="D157" t="s">
+        <v>423</v>
+      </c>
       <c r="E157" t="s">
         <v>9</v>
       </c>
@@ -4735,7 +5306,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>193</v>
       </c>
@@ -4745,6 +5316,9 @@
       <c r="C158" t="s">
         <v>195</v>
       </c>
+      <c r="D158" t="s">
+        <v>429</v>
+      </c>
       <c r="E158" t="s">
         <v>9</v>
       </c>
@@ -4755,7 +5329,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>196</v>
       </c>
@@ -4765,6 +5339,9 @@
       <c r="C159" t="s">
         <v>198</v>
       </c>
+      <c r="D159" t="s">
+        <v>424</v>
+      </c>
       <c r="E159" t="s">
         <v>9</v>
       </c>
@@ -4775,7 +5352,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>199</v>
       </c>
@@ -4785,6 +5362,9 @@
       <c r="C160" t="s">
         <v>201</v>
       </c>
+      <c r="D160" t="s">
+        <v>425</v>
+      </c>
       <c r="E160" t="s">
         <v>14</v>
       </c>
@@ -4795,7 +5375,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>203</v>
       </c>
@@ -4805,6 +5385,9 @@
       <c r="C161" t="s">
         <v>201</v>
       </c>
+      <c r="D161" t="s">
+        <v>425</v>
+      </c>
       <c r="E161" t="s">
         <v>14</v>
       </c>
@@ -4815,7 +5398,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>204</v>
       </c>
@@ -4825,6 +5408,9 @@
       <c r="C162" t="s">
         <v>201</v>
       </c>
+      <c r="D162" t="s">
+        <v>425</v>
+      </c>
       <c r="E162" t="s">
         <v>14</v>
       </c>
@@ -4835,7 +5421,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>205</v>
       </c>
@@ -4845,6 +5431,9 @@
       <c r="C163" t="s">
         <v>201</v>
       </c>
+      <c r="D163" t="s">
+        <v>425</v>
+      </c>
       <c r="E163" t="s">
         <v>14</v>
       </c>
@@ -4855,7 +5444,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>206</v>
       </c>
@@ -4865,6 +5454,9 @@
       <c r="C164" t="s">
         <v>208</v>
       </c>
+      <c r="D164" t="s">
+        <v>426</v>
+      </c>
       <c r="E164" t="s">
         <v>14</v>
       </c>
@@ -4875,7 +5467,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>209</v>
       </c>
@@ -4885,6 +5477,9 @@
       <c r="C165" t="s">
         <v>208</v>
       </c>
+      <c r="D165" t="s">
+        <v>426</v>
+      </c>
       <c r="E165" t="s">
         <v>14</v>
       </c>
@@ -4895,7 +5490,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>210</v>
       </c>
@@ -4905,6 +5500,9 @@
       <c r="C166" t="s">
         <v>208</v>
       </c>
+      <c r="D166" t="s">
+        <v>426</v>
+      </c>
       <c r="E166" t="s">
         <v>14</v>
       </c>
@@ -4915,7 +5513,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>211</v>
       </c>
@@ -4925,6 +5523,9 @@
       <c r="C167" t="s">
         <v>208</v>
       </c>
+      <c r="D167" t="s">
+        <v>426</v>
+      </c>
       <c r="E167" t="s">
         <v>14</v>
       </c>
@@ -4935,7 +5536,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>212</v>
       </c>
@@ -4945,6 +5546,9 @@
       <c r="C168" t="s">
         <v>208</v>
       </c>
+      <c r="D168" t="s">
+        <v>426</v>
+      </c>
       <c r="E168" t="s">
         <v>14</v>
       </c>
@@ -4955,7 +5559,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>213</v>
       </c>
@@ -4965,6 +5569,9 @@
       <c r="C169" t="s">
         <v>208</v>
       </c>
+      <c r="D169" t="s">
+        <v>426</v>
+      </c>
       <c r="E169" t="s">
         <v>14</v>
       </c>
@@ -4975,7 +5582,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>214</v>
       </c>
@@ -4985,6 +5592,9 @@
       <c r="C170" t="s">
         <v>216</v>
       </c>
+      <c r="D170" t="s">
+        <v>427</v>
+      </c>
       <c r="E170" t="s">
         <v>14</v>
       </c>
@@ -4995,7 +5605,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>217</v>
       </c>
@@ -5005,6 +5615,9 @@
       <c r="C171" t="s">
         <v>219</v>
       </c>
+      <c r="D171" t="s">
+        <v>428</v>
+      </c>
       <c r="E171" t="s">
         <v>9</v>
       </c>
@@ -5015,7 +5628,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>220</v>
       </c>
@@ -5025,6 +5638,9 @@
       <c r="C172" t="s">
         <v>219</v>
       </c>
+      <c r="D172" t="s">
+        <v>428</v>
+      </c>
       <c r="E172" t="s">
         <v>9</v>
       </c>
@@ -5035,7 +5651,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>221</v>
       </c>
@@ -5045,6 +5661,9 @@
       <c r="C173" t="s">
         <v>223</v>
       </c>
+      <c r="D173" t="s">
+        <v>430</v>
+      </c>
       <c r="E173" t="s">
         <v>9</v>
       </c>
@@ -5055,7 +5674,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>224</v>
       </c>
@@ -5065,6 +5684,9 @@
       <c r="C174" t="s">
         <v>226</v>
       </c>
+      <c r="D174" t="s">
+        <v>431</v>
+      </c>
       <c r="E174" t="s">
         <v>9</v>
       </c>
@@ -5075,7 +5697,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>227</v>
       </c>
@@ -5085,6 +5707,9 @@
       <c r="C175" t="s">
         <v>229</v>
       </c>
+      <c r="D175" t="s">
+        <v>424</v>
+      </c>
       <c r="E175" t="s">
         <v>9</v>
       </c>
@@ -5095,7 +5720,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>230</v>
       </c>
@@ -5105,6 +5730,9 @@
       <c r="C176" t="s">
         <v>232</v>
       </c>
+      <c r="D176" t="s">
+        <v>432</v>
+      </c>
       <c r="E176" t="s">
         <v>9</v>
       </c>
@@ -5115,7 +5743,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>234</v>
       </c>
@@ -5125,6 +5753,9 @@
       <c r="C177" t="s">
         <v>219</v>
       </c>
+      <c r="D177" t="s">
+        <v>433</v>
+      </c>
       <c r="E177" t="s">
         <v>9</v>
       </c>
@@ -5135,7 +5766,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>235</v>
       </c>
@@ -5145,6 +5776,9 @@
       <c r="C178" t="s">
         <v>237</v>
       </c>
+      <c r="D178" t="s">
+        <v>434</v>
+      </c>
       <c r="E178" t="s">
         <v>9</v>
       </c>
@@ -5155,7 +5789,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>239</v>
       </c>
@@ -5165,6 +5799,9 @@
       <c r="C179" t="s">
         <v>241</v>
       </c>
+      <c r="D179" t="s">
+        <v>435</v>
+      </c>
       <c r="E179" t="s">
         <v>9</v>
       </c>
@@ -5175,7 +5812,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>242</v>
       </c>
@@ -5195,7 +5832,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>246</v>
       </c>
@@ -5218,7 +5855,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>250</v>
       </c>
@@ -5241,7 +5878,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>251</v>
       </c>
@@ -5264,7 +5901,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>252</v>
       </c>
@@ -5284,7 +5921,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>255</v>
       </c>
@@ -5304,7 +5941,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>256</v>
       </c>
@@ -5327,7 +5964,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>257</v>
       </c>
@@ -5350,7 +5987,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>258</v>
       </c>
@@ -5373,7 +6010,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>259</v>
       </c>
@@ -5396,7 +6033,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>260</v>
       </c>
@@ -5419,7 +6056,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>261</v>
       </c>
@@ -5439,7 +6076,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>262</v>
       </c>
@@ -5462,7 +6099,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>263</v>
       </c>
@@ -5485,7 +6122,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>264</v>
       </c>
@@ -5505,7 +6142,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>265</v>
       </c>
@@ -5525,7 +6162,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>266</v>
       </c>
@@ -5545,7 +6182,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>267</v>
       </c>
@@ -5565,7 +6202,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>268</v>
       </c>
@@ -5585,7 +6222,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>269</v>
       </c>
@@ -5605,7 +6242,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>270</v>
       </c>
@@ -5625,7 +6262,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>271</v>
       </c>
@@ -5645,7 +6282,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>272</v>
       </c>
@@ -5665,7 +6302,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>273</v>
       </c>
@@ -5685,7 +6322,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>274</v>
       </c>
@@ -5705,7 +6342,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>275</v>
       </c>
@@ -5725,7 +6362,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>276</v>
       </c>
@@ -5745,7 +6382,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>277</v>
       </c>
@@ -5765,7 +6402,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>278</v>
       </c>
@@ -5785,7 +6422,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>279</v>
       </c>
@@ -5805,7 +6442,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>280</v>
       </c>
@@ -5825,7 +6462,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>281</v>
       </c>
@@ -5845,7 +6482,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>282</v>
       </c>
@@ -5865,7 +6502,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>283</v>
       </c>
@@ -5885,7 +6522,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>284</v>
       </c>
@@ -5905,7 +6542,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>285</v>
       </c>
@@ -5925,7 +6562,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>286</v>
       </c>
@@ -5945,7 +6582,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>287</v>
       </c>
@@ -5965,7 +6602,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>288</v>
       </c>
@@ -5985,7 +6622,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>289</v>
       </c>
@@ -6005,7 +6642,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>290</v>
       </c>
@@ -6025,7 +6662,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>291</v>
       </c>
@@ -6045,7 +6682,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>292</v>
       </c>
@@ -6065,7 +6702,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>293</v>
       </c>
@@ -6085,7 +6722,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>294</v>
       </c>
@@ -6105,7 +6742,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>295</v>
       </c>
@@ -6125,7 +6762,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>296</v>
       </c>
@@ -6145,7 +6782,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>297</v>
       </c>
@@ -6165,7 +6802,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>298</v>
       </c>
@@ -6185,7 +6822,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>299</v>
       </c>
@@ -6205,7 +6842,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>300</v>
       </c>
@@ -6225,7 +6862,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>301</v>
       </c>
@@ -6245,7 +6882,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>302</v>
       </c>
@@ -6265,7 +6902,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>303</v>
       </c>
@@ -6285,7 +6922,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>304</v>
       </c>
@@ -6305,7 +6942,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>305</v>
       </c>
@@ -6325,7 +6962,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>306</v>
       </c>
@@ -6345,7 +6982,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>307</v>
       </c>
@@ -6365,7 +7002,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>308</v>
       </c>
@@ -6385,7 +7022,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>311</v>
       </c>
@@ -6405,7 +7042,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>312</v>
       </c>
@@ -6425,7 +7062,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>313</v>
       </c>
@@ -6445,7 +7082,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>314</v>
       </c>
@@ -6465,7 +7102,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>315</v>
       </c>
@@ -6485,7 +7122,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>316</v>
       </c>
@@ -6505,7 +7142,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>317</v>
       </c>
@@ -6525,7 +7162,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>318</v>
       </c>
@@ -6545,7 +7182,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>319</v>
       </c>
@@ -6568,7 +7205,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>322</v>
       </c>
@@ -6591,7 +7228,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>323</v>
       </c>
@@ -6614,7 +7251,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>324</v>
       </c>
@@ -6637,7 +7274,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>325</v>
       </c>
@@ -6660,7 +7297,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>327</v>
       </c>
@@ -6683,7 +7320,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>328</v>
       </c>
@@ -6706,7 +7343,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>329</v>
       </c>
@@ -6729,7 +7366,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>330</v>
       </c>
@@ -6752,7 +7389,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>331</v>
       </c>
@@ -6775,7 +7412,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>332</v>
       </c>
@@ -6785,6 +7422,9 @@
       <c r="C257" t="s">
         <v>237</v>
       </c>
+      <c r="D257" t="s">
+        <v>434</v>
+      </c>
       <c r="E257" t="s">
         <v>9</v>
       </c>
@@ -6795,7 +7435,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>333</v>
       </c>
@@ -6805,6 +7445,9 @@
       <c r="C258" t="s">
         <v>237</v>
       </c>
+      <c r="D258" t="s">
+        <v>434</v>
+      </c>
       <c r="E258" t="s">
         <v>9</v>
       </c>
@@ -6815,7 +7458,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>334</v>
       </c>
@@ -6825,6 +7468,9 @@
       <c r="C259" t="s">
         <v>237</v>
       </c>
+      <c r="D259" t="s">
+        <v>434</v>
+      </c>
       <c r="E259" t="s">
         <v>9</v>
       </c>
@@ -6835,7 +7481,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>335</v>
       </c>
@@ -6845,6 +7491,7 @@
       <c r="C260" t="s">
         <v>337</v>
       </c>
+      <c r="D260" s="5"/>
       <c r="E260" t="s">
         <v>14</v>
       </c>
@@ -6855,7 +7502,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>338</v>
       </c>
@@ -6875,7 +7522,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>341</v>
       </c>
@@ -6895,7 +7542,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>342</v>
       </c>
@@ -6915,7 +7562,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>343</v>
       </c>
@@ -6935,7 +7582,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>344</v>
       </c>
@@ -6945,6 +7592,9 @@
       <c r="C265" t="s">
         <v>346</v>
       </c>
+      <c r="D265" t="s">
+        <v>346</v>
+      </c>
       <c r="E265" t="s">
         <v>14</v>
       </c>
@@ -6955,7 +7605,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>348</v>
       </c>
@@ -6972,178 +7622,178 @@
         <v>1</v>
       </c>
       <c r="G266" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
+        <v>352</v>
+      </c>
+      <c r="B267" t="s">
+        <v>353</v>
+      </c>
+      <c r="C267" t="s">
+        <v>354</v>
+      </c>
+      <c r="E267" t="s">
+        <v>14</v>
+      </c>
+      <c r="F267">
+        <v>6</v>
+      </c>
+      <c r="G267" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>356</v>
+      </c>
+      <c r="B268" t="s">
+        <v>357</v>
+      </c>
+      <c r="C268" t="s">
+        <v>358</v>
+      </c>
+      <c r="E268" t="s">
+        <v>9</v>
+      </c>
+      <c r="F268">
+        <v>1</v>
+      </c>
+      <c r="G268" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>359</v>
+      </c>
+      <c r="B269" t="s">
+        <v>357</v>
+      </c>
+      <c r="C269" t="s">
+        <v>358</v>
+      </c>
+      <c r="E269" t="s">
+        <v>14</v>
+      </c>
+      <c r="F269">
+        <v>6</v>
+      </c>
+      <c r="G269" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>360</v>
+      </c>
+      <c r="B270" t="s">
+        <v>361</v>
+      </c>
+      <c r="C270" t="s">
+        <v>362</v>
+      </c>
+      <c r="E270" t="s">
+        <v>9</v>
+      </c>
+      <c r="F270">
+        <v>1</v>
+      </c>
+      <c r="G270" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>363</v>
+      </c>
+      <c r="B271" t="s">
+        <v>361</v>
+      </c>
+      <c r="C271" t="s">
+        <v>362</v>
+      </c>
+      <c r="E271" t="s">
+        <v>9</v>
+      </c>
+      <c r="F271">
+        <v>1</v>
+      </c>
+      <c r="G271" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>364</v>
+      </c>
+      <c r="B272" t="s">
+        <v>365</v>
+      </c>
+      <c r="C272" t="s">
+        <v>366</v>
+      </c>
+      <c r="E272" t="s">
+        <v>9</v>
+      </c>
+      <c r="F272">
+        <v>1</v>
+      </c>
+      <c r="G272" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>367</v>
+      </c>
+      <c r="B273" t="s">
+        <v>368</v>
+      </c>
+      <c r="C273" t="s">
+        <v>369</v>
+      </c>
+      <c r="E273" t="s">
+        <v>14</v>
+      </c>
+      <c r="F273">
+        <v>6</v>
+      </c>
+      <c r="G273" t="s">
         <v>351</v>
       </c>
-      <c r="B267" t="s">
-        <v>349</v>
-      </c>
-      <c r="C267" t="s">
-        <v>350</v>
-      </c>
-      <c r="E267" t="s">
-        <v>9</v>
-      </c>
-      <c r="F267">
-        <v>1</v>
-      </c>
-      <c r="G267" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A268" t="s">
-        <v>352</v>
-      </c>
-      <c r="B268" t="s">
-        <v>349</v>
-      </c>
-      <c r="C268" t="s">
-        <v>350</v>
-      </c>
-      <c r="E268" t="s">
-        <v>9</v>
-      </c>
-      <c r="F268">
-        <v>1</v>
-      </c>
-      <c r="G268" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A269" t="s">
-        <v>353</v>
-      </c>
-      <c r="B269" t="s">
-        <v>349</v>
-      </c>
-      <c r="C269" t="s">
-        <v>350</v>
-      </c>
-      <c r="E269" t="s">
-        <v>9</v>
-      </c>
-      <c r="F269">
-        <v>1</v>
-      </c>
-      <c r="G269" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A270" t="s">
-        <v>354</v>
-      </c>
-      <c r="B270" t="s">
-        <v>349</v>
-      </c>
-      <c r="C270" t="s">
-        <v>350</v>
-      </c>
-      <c r="E270" t="s">
-        <v>9</v>
-      </c>
-      <c r="F270">
-        <v>1</v>
-      </c>
-      <c r="G270" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A271" t="s">
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>370</v>
+      </c>
+      <c r="B274" t="s">
+        <v>371</v>
+      </c>
+      <c r="C274" t="s">
+        <v>372</v>
+      </c>
+      <c r="E274" t="s">
+        <v>14</v>
+      </c>
+      <c r="F274">
+        <v>6</v>
+      </c>
+      <c r="G274" t="s">
         <v>355</v>
       </c>
-      <c r="B271" t="s">
-        <v>349</v>
-      </c>
-      <c r="C271" t="s">
-        <v>350</v>
-      </c>
-      <c r="E271" t="s">
-        <v>9</v>
-      </c>
-      <c r="F271">
-        <v>1</v>
-      </c>
-      <c r="G271" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A272" t="s">
-        <v>356</v>
-      </c>
-      <c r="B272" t="s">
-        <v>349</v>
-      </c>
-      <c r="C272" t="s">
-        <v>350</v>
-      </c>
-      <c r="E272" t="s">
-        <v>9</v>
-      </c>
-      <c r="F272">
-        <v>1</v>
-      </c>
-      <c r="G272" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A273" t="s">
-        <v>357</v>
-      </c>
-      <c r="B273" t="s">
-        <v>349</v>
-      </c>
-      <c r="C273" t="s">
-        <v>350</v>
-      </c>
-      <c r="E273" t="s">
-        <v>9</v>
-      </c>
-      <c r="F273">
-        <v>1</v>
-      </c>
-      <c r="G273" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A274" t="s">
-        <v>358</v>
-      </c>
-      <c r="B274" t="s">
-        <v>349</v>
-      </c>
-      <c r="C274" t="s">
-        <v>350</v>
-      </c>
-      <c r="E274" t="s">
-        <v>9</v>
-      </c>
-      <c r="F274">
-        <v>1</v>
-      </c>
-      <c r="G274" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="B275" t="s">
-        <v>349</v>
+        <v>374</v>
       </c>
       <c r="C275" t="s">
-        <v>350</v>
+        <v>375</v>
       </c>
       <c r="E275" t="s">
         <v>9</v>
@@ -7152,18 +7802,18 @@
         <v>1</v>
       </c>
       <c r="G275" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="B276" t="s">
-        <v>349</v>
+        <v>436</v>
       </c>
       <c r="C276" t="s">
-        <v>350</v>
+        <v>378</v>
       </c>
       <c r="E276" t="s">
         <v>9</v>
@@ -7175,15 +7825,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="B277" t="s">
-        <v>349</v>
+        <v>380</v>
       </c>
       <c r="C277" t="s">
-        <v>350</v>
+        <v>381</v>
       </c>
       <c r="E277" t="s">
         <v>9</v>
@@ -7195,15 +7845,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>362</v>
+        <v>382</v>
       </c>
       <c r="B278" t="s">
-        <v>349</v>
+        <v>383</v>
       </c>
       <c r="C278" t="s">
-        <v>350</v>
+        <v>384</v>
       </c>
       <c r="E278" t="s">
         <v>9</v>
@@ -7212,18 +7862,18 @@
         <v>1</v>
       </c>
       <c r="G278" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>363</v>
+        <v>386</v>
       </c>
       <c r="B279" t="s">
-        <v>349</v>
+        <v>383</v>
       </c>
       <c r="C279" t="s">
-        <v>350</v>
+        <v>384</v>
       </c>
       <c r="E279" t="s">
         <v>9</v>
@@ -7232,292 +7882,12 @@
         <v>1</v>
       </c>
       <c r="G279" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A280" t="s">
-        <v>364</v>
-      </c>
-      <c r="B280" t="s">
-        <v>365</v>
-      </c>
-      <c r="C280" t="s">
-        <v>366</v>
-      </c>
-      <c r="E280" t="s">
-        <v>9</v>
-      </c>
-      <c r="F280">
-        <v>1</v>
-      </c>
-      <c r="G280" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A281" t="s">
-        <v>368</v>
-      </c>
-      <c r="B281" t="s">
-        <v>369</v>
-      </c>
-      <c r="C281" t="s">
-        <v>370</v>
-      </c>
-      <c r="E281" t="s">
-        <v>14</v>
-      </c>
-      <c r="F281">
-        <v>6</v>
-      </c>
-      <c r="G281" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A282" t="s">
-        <v>372</v>
-      </c>
-      <c r="B282" t="s">
-        <v>373</v>
-      </c>
-      <c r="C282" t="s">
-        <v>374</v>
-      </c>
-      <c r="E282" t="s">
-        <v>9</v>
-      </c>
-      <c r="F282">
-        <v>1</v>
-      </c>
-      <c r="G282" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A283" t="s">
-        <v>375</v>
-      </c>
-      <c r="B283" t="s">
-        <v>373</v>
-      </c>
-      <c r="C283" t="s">
-        <v>374</v>
-      </c>
-      <c r="E283" t="s">
-        <v>14</v>
-      </c>
-      <c r="F283">
-        <v>6</v>
-      </c>
-      <c r="G283" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A284" t="s">
-        <v>376</v>
-      </c>
-      <c r="B284" t="s">
-        <v>377</v>
-      </c>
-      <c r="C284" t="s">
-        <v>378</v>
-      </c>
-      <c r="E284" t="s">
-        <v>9</v>
-      </c>
-      <c r="F284">
-        <v>1</v>
-      </c>
-      <c r="G284" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A285" t="s">
-        <v>379</v>
-      </c>
-      <c r="B285" t="s">
-        <v>377</v>
-      </c>
-      <c r="C285" t="s">
-        <v>378</v>
-      </c>
-      <c r="E285" t="s">
-        <v>9</v>
-      </c>
-      <c r="F285">
-        <v>1</v>
-      </c>
-      <c r="G285" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A286" t="s">
-        <v>380</v>
-      </c>
-      <c r="B286" t="s">
-        <v>381</v>
-      </c>
-      <c r="C286" t="s">
-        <v>382</v>
-      </c>
-      <c r="E286" t="s">
-        <v>9</v>
-      </c>
-      <c r="F286">
-        <v>1</v>
-      </c>
-      <c r="G286" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A287" t="s">
-        <v>383</v>
-      </c>
-      <c r="B287" t="s">
-        <v>384</v>
-      </c>
-      <c r="C287" t="s">
         <v>385</v>
       </c>
-      <c r="E287" t="s">
-        <v>14</v>
-      </c>
-      <c r="F287">
-        <v>6</v>
-      </c>
-      <c r="G287" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A288" t="s">
-        <v>386</v>
-      </c>
-      <c r="B288" t="s">
-        <v>387</v>
-      </c>
-      <c r="C288" t="s">
+    </row>
+    <row r="281" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A281" s="1" t="s">
         <v>388</v>
-      </c>
-      <c r="E288" t="s">
-        <v>14</v>
-      </c>
-      <c r="F288">
-        <v>6</v>
-      </c>
-      <c r="G288" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A289" t="s">
-        <v>389</v>
-      </c>
-      <c r="B289" t="s">
-        <v>390</v>
-      </c>
-      <c r="C289" t="s">
-        <v>391</v>
-      </c>
-      <c r="E289" t="s">
-        <v>9</v>
-      </c>
-      <c r="F289">
-        <v>1</v>
-      </c>
-      <c r="G289" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A290" t="s">
-        <v>392</v>
-      </c>
-      <c r="B290" t="s">
-        <v>393</v>
-      </c>
-      <c r="C290" t="s">
-        <v>394</v>
-      </c>
-      <c r="E290" t="s">
-        <v>9</v>
-      </c>
-      <c r="F290">
-        <v>1</v>
-      </c>
-      <c r="G290" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A291" t="s">
-        <v>395</v>
-      </c>
-      <c r="B291" t="s">
-        <v>396</v>
-      </c>
-      <c r="C291" t="s">
-        <v>397</v>
-      </c>
-      <c r="E291" t="s">
-        <v>9</v>
-      </c>
-      <c r="F291">
-        <v>1</v>
-      </c>
-      <c r="G291" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A292" t="s">
-        <v>398</v>
-      </c>
-      <c r="B292" t="s">
-        <v>399</v>
-      </c>
-      <c r="C292" t="s">
-        <v>400</v>
-      </c>
-      <c r="E292" t="s">
-        <v>9</v>
-      </c>
-      <c r="F292">
-        <v>1</v>
-      </c>
-      <c r="G292" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A293" t="s">
-        <v>402</v>
-      </c>
-      <c r="B293" t="s">
-        <v>399</v>
-      </c>
-      <c r="C293" t="s">
-        <v>400</v>
-      </c>
-      <c r="E293" t="s">
-        <v>9</v>
-      </c>
-      <c r="F293">
-        <v>1</v>
-      </c>
-      <c r="G293" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="295" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A295" s="1" t="s">
-        <v>404</v>
       </c>
     </row>
   </sheetData>
@@ -7525,4 +7895,541 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62A830F9-959C-B34F-BCA6-4F4F23785374}">
+  <dimension ref="A1:I16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="28.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>348</v>
+      </c>
+      <c r="B3" t="s">
+        <v>391</v>
+      </c>
+      <c r="C3" t="s">
+        <v>350</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>351</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>348</v>
+      </c>
+      <c r="B4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C4" t="s">
+        <v>350</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>351</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>348</v>
+      </c>
+      <c r="B5" t="s">
+        <v>392</v>
+      </c>
+      <c r="C5" t="s">
+        <v>350</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>351</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>348</v>
+      </c>
+      <c r="B6" t="s">
+        <v>393</v>
+      </c>
+      <c r="C6" t="s">
+        <v>350</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>351</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>352</v>
+      </c>
+      <c r="B7" t="s">
+        <v>353</v>
+      </c>
+      <c r="C7" t="s">
+        <v>354</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7" t="s">
+        <v>355</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>356</v>
+      </c>
+      <c r="B8" t="s">
+        <v>357</v>
+      </c>
+      <c r="C8" t="s">
+        <v>358</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>355</v>
+      </c>
+      <c r="H8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>360</v>
+      </c>
+      <c r="B9" t="s">
+        <v>361</v>
+      </c>
+      <c r="C9" t="s">
+        <v>362</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>355</v>
+      </c>
+      <c r="H9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>364</v>
+      </c>
+      <c r="B10" t="s">
+        <v>365</v>
+      </c>
+      <c r="C10" t="s">
+        <v>366</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>355</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>367</v>
+      </c>
+      <c r="B11" t="s">
+        <v>395</v>
+      </c>
+      <c r="C11" t="s">
+        <v>369</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11">
+        <v>6</v>
+      </c>
+      <c r="G11" t="s">
+        <v>351</v>
+      </c>
+      <c r="H11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>370</v>
+      </c>
+      <c r="B12" t="s">
+        <v>371</v>
+      </c>
+      <c r="C12" t="s">
+        <v>372</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12">
+        <v>6</v>
+      </c>
+      <c r="G12" t="s">
+        <v>355</v>
+      </c>
+      <c r="H12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>373</v>
+      </c>
+      <c r="B13" t="s">
+        <v>374</v>
+      </c>
+      <c r="C13" t="s">
+        <v>375</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>355</v>
+      </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>382</v>
+      </c>
+      <c r="B14" t="s">
+        <v>396</v>
+      </c>
+      <c r="C14" t="s">
+        <v>384</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>385</v>
+      </c>
+      <c r="H14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>386</v>
+      </c>
+      <c r="B15" t="s">
+        <v>397</v>
+      </c>
+      <c r="C15" t="s">
+        <v>384</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>385</v>
+      </c>
+      <c r="H15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>344</v>
+      </c>
+      <c r="B16" t="s">
+        <v>345</v>
+      </c>
+      <c r="C16" t="s">
+        <v>346</v>
+      </c>
+      <c r="D16" t="s">
+        <v>346</v>
+      </c>
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16">
+        <v>6</v>
+      </c>
+      <c r="G16" t="s">
+        <v>347</v>
+      </c>
+      <c r="H16">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E284AE-FE25-5549-A175-47F09389E7E4}">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.1640625" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" customWidth="1"/>
+    <col min="3" max="3" width="22.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>400</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>400</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>379</v>
+      </c>
+      <c r="B5" t="s">
+        <v>380</v>
+      </c>
+      <c r="C5" t="s">
+        <v>401</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>376</v>
+      </c>
+      <c r="B6" t="s">
+        <v>377</v>
+      </c>
+      <c r="C6" t="s">
+        <v>402</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Data/github_prjs/EmbeddedNeuromophicCamera_PADS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhD_project\Neuromophic Camera\pcb and schematics\embedded neuromophic camera\EmbeddedNeuromophicCamera_PADS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17216490-413F-944F-98E3-439278CECCEB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D058900-2A8F-472D-B316-C1185B9C4AF4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{8EA9F011-AF60-47FB-BBDE-C3F1296126CD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{8EA9F011-AF60-47FB-BBDE-C3F1296126CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1693" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1699" uniqueCount="437">
   <si>
     <t>Name</t>
   </si>
@@ -1409,10 +1409,10 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1730,27 +1730,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED008CBA-9651-4434-9CA4-378A54734DD1}">
   <dimension ref="A1:G281"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A265" sqref="A265:XFD265"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.6640625" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1773,7 +1773,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1793,7 +1793,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1813,7 +1813,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1836,7 +1836,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1859,7 +1859,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1882,7 +1882,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -1905,7 +1905,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -1928,7 +1928,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -1951,7 +1951,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -1974,7 +1974,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -1997,7 +1997,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -2020,7 +2020,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -2043,7 +2043,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -2066,7 +2066,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -2089,7 +2089,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -2112,7 +2112,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -2135,7 +2135,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -2158,7 +2158,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -2181,7 +2181,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -2204,7 +2204,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -2227,7 +2227,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -2250,7 +2250,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -2273,7 +2273,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -2296,7 +2296,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>40</v>
       </c>
@@ -2319,7 +2319,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>41</v>
       </c>
@@ -2342,7 +2342,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>42</v>
       </c>
@@ -2365,7 +2365,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>43</v>
       </c>
@@ -2388,7 +2388,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>44</v>
       </c>
@@ -2411,7 +2411,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>45</v>
       </c>
@@ -2434,7 +2434,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>46</v>
       </c>
@@ -2457,7 +2457,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>47</v>
       </c>
@@ -2480,7 +2480,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>48</v>
       </c>
@@ -2503,7 +2503,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>49</v>
       </c>
@@ -2526,7 +2526,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>50</v>
       </c>
@@ -2549,7 +2549,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>51</v>
       </c>
@@ -2572,7 +2572,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>52</v>
       </c>
@@ -2595,7 +2595,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>53</v>
       </c>
@@ -2618,7 +2618,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>54</v>
       </c>
@@ -2641,7 +2641,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>55</v>
       </c>
@@ -2664,7 +2664,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>56</v>
       </c>
@@ -2687,7 +2687,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>57</v>
       </c>
@@ -2710,7 +2710,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>58</v>
       </c>
@@ -2733,7 +2733,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>59</v>
       </c>
@@ -2756,7 +2756,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>60</v>
       </c>
@@ -2779,7 +2779,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>61</v>
       </c>
@@ -2802,7 +2802,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>62</v>
       </c>
@@ -2825,7 +2825,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>63</v>
       </c>
@@ -2848,7 +2848,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>64</v>
       </c>
@@ -2871,7 +2871,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>65</v>
       </c>
@@ -2894,7 +2894,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>66</v>
       </c>
@@ -2917,7 +2917,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>67</v>
       </c>
@@ -2940,7 +2940,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>68</v>
       </c>
@@ -2963,7 +2963,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>69</v>
       </c>
@@ -2986,7 +2986,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>70</v>
       </c>
@@ -3009,7 +3009,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>71</v>
       </c>
@@ -3032,7 +3032,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>72</v>
       </c>
@@ -3055,7 +3055,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>73</v>
       </c>
@@ -3078,7 +3078,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>74</v>
       </c>
@@ -3101,7 +3101,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>75</v>
       </c>
@@ -3124,7 +3124,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>76</v>
       </c>
@@ -3147,7 +3147,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>77</v>
       </c>
@@ -3170,7 +3170,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>78</v>
       </c>
@@ -3193,7 +3193,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>79</v>
       </c>
@@ -3216,7 +3216,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>80</v>
       </c>
@@ -3239,7 +3239,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>81</v>
       </c>
@@ -3262,7 +3262,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>82</v>
       </c>
@@ -3285,7 +3285,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>83</v>
       </c>
@@ -3308,7 +3308,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>84</v>
       </c>
@@ -3331,7 +3331,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>85</v>
       </c>
@@ -3354,7 +3354,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>86</v>
       </c>
@@ -3377,7 +3377,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>87</v>
       </c>
@@ -3400,7 +3400,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>88</v>
       </c>
@@ -3423,7 +3423,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>89</v>
       </c>
@@ -3446,7 +3446,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>90</v>
       </c>
@@ -3469,7 +3469,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>91</v>
       </c>
@@ -3492,7 +3492,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>92</v>
       </c>
@@ -3515,7 +3515,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>93</v>
       </c>
@@ -3538,7 +3538,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>94</v>
       </c>
@@ -3561,7 +3561,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>95</v>
       </c>
@@ -3584,7 +3584,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>96</v>
       </c>
@@ -3607,7 +3607,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>97</v>
       </c>
@@ -3630,7 +3630,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>98</v>
       </c>
@@ -3653,7 +3653,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>99</v>
       </c>
@@ -3676,7 +3676,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>100</v>
       </c>
@@ -3699,7 +3699,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>101</v>
       </c>
@@ -3722,7 +3722,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>102</v>
       </c>
@@ -3745,7 +3745,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>103</v>
       </c>
@@ -3768,7 +3768,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>104</v>
       </c>
@@ -3791,7 +3791,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>105</v>
       </c>
@@ -3814,7 +3814,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>106</v>
       </c>
@@ -3837,7 +3837,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>107</v>
       </c>
@@ -3860,7 +3860,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>108</v>
       </c>
@@ -3883,7 +3883,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>109</v>
       </c>
@@ -3906,7 +3906,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>110</v>
       </c>
@@ -3929,7 +3929,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>111</v>
       </c>
@@ -3952,7 +3952,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>112</v>
       </c>
@@ -3975,7 +3975,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>113</v>
       </c>
@@ -3998,7 +3998,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>114</v>
       </c>
@@ -4021,7 +4021,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>115</v>
       </c>
@@ -4044,7 +4044,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>116</v>
       </c>
@@ -4067,7 +4067,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>117</v>
       </c>
@@ -4090,7 +4090,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>118</v>
       </c>
@@ -4113,7 +4113,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>119</v>
       </c>
@@ -4136,7 +4136,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>120</v>
       </c>
@@ -4159,7 +4159,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>121</v>
       </c>
@@ -4182,7 +4182,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>122</v>
       </c>
@@ -4205,7 +4205,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>123</v>
       </c>
@@ -4228,7 +4228,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>124</v>
       </c>
@@ -4251,7 +4251,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>125</v>
       </c>
@@ -4274,7 +4274,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>126</v>
       </c>
@@ -4297,7 +4297,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>127</v>
       </c>
@@ -4320,7 +4320,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>128</v>
       </c>
@@ -4343,7 +4343,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>129</v>
       </c>
@@ -4366,7 +4366,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>130</v>
       </c>
@@ -4389,7 +4389,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>131</v>
       </c>
@@ -4412,7 +4412,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>132</v>
       </c>
@@ -4435,7 +4435,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>133</v>
       </c>
@@ -4458,7 +4458,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>134</v>
       </c>
@@ -4481,7 +4481,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>135</v>
       </c>
@@ -4504,7 +4504,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>136</v>
       </c>
@@ -4527,7 +4527,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>137</v>
       </c>
@@ -4550,7 +4550,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>138</v>
       </c>
@@ -4573,7 +4573,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>139</v>
       </c>
@@ -4596,7 +4596,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>140</v>
       </c>
@@ -4619,7 +4619,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>141</v>
       </c>
@@ -4642,7 +4642,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>142</v>
       </c>
@@ -4665,7 +4665,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>143</v>
       </c>
@@ -4688,7 +4688,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>144</v>
       </c>
@@ -4711,7 +4711,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>145</v>
       </c>
@@ -4734,7 +4734,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>146</v>
       </c>
@@ -4757,7 +4757,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>147</v>
       </c>
@@ -4780,7 +4780,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>148</v>
       </c>
@@ -4803,7 +4803,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>149</v>
       </c>
@@ -4826,7 +4826,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>150</v>
       </c>
@@ -4849,7 +4849,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>151</v>
       </c>
@@ -4872,7 +4872,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>152</v>
       </c>
@@ -4895,7 +4895,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>153</v>
       </c>
@@ -4918,7 +4918,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>154</v>
       </c>
@@ -4941,7 +4941,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>158</v>
       </c>
@@ -4964,7 +4964,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>161</v>
       </c>
@@ -4987,7 +4987,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>164</v>
       </c>
@@ -5010,7 +5010,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>167</v>
       </c>
@@ -5033,7 +5033,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>168</v>
       </c>
@@ -5053,7 +5053,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>171</v>
       </c>
@@ -5076,7 +5076,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>174</v>
       </c>
@@ -5099,7 +5099,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>175</v>
       </c>
@@ -5122,7 +5122,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>176</v>
       </c>
@@ -5145,7 +5145,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>177</v>
       </c>
@@ -5168,7 +5168,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>178</v>
       </c>
@@ -5191,7 +5191,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>179</v>
       </c>
@@ -5214,7 +5214,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>182</v>
       </c>
@@ -5237,7 +5237,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>186</v>
       </c>
@@ -5260,7 +5260,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>187</v>
       </c>
@@ -5283,7 +5283,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>190</v>
       </c>
@@ -5306,7 +5306,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>193</v>
       </c>
@@ -5329,7 +5329,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>196</v>
       </c>
@@ -5352,7 +5352,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>199</v>
       </c>
@@ -5375,7 +5375,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>203</v>
       </c>
@@ -5398,7 +5398,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>204</v>
       </c>
@@ -5421,7 +5421,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>205</v>
       </c>
@@ -5444,7 +5444,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>206</v>
       </c>
@@ -5467,7 +5467,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>209</v>
       </c>
@@ -5490,7 +5490,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>210</v>
       </c>
@@ -5513,7 +5513,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>211</v>
       </c>
@@ -5536,7 +5536,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>212</v>
       </c>
@@ -5559,7 +5559,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>213</v>
       </c>
@@ -5582,7 +5582,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>214</v>
       </c>
@@ -5605,7 +5605,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>217</v>
       </c>
@@ -5628,7 +5628,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>220</v>
       </c>
@@ -5651,7 +5651,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>221</v>
       </c>
@@ -5674,7 +5674,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>224</v>
       </c>
@@ -5697,7 +5697,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>227</v>
       </c>
@@ -5720,7 +5720,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>230</v>
       </c>
@@ -5743,7 +5743,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>234</v>
       </c>
@@ -5766,7 +5766,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>235</v>
       </c>
@@ -5789,7 +5789,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>239</v>
       </c>
@@ -5812,7 +5812,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>242</v>
       </c>
@@ -5832,7 +5832,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>246</v>
       </c>
@@ -5855,7 +5855,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>250</v>
       </c>
@@ -5878,7 +5878,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>251</v>
       </c>
@@ -5901,7 +5901,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>252</v>
       </c>
@@ -5921,7 +5921,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>255</v>
       </c>
@@ -5941,7 +5941,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>256</v>
       </c>
@@ -5964,7 +5964,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>257</v>
       </c>
@@ -5987,7 +5987,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>258</v>
       </c>
@@ -6010,7 +6010,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>259</v>
       </c>
@@ -6033,7 +6033,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>260</v>
       </c>
@@ -6056,7 +6056,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>261</v>
       </c>
@@ -6076,7 +6076,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>262</v>
       </c>
@@ -6099,7 +6099,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>263</v>
       </c>
@@ -6122,7 +6122,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>264</v>
       </c>
@@ -6142,7 +6142,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>265</v>
       </c>
@@ -6162,7 +6162,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>266</v>
       </c>
@@ -6182,7 +6182,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>267</v>
       </c>
@@ -6202,7 +6202,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>268</v>
       </c>
@@ -6222,7 +6222,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>269</v>
       </c>
@@ -6242,7 +6242,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>270</v>
       </c>
@@ -6262,7 +6262,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>271</v>
       </c>
@@ -6282,7 +6282,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>272</v>
       </c>
@@ -6302,7 +6302,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>273</v>
       </c>
@@ -6322,7 +6322,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>274</v>
       </c>
@@ -6342,7 +6342,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>275</v>
       </c>
@@ -6362,7 +6362,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>276</v>
       </c>
@@ -6382,7 +6382,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>277</v>
       </c>
@@ -6402,7 +6402,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>278</v>
       </c>
@@ -6422,7 +6422,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>279</v>
       </c>
@@ -6442,7 +6442,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>280</v>
       </c>
@@ -6462,7 +6462,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>281</v>
       </c>
@@ -6482,7 +6482,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>282</v>
       </c>
@@ -6502,7 +6502,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>283</v>
       </c>
@@ -6522,7 +6522,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>284</v>
       </c>
@@ -6542,7 +6542,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>285</v>
       </c>
@@ -6562,7 +6562,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>286</v>
       </c>
@@ -6582,7 +6582,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>287</v>
       </c>
@@ -6602,7 +6602,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>288</v>
       </c>
@@ -6622,7 +6622,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>289</v>
       </c>
@@ -6642,7 +6642,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>290</v>
       </c>
@@ -6662,7 +6662,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>291</v>
       </c>
@@ -6682,7 +6682,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>292</v>
       </c>
@@ -6702,7 +6702,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>293</v>
       </c>
@@ -6722,7 +6722,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>294</v>
       </c>
@@ -6742,7 +6742,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>295</v>
       </c>
@@ -6762,7 +6762,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>296</v>
       </c>
@@ -6782,7 +6782,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>297</v>
       </c>
@@ -6802,7 +6802,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>298</v>
       </c>
@@ -6822,7 +6822,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>299</v>
       </c>
@@ -6842,7 +6842,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>300</v>
       </c>
@@ -6862,7 +6862,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>301</v>
       </c>
@@ -6882,7 +6882,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>302</v>
       </c>
@@ -6902,7 +6902,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>303</v>
       </c>
@@ -6922,7 +6922,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>304</v>
       </c>
@@ -6942,7 +6942,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>305</v>
       </c>
@@ -6962,7 +6962,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>306</v>
       </c>
@@ -6982,7 +6982,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>307</v>
       </c>
@@ -7002,7 +7002,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>308</v>
       </c>
@@ -7022,7 +7022,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>311</v>
       </c>
@@ -7042,7 +7042,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>312</v>
       </c>
@@ -7062,7 +7062,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>313</v>
       </c>
@@ -7082,7 +7082,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>314</v>
       </c>
@@ -7102,7 +7102,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>315</v>
       </c>
@@ -7122,7 +7122,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>316</v>
       </c>
@@ -7142,7 +7142,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>317</v>
       </c>
@@ -7162,7 +7162,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>318</v>
       </c>
@@ -7182,7 +7182,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>319</v>
       </c>
@@ -7205,7 +7205,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>322</v>
       </c>
@@ -7228,7 +7228,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>323</v>
       </c>
@@ -7251,7 +7251,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>324</v>
       </c>
@@ -7274,7 +7274,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>325</v>
       </c>
@@ -7297,7 +7297,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>327</v>
       </c>
@@ -7320,7 +7320,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>328</v>
       </c>
@@ -7343,7 +7343,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>329</v>
       </c>
@@ -7366,7 +7366,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>330</v>
       </c>
@@ -7389,7 +7389,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>331</v>
       </c>
@@ -7412,7 +7412,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>332</v>
       </c>
@@ -7435,7 +7435,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>333</v>
       </c>
@@ -7458,7 +7458,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>334</v>
       </c>
@@ -7481,7 +7481,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>335</v>
       </c>
@@ -7491,7 +7491,7 @@
       <c r="C260" t="s">
         <v>337</v>
       </c>
-      <c r="D260" s="5"/>
+      <c r="D260" s="4"/>
       <c r="E260" t="s">
         <v>14</v>
       </c>
@@ -7502,7 +7502,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>338</v>
       </c>
@@ -7522,7 +7522,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>341</v>
       </c>
@@ -7542,7 +7542,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>342</v>
       </c>
@@ -7562,7 +7562,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>343</v>
       </c>
@@ -7582,7 +7582,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>344</v>
       </c>
@@ -7605,7 +7605,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>348</v>
       </c>
@@ -7625,7 +7625,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>352</v>
       </c>
@@ -7645,7 +7645,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>356</v>
       </c>
@@ -7665,7 +7665,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>359</v>
       </c>
@@ -7685,7 +7685,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>360</v>
       </c>
@@ -7705,7 +7705,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>363</v>
       </c>
@@ -7725,7 +7725,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>364</v>
       </c>
@@ -7745,7 +7745,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>367</v>
       </c>
@@ -7765,7 +7765,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>370</v>
       </c>
@@ -7785,7 +7785,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>373</v>
       </c>
@@ -7805,7 +7805,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>376</v>
       </c>
@@ -7825,7 +7825,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>379</v>
       </c>
@@ -7845,7 +7845,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>382</v>
       </c>
@@ -7865,7 +7865,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>386</v>
       </c>
@@ -7885,7 +7885,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="281" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>388</v>
       </c>
@@ -7899,30 +7899,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62A830F9-959C-B34F-BCA6-4F4F23785374}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="28.1640625" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -7951,7 +7951,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>348</v>
       </c>
@@ -7973,8 +7973,11 @@
       <c r="H3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>348</v>
       </c>
@@ -7996,8 +7999,11 @@
       <c r="H4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I4">
+        <v>2950</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>348</v>
       </c>
@@ -8019,8 +8025,11 @@
       <c r="H5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I5">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>348</v>
       </c>
@@ -8042,8 +8051,11 @@
       <c r="H6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I6">
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>352</v>
       </c>
@@ -8065,8 +8077,11 @@
       <c r="H7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>356</v>
       </c>
@@ -8088,8 +8103,11 @@
       <c r="H8">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>360</v>
       </c>
@@ -8111,8 +8129,11 @@
       <c r="H9">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>364</v>
       </c>
@@ -8134,8 +8155,11 @@
       <c r="H10">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I10">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>367</v>
       </c>
@@ -8158,7 +8182,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>370</v>
       </c>
@@ -8180,8 +8204,11 @@
       <c r="H12">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>373</v>
       </c>
@@ -8203,8 +8230,11 @@
       <c r="H13">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I13">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>382</v>
       </c>
@@ -8226,8 +8256,11 @@
       <c r="H14">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>386</v>
       </c>
@@ -8249,8 +8282,11 @@
       <c r="H15">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>344</v>
       </c>
@@ -8274,6 +8310,32 @@
       </c>
       <c r="H16">
         <v>50</v>
+      </c>
+      <c r="I16">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s">
+        <v>405</v>
+      </c>
+      <c r="E18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18">
+        <v>6</v>
+      </c>
+      <c r="G18" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -8289,17 +8351,17 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" customWidth="1"/>
-    <col min="2" max="2" width="16.83203125" customWidth="1"/>
-    <col min="3" max="3" width="22.83203125" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>398</v>
       </c>
@@ -8308,7 +8370,7 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -8337,7 +8399,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -8360,7 +8422,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -8383,7 +8445,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>379</v>
       </c>
@@ -8406,7 +8468,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>376</v>
       </c>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhD_project\Neuromophic Camera\pcb and schematics\embedded neuromophic camera\EmbeddedNeuromophicCamera_PADS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA696480-6E36-4B27-ACFF-3B8EC0B88A81}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8D0142D-D7A1-43CC-8899-9FA4D540747C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="1" xr2:uid="{8EA9F011-AF60-47FB-BBDE-C3F1296126CD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="1" activeTab="2" xr2:uid="{8EA9F011-AF60-47FB-BBDE-C3F1296126CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2024" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2095" uniqueCount="466">
   <si>
     <t xml:space="preserve"> Part Report bom for main_pads.pcb on 2/26/2019 10:16:17</t>
   </si>
@@ -818,6 +818,9 @@
     <t>PIN_HEADER_3R_5X2.54</t>
   </si>
   <si>
+    <t>TIP15_100mil</t>
+  </si>
+  <si>
     <t>P2</t>
   </si>
   <si>
@@ -1217,16 +1220,16 @@
     <t>MINIATURESLIDESWITCH</t>
   </si>
   <si>
+    <t>中心距离：60mil，焊盘大小30x60mil 贴片单刀三掷开关</t>
+  </si>
+  <si>
     <t>S2</t>
   </si>
   <si>
-    <t>中心距离：60mil，焊盘大小30x60mil</t>
-  </si>
-  <si>
     <t>SWITCH1</t>
   </si>
   <si>
-    <t>中心距离：200milx60mil. 焊盘大小：100milx40mil (4pads)</t>
+    <t>中心距离：200milx60mil. 焊盘大小：100milx40mil (4pads)  贴片开关</t>
   </si>
   <si>
     <t>SWITCH2</t>
@@ -1331,7 +1334,7 @@
     <t>UART1</t>
   </si>
   <si>
-    <t>ß</t>
+    <t>CON5HN1X5</t>
   </si>
   <si>
     <t>HN1X5</t>
@@ -1422,20 +1425,35 @@
     <t>HDR2X10 (DIP20_100mils)</t>
   </si>
   <si>
+    <t>DIP20_100mils</t>
+  </si>
+  <si>
     <t>USB3.0 (Type A female)</t>
   </si>
   <si>
-    <t>CON5HN1X5</t>
-  </si>
-  <si>
     <t>HN1X5 (SIP5_100mils)</t>
+  </si>
+  <si>
+    <t>SIP5_100mils</t>
+  </si>
+  <si>
+    <t>molex_slimstack_529910808 (https://www.molex.com/molex/products/datasheet.jsp;jsessionid=1u7AW9-XGzTg0CMOxuFyd3geTE4BDmS1F4RDyRYc.molex0?part=active/0529910808_PCB_RECEPTACLES.xml)</t>
+  </si>
+  <si>
+    <t>TIP15_100mil (三排针，每排5个)</t>
+  </si>
+  <si>
+    <t>中心距离：200milx60mil. 焊盘大小：100milx40mil (4pads)  贴片开关</t>
+  </si>
+  <si>
+    <t>POWER_JACK 电源插孔 （正负极焊盘间距260mil左右，离侧面间距180mils左右）</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1454,6 +1472,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1479,7 +1504,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1494,6 +1519,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1810,8 +1836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED008CBA-9651-4434-9CA4-378A54734DD1}">
   <dimension ref="A1:G281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A232" workbookViewId="0" xr3:uid="{7E8FA6E2-EBFF-5C32-99DE-247AB7FBA10C}">
-      <selection activeCell="A260" sqref="A260:XFD260"/>
+    <sheetView topLeftCell="A247" workbookViewId="0" xr3:uid="{7E8FA6E2-EBFF-5C32-99DE-247AB7FBA10C}">
+      <selection activeCell="C264" sqref="C264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1819,7 +1845,7 @@
     <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="50.7109375" customWidth="1"/>
+    <col min="4" max="4" width="74.140625" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
@@ -1853,43 +1879,43 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="4" spans="1:7" s="6" customFormat="1">
+      <c r="A4" s="6">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="E4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="6">
+        <v>1</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
+    <row r="5" spans="1:7" s="6" customFormat="1">
+      <c r="A5" s="6">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="E5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="6">
+        <v>1</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5294,141 +5320,141 @@
         <v>11</v>
       </c>
     </row>
-    <row r="154" spans="1:7">
-      <c r="A154" t="s">
+    <row r="154" spans="1:7" s="6" customFormat="1">
+      <c r="A154" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B154" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="C154" t="s">
+      <c r="C154" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="D154" t="s">
+      <c r="D154" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="E154" t="s">
-        <v>10</v>
-      </c>
-      <c r="F154">
-        <v>1</v>
-      </c>
-      <c r="G154" t="s">
+      <c r="E154" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F154" s="6">
+        <v>1</v>
+      </c>
+      <c r="G154" s="6" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="155" spans="1:7">
-      <c r="A155" t="s">
+    <row r="155" spans="1:7" s="6" customFormat="1">
+      <c r="A155" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B155" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="C155" t="s">
+      <c r="C155" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="D155" t="s">
+      <c r="D155" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="E155" t="s">
-        <v>10</v>
-      </c>
-      <c r="F155">
-        <v>1</v>
-      </c>
-      <c r="G155" t="s">
+      <c r="E155" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F155" s="6">
+        <v>1</v>
+      </c>
+      <c r="G155" s="6" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="156" spans="1:7">
-      <c r="A156" t="s">
+    <row r="156" spans="1:7" s="6" customFormat="1">
+      <c r="A156" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B156" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="C156" t="s">
+      <c r="C156" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="D156" t="s">
+      <c r="D156" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="E156" t="s">
-        <v>10</v>
-      </c>
-      <c r="F156">
-        <v>1</v>
-      </c>
-      <c r="G156" t="s">
+      <c r="E156" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F156" s="6">
+        <v>1</v>
+      </c>
+      <c r="G156" s="6" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="157" spans="1:7">
-      <c r="A157" t="s">
+    <row r="157" spans="1:7" s="6" customFormat="1">
+      <c r="A157" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B157" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="C157" t="s">
+      <c r="C157" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="D157" t="s">
+      <c r="D157" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="E157" t="s">
-        <v>10</v>
-      </c>
-      <c r="F157">
-        <v>1</v>
-      </c>
-      <c r="G157" t="s">
+      <c r="E157" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F157" s="6">
+        <v>1</v>
+      </c>
+      <c r="G157" s="6" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="158" spans="1:7">
-      <c r="A158" t="s">
+    <row r="158" spans="1:7" s="6" customFormat="1">
+      <c r="A158" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B158" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C158" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="D158" t="s">
+      <c r="D158" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="E158" t="s">
-        <v>10</v>
-      </c>
-      <c r="F158">
-        <v>1</v>
-      </c>
-      <c r="G158" t="s">
+      <c r="E158" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F158" s="6">
+        <v>1</v>
+      </c>
+      <c r="G158" s="6" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="159" spans="1:7">
-      <c r="A159" t="s">
+    <row r="159" spans="1:7" s="6" customFormat="1">
+      <c r="A159" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B159" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="C159" t="s">
+      <c r="C159" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="D159" t="s">
+      <c r="D159" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="E159" t="s">
-        <v>10</v>
-      </c>
-      <c r="F159">
-        <v>1</v>
-      </c>
-      <c r="G159" t="s">
+      <c r="E159" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F159" s="6">
+        <v>1</v>
+      </c>
+      <c r="G159" s="6" t="s">
         <v>205</v>
       </c>
     </row>
@@ -5731,101 +5757,101 @@
         <v>168</v>
       </c>
     </row>
-    <row r="173" spans="1:7">
-      <c r="A173" t="s">
+    <row r="173" spans="1:7" s="6" customFormat="1">
+      <c r="A173" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B173" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="C173" t="s">
+      <c r="C173" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="D173" t="s">
+      <c r="D173" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="E173" t="s">
-        <v>10</v>
-      </c>
-      <c r="F173">
-        <v>1</v>
-      </c>
-      <c r="G173" t="s">
+      <c r="E173" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F173" s="6">
+        <v>1</v>
+      </c>
+      <c r="G173" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="174" spans="1:7">
-      <c r="A174" t="s">
+    <row r="174" spans="1:7" s="6" customFormat="1">
+      <c r="A174" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B174" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="C174" t="s">
+      <c r="C174" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="D174" t="s">
+      <c r="D174" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="E174" t="s">
-        <v>10</v>
-      </c>
-      <c r="F174">
-        <v>1</v>
-      </c>
-      <c r="G174" t="s">
+      <c r="E174" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F174" s="6">
+        <v>1</v>
+      </c>
+      <c r="G174" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="175" spans="1:7">
-      <c r="A175" t="s">
+    <row r="175" spans="1:7" s="6" customFormat="1">
+      <c r="A175" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="B175" t="s">
+      <c r="B175" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="C175" t="s">
+      <c r="C175" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="D175" t="s">
-        <v>222</v>
-      </c>
-      <c r="E175" t="s">
-        <v>10</v>
-      </c>
-      <c r="F175">
-        <v>1</v>
-      </c>
-      <c r="G175" t="s">
+      <c r="D175" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="E175" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F175" s="6">
+        <v>1</v>
+      </c>
+      <c r="G175" s="6" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="176" spans="1:7">
-      <c r="A176" t="s">
-        <v>260</v>
-      </c>
-      <c r="B176" t="s">
+    <row r="176" spans="1:7" s="6" customFormat="1">
+      <c r="A176" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="C176" t="s">
+      <c r="B176" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="D176" t="s">
+      <c r="C176" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="E176" t="s">
-        <v>10</v>
-      </c>
-      <c r="F176">
-        <v>1</v>
-      </c>
-      <c r="G176" t="s">
+      <c r="D176" s="6" t="s">
         <v>264</v>
+      </c>
+      <c r="E176" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F176" s="6">
+        <v>1</v>
+      </c>
+      <c r="G176" s="6" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="177" spans="1:7" s="6" customFormat="1">
       <c r="A177" s="6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B177" s="6" t="s">
         <v>245</v>
@@ -5834,7 +5860,7 @@
         <v>246</v>
       </c>
       <c r="D177" s="6" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E177" s="6" t="s">
         <v>10</v>
@@ -5846,64 +5872,64 @@
         <v>168</v>
       </c>
     </row>
-    <row r="178" spans="1:7">
-      <c r="A178" t="s">
-        <v>267</v>
-      </c>
-      <c r="B178" t="s">
+    <row r="178" spans="1:7" s="6" customFormat="1">
+      <c r="A178" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="C178" t="s">
+      <c r="B178" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="D178" t="s">
+      <c r="C178" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="E178" t="s">
-        <v>10</v>
-      </c>
-      <c r="F178">
-        <v>1</v>
-      </c>
-      <c r="G178" t="s">
+      <c r="D178" s="6" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="179" spans="1:7">
-      <c r="A179" t="s">
+      <c r="E178" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F178" s="6">
+        <v>1</v>
+      </c>
+      <c r="G178" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="B179" t="s">
+    </row>
+    <row r="179" spans="1:7" s="6" customFormat="1">
+      <c r="A179" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="C179" t="s">
+      <c r="B179" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="D179" t="s">
+      <c r="C179" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="E179" t="s">
-        <v>10</v>
-      </c>
-      <c r="F179">
-        <v>1</v>
-      </c>
-      <c r="G179" t="s">
+      <c r="D179" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="E179" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F179" s="6">
+        <v>1</v>
+      </c>
+      <c r="G179" s="6" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="180" spans="1:7" s="6" customFormat="1" ht="17.25" customHeight="1">
       <c r="A180" s="6" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C180" s="6" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D180" s="6" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E180" s="6" t="s">
         <v>16</v>
@@ -5912,45 +5938,45 @@
         <v>6</v>
       </c>
       <c r="G180" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="181" spans="1:7" s="6" customFormat="1">
       <c r="A181" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="B181" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="C181" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="D181" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="E181" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F181" s="6">
+        <v>6</v>
+      </c>
+      <c r="G181" s="6" t="s">
         <v>281</v>
-      </c>
-      <c r="B181" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="C181" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="D181" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="E181" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F181" s="6">
-        <v>6</v>
-      </c>
-      <c r="G181" s="6" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="182" spans="1:7" s="6" customFormat="1">
       <c r="A182" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="B182" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="C182" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="D182" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="B182" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="C182" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="D182" s="6" t="s">
-        <v>284</v>
-      </c>
       <c r="E182" s="6" t="s">
         <v>16</v>
       </c>
@@ -5958,21 +5984,21 @@
         <v>6</v>
       </c>
       <c r="G182" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="183" spans="1:7" s="6" customFormat="1">
       <c r="A183" s="6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C183" s="6" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D183" s="6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E183" s="6" t="s">
         <v>16</v>
@@ -5981,21 +6007,21 @@
         <v>6</v>
       </c>
       <c r="G183" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="184" spans="1:7" s="6" customFormat="1">
       <c r="A184" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C184" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D184" s="6" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E184" s="6" t="s">
         <v>16</v>
@@ -6004,21 +6030,21 @@
         <v>6</v>
       </c>
       <c r="G184" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="185" spans="1:7" s="6" customFormat="1">
       <c r="A185" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C185" s="6" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D185" s="6" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E185" s="6" t="s">
         <v>16</v>
@@ -6027,21 +6053,21 @@
         <v>6</v>
       </c>
       <c r="G185" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="186" spans="1:7" s="6" customFormat="1">
       <c r="A186" s="6" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D186" s="6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E186" s="6" t="s">
         <v>16</v>
@@ -6050,21 +6076,21 @@
         <v>6</v>
       </c>
       <c r="G186" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="187" spans="1:7" s="6" customFormat="1">
       <c r="A187" s="6" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C187" s="6" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D187" s="6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E187" s="6" t="s">
         <v>16</v>
@@ -6073,21 +6099,21 @@
         <v>6</v>
       </c>
       <c r="G187" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="188" spans="1:7" s="6" customFormat="1">
       <c r="A188" s="6" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D188" s="6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E188" s="6" t="s">
         <v>16</v>
@@ -6096,21 +6122,21 @@
         <v>6</v>
       </c>
       <c r="G188" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="189" spans="1:7" s="6" customFormat="1">
       <c r="A189" s="6" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C189" s="6" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D189" s="6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E189" s="6" t="s">
         <v>16</v>
@@ -6119,21 +6145,21 @@
         <v>6</v>
       </c>
       <c r="G189" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="190" spans="1:7" s="6" customFormat="1">
       <c r="A190" s="6" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C190" s="6" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D190" s="6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E190" s="6" t="s">
         <v>16</v>
@@ -6142,21 +6168,21 @@
         <v>6</v>
       </c>
       <c r="G190" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="191" spans="1:7" s="6" customFormat="1">
       <c r="A191" s="6" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C191" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D191" s="6" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E191" s="6" t="s">
         <v>10</v>
@@ -6165,21 +6191,21 @@
         <v>1</v>
       </c>
       <c r="G191" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="192" spans="1:7" s="6" customFormat="1">
       <c r="A192" s="6" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C192" s="6" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D192" s="6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E192" s="6" t="s">
         <v>10</v>
@@ -6188,21 +6214,21 @@
         <v>1</v>
       </c>
       <c r="G192" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="193" spans="1:7" s="6" customFormat="1">
       <c r="A193" s="6" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C193" s="6" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D193" s="6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E193" s="6" t="s">
         <v>10</v>
@@ -6211,21 +6237,21 @@
         <v>1</v>
       </c>
       <c r="G193" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="194" spans="1:7" s="6" customFormat="1">
       <c r="A194" s="6" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C194" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D194" s="6" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E194" s="6" t="s">
         <v>16</v>
@@ -6234,21 +6260,21 @@
         <v>6</v>
       </c>
       <c r="G194" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="195" spans="1:7" s="6" customFormat="1">
       <c r="A195" s="6" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C195" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D195" s="6" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E195" s="6" t="s">
         <v>16</v>
@@ -6257,21 +6283,21 @@
         <v>6</v>
       </c>
       <c r="G195" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="196" spans="1:7" s="6" customFormat="1">
       <c r="A196" s="6" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C196" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D196" s="6" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E196" s="6" t="s">
         <v>16</v>
@@ -6280,21 +6306,21 @@
         <v>6</v>
       </c>
       <c r="G196" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="197" spans="1:7" s="6" customFormat="1">
       <c r="A197" s="6" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C197" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D197" s="6" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E197" s="6" t="s">
         <v>10</v>
@@ -6303,21 +6329,21 @@
         <v>1</v>
       </c>
       <c r="G197" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="198" spans="1:7" s="6" customFormat="1">
       <c r="A198" s="6" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C198" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D198" s="6" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E198" s="6" t="s">
         <v>10</v>
@@ -6326,21 +6352,21 @@
         <v>1</v>
       </c>
       <c r="G198" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="199" spans="1:7" s="6" customFormat="1">
       <c r="A199" s="6" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C199" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D199" s="6" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E199" s="6" t="s">
         <v>10</v>
@@ -6349,21 +6375,21 @@
         <v>1</v>
       </c>
       <c r="G199" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="200" spans="1:7" s="6" customFormat="1">
       <c r="A200" s="6" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C200" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D200" s="6" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E200" s="6" t="s">
         <v>16</v>
@@ -6372,21 +6398,21 @@
         <v>6</v>
       </c>
       <c r="G200" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="201" spans="1:7" s="6" customFormat="1">
       <c r="A201" s="6" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C201" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D201" s="6" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E201" s="6" t="s">
         <v>16</v>
@@ -6395,21 +6421,21 @@
         <v>6</v>
       </c>
       <c r="G201" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="202" spans="1:7" s="6" customFormat="1">
       <c r="A202" s="6" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C202" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D202" s="6" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E202" s="6" t="s">
         <v>10</v>
@@ -6418,21 +6444,21 @@
         <v>1</v>
       </c>
       <c r="G202" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="203" spans="1:7" s="6" customFormat="1">
       <c r="A203" s="6" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C203" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D203" s="6" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E203" s="6" t="s">
         <v>10</v>
@@ -6441,21 +6467,21 @@
         <v>1</v>
       </c>
       <c r="G203" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="204" spans="1:7" s="6" customFormat="1">
       <c r="A204" s="6" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C204" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D204" s="6" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E204" s="6" t="s">
         <v>16</v>
@@ -6464,21 +6490,21 @@
         <v>6</v>
       </c>
       <c r="G204" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="205" spans="1:7" s="6" customFormat="1">
       <c r="A205" s="6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C205" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D205" s="6" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E205" s="6" t="s">
         <v>10</v>
@@ -6487,22 +6513,22 @@
         <v>1</v>
       </c>
       <c r="G205" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="206" spans="1:7" s="6" customFormat="1">
       <c r="A206" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="B206" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="C206" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="D206" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="B206" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="C206" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="D206" s="6" t="s">
-        <v>319</v>
-      </c>
       <c r="E206" s="6" t="s">
         <v>16</v>
       </c>
@@ -6510,21 +6536,21 @@
         <v>6</v>
       </c>
       <c r="G206" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="207" spans="1:7" s="6" customFormat="1">
       <c r="A207" s="6" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C207" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D207" s="6" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E207" s="6" t="s">
         <v>10</v>
@@ -6533,21 +6559,21 @@
         <v>1</v>
       </c>
       <c r="G207" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="208" spans="1:7" s="6" customFormat="1">
       <c r="A208" s="6" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C208" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D208" s="6" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E208" s="6" t="s">
         <v>10</v>
@@ -6556,21 +6582,21 @@
         <v>1</v>
       </c>
       <c r="G208" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="209" spans="1:7" s="6" customFormat="1">
       <c r="A209" s="6" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C209" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D209" s="6" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E209" s="6" t="s">
         <v>16</v>
@@ -6579,22 +6605,22 @@
         <v>6</v>
       </c>
       <c r="G209" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="210" spans="1:7" s="6" customFormat="1">
       <c r="A210" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="B210" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="C210" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="D210" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="B210" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="C210" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="D210" s="6" t="s">
-        <v>324</v>
-      </c>
       <c r="E210" s="6" t="s">
         <v>16</v>
       </c>
@@ -6602,21 +6628,21 @@
         <v>6</v>
       </c>
       <c r="G210" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="211" spans="1:7" s="6" customFormat="1">
       <c r="A211" s="6" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C211" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D211" s="6" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E211" s="6" t="s">
         <v>16</v>
@@ -6625,21 +6651,21 @@
         <v>6</v>
       </c>
       <c r="G211" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="212" spans="1:7" s="6" customFormat="1">
       <c r="A212" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C212" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D212" s="6" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E212" s="6" t="s">
         <v>16</v>
@@ -6648,21 +6674,21 @@
         <v>6</v>
       </c>
       <c r="G212" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="213" spans="1:7" s="6" customFormat="1">
       <c r="A213" s="6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C213" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D213" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E213" s="6" t="s">
         <v>16</v>
@@ -6671,22 +6697,22 @@
         <v>6</v>
       </c>
       <c r="G213" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="214" spans="1:7" s="6" customFormat="1">
       <c r="A214" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="B214" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="C214" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="D214" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="B214" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="C214" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="D214" s="6" t="s">
-        <v>329</v>
-      </c>
       <c r="E214" s="6" t="s">
         <v>16</v>
       </c>
@@ -6694,21 +6720,21 @@
         <v>6</v>
       </c>
       <c r="G214" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="215" spans="1:7" s="6" customFormat="1">
       <c r="A215" s="6" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C215" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D215" s="6" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E215" s="6" t="s">
         <v>10</v>
@@ -6717,21 +6743,21 @@
         <v>1</v>
       </c>
       <c r="G215" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="216" spans="1:7" s="6" customFormat="1">
       <c r="A216" s="6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C216" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D216" s="6" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E216" s="6" t="s">
         <v>16</v>
@@ -6740,21 +6766,21 @@
         <v>6</v>
       </c>
       <c r="G216" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="217" spans="1:7" s="6" customFormat="1">
       <c r="A217" s="6" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C217" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D217" s="6" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E217" s="6" t="s">
         <v>16</v>
@@ -6763,21 +6789,21 @@
         <v>6</v>
       </c>
       <c r="G217" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="218" spans="1:7" s="6" customFormat="1">
       <c r="A218" s="6" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C218" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D218" s="6" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E218" s="6" t="s">
         <v>16</v>
@@ -6786,21 +6812,21 @@
         <v>6</v>
       </c>
       <c r="G218" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="219" spans="1:7" s="6" customFormat="1">
       <c r="A219" s="6" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C219" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D219" s="6" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E219" s="6" t="s">
         <v>10</v>
@@ -6809,22 +6835,22 @@
         <v>1</v>
       </c>
       <c r="G219" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="220" spans="1:7" s="6" customFormat="1">
       <c r="A220" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="B220" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="C220" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="D220" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="B220" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="C220" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="D220" s="6" t="s">
-        <v>336</v>
-      </c>
       <c r="E220" s="6" t="s">
         <v>10</v>
       </c>
@@ -6832,21 +6858,21 @@
         <v>1</v>
       </c>
       <c r="G220" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="221" spans="1:7" s="6" customFormat="1">
       <c r="A221" s="6" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C221" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D221" s="6" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E221" s="6" t="s">
         <v>10</v>
@@ -6855,21 +6881,21 @@
         <v>1</v>
       </c>
       <c r="G221" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="222" spans="1:7" s="6" customFormat="1">
       <c r="A222" s="6" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C222" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D222" s="6" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E222" s="6" t="s">
         <v>10</v>
@@ -6878,21 +6904,21 @@
         <v>1</v>
       </c>
       <c r="G222" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="223" spans="1:7" s="6" customFormat="1">
       <c r="A223" s="6" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C223" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D223" s="6" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E223" s="6" t="s">
         <v>10</v>
@@ -6901,21 +6927,21 @@
         <v>1</v>
       </c>
       <c r="G223" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="224" spans="1:7" s="6" customFormat="1">
       <c r="A224" s="6" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C224" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D224" s="6" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E224" s="6" t="s">
         <v>10</v>
@@ -6924,21 +6950,21 @@
         <v>1</v>
       </c>
       <c r="G224" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="225" spans="1:7" s="6" customFormat="1">
       <c r="A225" s="6" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C225" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D225" s="6" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E225" s="6" t="s">
         <v>16</v>
@@ -6947,22 +6973,22 @@
         <v>6</v>
       </c>
       <c r="G225" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="226" spans="1:7" s="6" customFormat="1">
       <c r="A226" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="B226" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="C226" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="D226" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="B226" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="C226" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="D226" s="6" t="s">
-        <v>343</v>
-      </c>
       <c r="E226" s="6" t="s">
         <v>10</v>
       </c>
@@ -6970,21 +6996,21 @@
         <v>1</v>
       </c>
       <c r="G226" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="227" spans="1:7" s="6" customFormat="1">
       <c r="A227" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C227" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D227" s="6" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E227" s="6" t="s">
         <v>10</v>
@@ -6993,21 +7019,21 @@
         <v>1</v>
       </c>
       <c r="G227" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="228" spans="1:7" s="6" customFormat="1">
       <c r="A228" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C228" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D228" s="6" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E228" s="6" t="s">
         <v>10</v>
@@ -7016,21 +7042,21 @@
         <v>1</v>
       </c>
       <c r="G228" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="229" spans="1:7" s="6" customFormat="1">
       <c r="A229" s="6" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C229" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D229" s="6" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E229" s="6" t="s">
         <v>10</v>
@@ -7039,22 +7065,22 @@
         <v>1</v>
       </c>
       <c r="G229" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="230" spans="1:7" s="6" customFormat="1">
       <c r="A230" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="B230" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="C230" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="D230" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="B230" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="C230" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="D230" s="6" t="s">
-        <v>348</v>
-      </c>
       <c r="E230" s="6" t="s">
         <v>10</v>
       </c>
@@ -7062,21 +7088,21 @@
         <v>1</v>
       </c>
       <c r="G230" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="231" spans="1:7" s="6" customFormat="1">
       <c r="A231" s="6" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C231" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D231" s="6" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E231" s="6" t="s">
         <v>10</v>
@@ -7085,21 +7111,21 @@
         <v>1</v>
       </c>
       <c r="G231" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="232" spans="1:7" s="6" customFormat="1">
       <c r="A232" s="6" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C232" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D232" s="6" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E232" s="6" t="s">
         <v>16</v>
@@ -7108,21 +7134,21 @@
         <v>6</v>
       </c>
       <c r="G232" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="233" spans="1:7" s="6" customFormat="1">
       <c r="A233" s="6" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C233" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D233" s="6" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E233" s="6" t="s">
         <v>10</v>
@@ -7131,21 +7157,21 @@
         <v>1</v>
       </c>
       <c r="G233" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="234" spans="1:7" s="6" customFormat="1">
       <c r="A234" s="6" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C234" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D234" s="6" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E234" s="6" t="s">
         <v>10</v>
@@ -7154,21 +7180,21 @@
         <v>1</v>
       </c>
       <c r="G234" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="235" spans="1:7" s="6" customFormat="1">
       <c r="A235" s="6" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C235" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D235" s="6" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E235" s="6" t="s">
         <v>10</v>
@@ -7177,21 +7203,21 @@
         <v>1</v>
       </c>
       <c r="G235" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="236" spans="1:7" s="6" customFormat="1">
       <c r="A236" s="6" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C236" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D236" s="6" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E236" s="6" t="s">
         <v>10</v>
@@ -7200,21 +7226,21 @@
         <v>1</v>
       </c>
       <c r="G236" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="237" spans="1:7" s="6" customFormat="1">
       <c r="A237" s="6" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C237" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D237" s="6" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E237" s="6" t="s">
         <v>16</v>
@@ -7223,21 +7249,21 @@
         <v>6</v>
       </c>
       <c r="G237" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="238" spans="1:7" s="6" customFormat="1">
       <c r="A238" s="6" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B238" s="6" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C238" s="6" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D238" s="6" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E238" s="6" t="s">
         <v>16</v>
@@ -7246,22 +7272,22 @@
         <v>6</v>
       </c>
       <c r="G238" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="239" spans="1:7" s="6" customFormat="1">
       <c r="A239" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="B239" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="C239" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="D239" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="B239" s="6" t="s">
-        <v>359</v>
-      </c>
-      <c r="C239" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="D239" s="6" t="s">
-        <v>361</v>
-      </c>
       <c r="E239" s="6" t="s">
         <v>16</v>
       </c>
@@ -7269,21 +7295,21 @@
         <v>6</v>
       </c>
       <c r="G239" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="240" spans="1:7" s="6" customFormat="1">
       <c r="A240" s="6" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C240" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D240" s="6" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E240" s="6" t="s">
         <v>10</v>
@@ -7292,21 +7318,21 @@
         <v>1</v>
       </c>
       <c r="G240" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="241" spans="1:7" s="6" customFormat="1">
       <c r="A241" s="6" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C241" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D241" s="6" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E241" s="6" t="s">
         <v>10</v>
@@ -7315,21 +7341,21 @@
         <v>1</v>
       </c>
       <c r="G241" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="242" spans="1:7" s="6" customFormat="1">
       <c r="A242" s="6" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C242" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D242" s="6" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E242" s="6" t="s">
         <v>16</v>
@@ -7338,21 +7364,21 @@
         <v>6</v>
       </c>
       <c r="G242" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="243" spans="1:7" s="6" customFormat="1">
       <c r="A243" s="6" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C243" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D243" s="6" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E243" s="6" t="s">
         <v>16</v>
@@ -7361,21 +7387,21 @@
         <v>6</v>
       </c>
       <c r="G243" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="244" spans="1:7" s="6" customFormat="1">
       <c r="A244" s="6" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C244" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D244" s="6" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E244" s="6" t="s">
         <v>10</v>
@@ -7384,21 +7410,21 @@
         <v>1</v>
       </c>
       <c r="G244" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="245" spans="1:7" s="6" customFormat="1">
       <c r="A245" s="6" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C245" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D245" s="6" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E245" s="6" t="s">
         <v>16</v>
@@ -7407,21 +7433,21 @@
         <v>6</v>
       </c>
       <c r="G245" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="246" spans="1:7" s="6" customFormat="1">
       <c r="A246" s="6" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C246" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D246" s="6" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E246" s="6" t="s">
         <v>16</v>
@@ -7430,21 +7456,21 @@
         <v>6</v>
       </c>
       <c r="G246" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="247" spans="1:7" s="6" customFormat="1">
       <c r="A247" s="6" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C247" s="6" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D247" s="6" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E247" s="6" t="s">
         <v>10</v>
@@ -7453,22 +7479,22 @@
         <v>1</v>
       </c>
       <c r="G247" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="248" spans="1:7" s="6" customFormat="1">
       <c r="A248" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="B248" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="C248" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="D248" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="B248" s="6" t="s">
-        <v>373</v>
-      </c>
-      <c r="C248" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="D248" s="6" t="s">
-        <v>374</v>
-      </c>
       <c r="E248" s="6" t="s">
         <v>10</v>
       </c>
@@ -7476,21 +7502,21 @@
         <v>1</v>
       </c>
       <c r="G248" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="249" spans="1:7" s="6" customFormat="1">
       <c r="A249" s="6" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C249" s="6" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D249" s="6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E249" s="6" t="s">
         <v>10</v>
@@ -7499,21 +7525,21 @@
         <v>1</v>
       </c>
       <c r="G249" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="250" spans="1:7" s="6" customFormat="1">
       <c r="A250" s="6" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C250" s="6" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D250" s="6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E250" s="6" t="s">
         <v>10</v>
@@ -7522,21 +7548,21 @@
         <v>1</v>
       </c>
       <c r="G250" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="251" spans="1:7" s="6" customFormat="1">
       <c r="A251" s="6" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C251" s="6" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D251" s="6" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E251" s="6" t="s">
         <v>16</v>
@@ -7545,21 +7571,21 @@
         <v>6</v>
       </c>
       <c r="G251" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="252" spans="1:7" s="6" customFormat="1">
       <c r="A252" s="6" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B252" s="6" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C252" s="6" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D252" s="6" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E252" s="6" t="s">
         <v>16</v>
@@ -7568,21 +7594,21 @@
         <v>6</v>
       </c>
       <c r="G252" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="253" spans="1:7" s="6" customFormat="1">
       <c r="A253" s="6" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C253" s="6" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D253" s="6" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E253" s="6" t="s">
         <v>10</v>
@@ -7591,21 +7617,21 @@
         <v>1</v>
       </c>
       <c r="G253" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="254" spans="1:7" s="6" customFormat="1">
       <c r="A254" s="6" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C254" s="6" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D254" s="6" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E254" s="6" t="s">
         <v>10</v>
@@ -7614,21 +7640,21 @@
         <v>1</v>
       </c>
       <c r="G254" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="255" spans="1:7" s="6" customFormat="1">
       <c r="A255" s="6" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C255" s="6" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D255" s="6" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E255" s="6" t="s">
         <v>10</v>
@@ -7637,21 +7663,21 @@
         <v>1</v>
       </c>
       <c r="G255" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="256" spans="1:7" s="6" customFormat="1">
       <c r="A256" s="6" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C256" s="6" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D256" s="6" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E256" s="6" t="s">
         <v>10</v>
@@ -7660,90 +7686,90 @@
         <v>1</v>
       </c>
       <c r="G256" s="6" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="257" spans="1:7">
-      <c r="A257" t="s">
-        <v>384</v>
-      </c>
-      <c r="B257" t="s">
-        <v>268</v>
-      </c>
-      <c r="C257" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" s="6" customFormat="1">
+      <c r="A257" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="B257" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="D257" t="s">
+      <c r="C257" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="E257" t="s">
-        <v>10</v>
-      </c>
-      <c r="F257">
-        <v>1</v>
-      </c>
-      <c r="G257" t="s">
+      <c r="D257" s="6" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="258" spans="1:7">
-      <c r="A258" t="s">
-        <v>385</v>
-      </c>
-      <c r="B258" t="s">
-        <v>268</v>
-      </c>
-      <c r="C258" t="s">
+      <c r="E257" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F257" s="6">
+        <v>1</v>
+      </c>
+      <c r="G257" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" s="6" customFormat="1">
+      <c r="A258" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="B258" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="D258" t="s">
+      <c r="C258" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="E258" t="s">
-        <v>10</v>
-      </c>
-      <c r="F258">
-        <v>1</v>
-      </c>
-      <c r="G258" t="s">
+      <c r="D258" s="6" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="259" spans="1:7">
-      <c r="A259" t="s">
-        <v>386</v>
-      </c>
-      <c r="B259" t="s">
-        <v>268</v>
-      </c>
-      <c r="C259" t="s">
+      <c r="E258" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F258" s="6">
+        <v>1</v>
+      </c>
+      <c r="G258" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" s="6" customFormat="1">
+      <c r="A259" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="B259" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="D259" t="s">
+      <c r="C259" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="E259" t="s">
-        <v>10</v>
-      </c>
-      <c r="F259">
-        <v>1</v>
-      </c>
-      <c r="G259" t="s">
+      <c r="D259" s="6" t="s">
         <v>271</v>
+      </c>
+      <c r="E259" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F259" s="6">
+        <v>1</v>
+      </c>
+      <c r="G259" s="6" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="260" spans="1:7" s="6" customFormat="1">
       <c r="A260" s="6" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C260" s="6">
         <v>1206</v>
       </c>
       <c r="D260" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E260" s="6" t="s">
         <v>16</v>
@@ -7755,398 +7781,398 @@
         <v>11</v>
       </c>
     </row>
-    <row r="261" spans="1:7">
-      <c r="A261" t="s">
-        <v>390</v>
-      </c>
-      <c r="B261" t="s">
+    <row r="261" spans="1:7" s="6" customFormat="1">
+      <c r="A261" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="C261" t="s">
+      <c r="B261" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="E261" t="s">
-        <v>10</v>
-      </c>
-      <c r="F261">
-        <v>1</v>
-      </c>
-      <c r="G261" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="262" spans="1:7">
-      <c r="A262" t="s">
+      <c r="C261" s="6" t="s">
         <v>393</v>
       </c>
-      <c r="B262" t="s">
-        <v>391</v>
-      </c>
-      <c r="C262" t="s">
+      <c r="D261" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="E261" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F261" s="6">
+        <v>1</v>
+      </c>
+      <c r="G261" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" s="6" customFormat="1">
+      <c r="A262" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="B262" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="D262" t="s">
-        <v>394</v>
-      </c>
-      <c r="E262" t="s">
-        <v>10</v>
-      </c>
-      <c r="F262">
-        <v>1</v>
-      </c>
-      <c r="G262" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="263" spans="1:7">
-      <c r="A263" t="s">
-        <v>395</v>
-      </c>
-      <c r="B263" t="s">
-        <v>268</v>
-      </c>
-      <c r="C263" t="s">
+      <c r="C262" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="E262" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F262" s="6">
+        <v>1</v>
+      </c>
+      <c r="G262" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" s="6" customFormat="1">
+      <c r="A263" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="B263" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="D263" t="s">
-        <v>396</v>
-      </c>
-      <c r="E263" t="s">
-        <v>10</v>
-      </c>
-      <c r="F263">
-        <v>1</v>
-      </c>
-      <c r="G263" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="264" spans="1:7">
-      <c r="A264" t="s">
+      <c r="C263" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="D263" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B264" t="s">
-        <v>268</v>
-      </c>
-      <c r="C264" t="s">
+      <c r="E263" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F263" s="6">
+        <v>1</v>
+      </c>
+      <c r="G263" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" s="6" customFormat="1">
+      <c r="A264" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="B264" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="E264" t="s">
-        <v>10</v>
-      </c>
-      <c r="F264">
-        <v>1</v>
-      </c>
-      <c r="G264" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="265" spans="1:7">
-      <c r="A265" t="s">
-        <v>398</v>
-      </c>
-      <c r="B265" t="s">
+      <c r="C264" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="E264" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F264" s="6">
+        <v>1</v>
+      </c>
+      <c r="G264" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" s="6" customFormat="1">
+      <c r="A265" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="C265" t="s">
+      <c r="B265" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="D265" t="s">
-        <v>400</v>
-      </c>
-      <c r="E265" t="s">
-        <v>16</v>
-      </c>
-      <c r="F265">
-        <v>6</v>
-      </c>
-      <c r="G265" t="s">
+      <c r="C265" s="6" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="266" spans="1:7">
-      <c r="A266" t="s">
+      <c r="D265" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="E265" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F265" s="6">
+        <v>6</v>
+      </c>
+      <c r="G265" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="B266" t="s">
+    </row>
+    <row r="266" spans="1:7" s="6" customFormat="1">
+      <c r="A266" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="C266" t="s">
+      <c r="B266" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="E266" t="s">
-        <v>10</v>
-      </c>
-      <c r="F266">
-        <v>1</v>
-      </c>
-      <c r="G266" t="s">
+      <c r="C266" s="6" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="267" spans="1:7">
-      <c r="A267" t="s">
+      <c r="E266" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F266" s="6">
+        <v>1</v>
+      </c>
+      <c r="G266" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="B267" t="s">
+    </row>
+    <row r="267" spans="1:7" s="6" customFormat="1">
+      <c r="A267" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="C267" t="s">
+      <c r="B267" s="6" t="s">
         <v>408</v>
       </c>
-      <c r="E267" t="s">
-        <v>16</v>
-      </c>
-      <c r="F267">
-        <v>6</v>
-      </c>
-      <c r="G267" t="s">
+      <c r="C267" s="6" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="268" spans="1:7">
-      <c r="A268" t="s">
+      <c r="E267" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F267" s="6">
+        <v>6</v>
+      </c>
+      <c r="G267" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="B268" t="s">
+    </row>
+    <row r="268" spans="1:7" s="6" customFormat="1">
+      <c r="A268" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="C268" t="s">
+      <c r="B268" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="E268" t="s">
-        <v>10</v>
-      </c>
-      <c r="F268">
-        <v>1</v>
-      </c>
-      <c r="G268" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="269" spans="1:7">
-      <c r="A269" t="s">
+      <c r="C268" s="6" t="s">
         <v>413</v>
       </c>
-      <c r="B269" t="s">
-        <v>411</v>
-      </c>
-      <c r="C269" t="s">
+      <c r="E268" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F268" s="6">
+        <v>1</v>
+      </c>
+      <c r="G268" s="6" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" s="6" customFormat="1">
+      <c r="A269" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="B269" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="E269" t="s">
-        <v>16</v>
-      </c>
-      <c r="F269">
-        <v>6</v>
-      </c>
-      <c r="G269" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="270" spans="1:7">
-      <c r="A270" t="s">
-        <v>414</v>
-      </c>
-      <c r="B270" t="s">
+      <c r="C269" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="E269" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F269" s="6">
+        <v>6</v>
+      </c>
+      <c r="G269" s="6" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" s="6" customFormat="1">
+      <c r="A270" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="C270" t="s">
+      <c r="B270" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="E270" t="s">
-        <v>10</v>
-      </c>
-      <c r="F270">
-        <v>1</v>
-      </c>
-      <c r="G270" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="271" spans="1:7">
-      <c r="A271" t="s">
+      <c r="C270" s="6" t="s">
         <v>417</v>
       </c>
-      <c r="B271" t="s">
-        <v>415</v>
-      </c>
-      <c r="C271" t="s">
+      <c r="E270" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F270" s="6">
+        <v>1</v>
+      </c>
+      <c r="G270" s="6" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" s="6" customFormat="1">
+      <c r="A271" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B271" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="E271" t="s">
-        <v>10</v>
-      </c>
-      <c r="F271">
-        <v>1</v>
-      </c>
-      <c r="G271" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="272" spans="1:7">
-      <c r="A272" t="s">
-        <v>418</v>
-      </c>
-      <c r="B272" t="s">
+      <c r="C271" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="E271" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F271" s="6">
+        <v>1</v>
+      </c>
+      <c r="G271" s="6" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" s="6" customFormat="1">
+      <c r="A272" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="C272" t="s">
+      <c r="B272" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="E272" t="s">
-        <v>10</v>
-      </c>
-      <c r="F272">
-        <v>1</v>
-      </c>
-      <c r="G272" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="273" spans="1:7">
-      <c r="A273" t="s">
+      <c r="C272" s="6" t="s">
         <v>421</v>
       </c>
-      <c r="B273" t="s">
+      <c r="E272" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F272" s="6">
+        <v>1</v>
+      </c>
+      <c r="G272" s="6" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" s="6" customFormat="1">
+      <c r="A273" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="C273" t="s">
+      <c r="B273" s="6" t="s">
         <v>423</v>
       </c>
-      <c r="E273" t="s">
-        <v>16</v>
-      </c>
-      <c r="F273">
-        <v>6</v>
-      </c>
-      <c r="G273" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="274" spans="1:7">
-      <c r="A274" t="s">
+      <c r="C273" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="B274" t="s">
+      <c r="E273" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F273" s="6">
+        <v>6</v>
+      </c>
+      <c r="G273" s="6" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" s="6" customFormat="1">
+      <c r="A274" s="6" t="s">
         <v>425</v>
       </c>
-      <c r="C274" t="s">
+      <c r="B274" s="6" t="s">
         <v>426</v>
       </c>
-      <c r="E274" t="s">
-        <v>16</v>
-      </c>
-      <c r="F274">
-        <v>6</v>
-      </c>
-      <c r="G274" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="275" spans="1:7">
-      <c r="A275" t="s">
+      <c r="C274" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="B275" t="s">
+      <c r="E274" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F274" s="6">
+        <v>6</v>
+      </c>
+      <c r="G274" s="6" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" s="6" customFormat="1">
+      <c r="A275" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="C275" t="s">
+      <c r="B275" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="E275" t="s">
-        <v>10</v>
-      </c>
-      <c r="F275">
-        <v>1</v>
-      </c>
-      <c r="G275" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="276" spans="1:7">
-      <c r="A276" t="s">
+      <c r="C275" s="6" t="s">
         <v>430</v>
       </c>
-      <c r="B276" t="s">
+      <c r="E275" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F275" s="6">
+        <v>1</v>
+      </c>
+      <c r="G275" s="6" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" s="6" customFormat="1">
+      <c r="A276" s="6" t="s">
         <v>431</v>
       </c>
-      <c r="C276" t="s">
+      <c r="B276" s="6" t="s">
         <v>432</v>
       </c>
-      <c r="E276" t="s">
-        <v>10</v>
-      </c>
-      <c r="F276">
-        <v>1</v>
-      </c>
-      <c r="G276" t="s">
+      <c r="C276" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="E276" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F276" s="6">
+        <v>1</v>
+      </c>
+      <c r="G276" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="277" spans="1:7">
-      <c r="A277" t="s">
-        <v>433</v>
-      </c>
-      <c r="B277" t="s">
+    <row r="277" spans="1:7" s="6" customFormat="1">
+      <c r="A277" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="C277" t="s">
+      <c r="B277" s="6" t="s">
         <v>435</v>
       </c>
-      <c r="E277" t="s">
-        <v>10</v>
-      </c>
-      <c r="F277">
-        <v>1</v>
-      </c>
-      <c r="G277" t="s">
+      <c r="C277" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="E277" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F277" s="6">
+        <v>1</v>
+      </c>
+      <c r="G277" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="278" spans="1:7">
-      <c r="A278" t="s">
-        <v>436</v>
-      </c>
-      <c r="B278" t="s">
+    <row r="278" spans="1:7" s="6" customFormat="1">
+      <c r="A278" s="6" t="s">
         <v>437</v>
       </c>
-      <c r="C278" t="s">
+      <c r="B278" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="E278" t="s">
-        <v>10</v>
-      </c>
-      <c r="F278">
-        <v>1</v>
-      </c>
-      <c r="G278" t="s">
+      <c r="C278" s="6" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="279" spans="1:7">
-      <c r="A279" t="s">
+      <c r="E278" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F278" s="6">
+        <v>1</v>
+      </c>
+      <c r="G278" s="6" t="s">
         <v>440</v>
       </c>
-      <c r="B279" t="s">
-        <v>437</v>
-      </c>
-      <c r="C279" t="s">
+    </row>
+    <row r="279" spans="1:7" s="6" customFormat="1">
+      <c r="A279" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="B279" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="E279" t="s">
-        <v>10</v>
-      </c>
-      <c r="F279">
-        <v>1</v>
-      </c>
-      <c r="G279" t="s">
+      <c r="C279" s="6" t="s">
         <v>439</v>
+      </c>
+      <c r="E279" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F279" s="6">
+        <v>1</v>
+      </c>
+      <c r="G279" s="6" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="281" spans="1:7" s="1" customFormat="1">
       <c r="A281" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
   </sheetData>
@@ -8160,8 +8186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62A830F9-959C-B34F-BCA6-4F4F23785374}">
   <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0" xr3:uid="{0F45D592-60A0-55E6-894B-4D8AF686CEA4}">
-      <selection activeCell="I50" sqref="I50"/>
+    <sheetView workbookViewId="0" xr3:uid="{0F45D592-60A0-55E6-894B-4D8AF686CEA4}">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -8172,7 +8198,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="5" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -8205,21 +8231,21 @@
         <v>7</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C3" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -8228,7 +8254,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -8239,13 +8265,13 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C4" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -8254,7 +8280,7 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -8265,13 +8291,13 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C5" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -8280,7 +8306,7 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H5">
         <v>3</v>
@@ -8291,13 +8317,13 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B6" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C6" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
@@ -8306,7 +8332,7 @@
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H6">
         <v>3</v>
@@ -8317,13 +8343,13 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E7" t="s">
         <v>16</v>
@@ -8332,7 +8358,7 @@
         <v>6</v>
       </c>
       <c r="G7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H7">
         <v>5</v>
@@ -8343,22 +8369,22 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
+        <v>411</v>
+      </c>
+      <c r="B8" t="s">
+        <v>412</v>
+      </c>
+      <c r="C8" t="s">
+        <v>413</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
         <v>410</v>
-      </c>
-      <c r="B8" t="s">
-        <v>411</v>
-      </c>
-      <c r="C8" t="s">
-        <v>412</v>
-      </c>
-      <c r="E8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="s">
-        <v>409</v>
       </c>
       <c r="H8">
         <v>10</v>
@@ -8369,13 +8395,13 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B9" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C9" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
@@ -8384,7 +8410,7 @@
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H9">
         <v>10</v>
@@ -8395,13 +8421,13 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B10" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C10" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
@@ -8410,7 +8436,7 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H10">
         <v>5</v>
@@ -8421,13 +8447,13 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B11" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C11" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E11" t="s">
         <v>16</v>
@@ -8436,7 +8462,7 @@
         <v>6</v>
       </c>
       <c r="G11" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H11">
         <v>10</v>
@@ -8444,13 +8470,13 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B12" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C12" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E12" t="s">
         <v>16</v>
@@ -8459,7 +8485,7 @@
         <v>6</v>
       </c>
       <c r="G12" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H12">
         <v>5</v>
@@ -8470,13 +8496,13 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B13" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C13" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E13" t="s">
         <v>10</v>
@@ -8485,7 +8511,7 @@
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H13">
         <v>5</v>
@@ -8496,13 +8522,13 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B14" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C14" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E14" t="s">
         <v>10</v>
@@ -8511,7 +8537,7 @@
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H14">
         <v>5</v>
@@ -8522,22 +8548,22 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
+        <v>441</v>
+      </c>
+      <c r="B15" t="s">
+        <v>452</v>
+      </c>
+      <c r="C15" t="s">
+        <v>439</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
         <v>440</v>
-      </c>
-      <c r="B15" t="s">
-        <v>451</v>
-      </c>
-      <c r="C15" t="s">
-        <v>438</v>
-      </c>
-      <c r="E15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="s">
-        <v>439</v>
       </c>
       <c r="H15">
         <v>5</v>
@@ -8548,16 +8574,16 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B16" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C16" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D16" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E16" t="s">
         <v>16</v>
@@ -8566,7 +8592,7 @@
         <v>6</v>
       </c>
       <c r="G16" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H16">
         <v>50</v>
@@ -8577,7 +8603,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="5" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -8902,16 +8928,16 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B31" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C31" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D31" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E31" t="s">
         <v>16</v>
@@ -8920,7 +8946,7 @@
         <v>6</v>
       </c>
       <c r="G31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H31">
         <v>500</v>
@@ -8928,25 +8954,25 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
+        <v>282</v>
+      </c>
+      <c r="B32" t="s">
+        <v>283</v>
+      </c>
+      <c r="C32" t="s">
+        <v>284</v>
+      </c>
+      <c r="D32" t="s">
+        <v>285</v>
+      </c>
+      <c r="E32" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32">
+        <v>6</v>
+      </c>
+      <c r="G32" t="s">
         <v>281</v>
-      </c>
-      <c r="B32" t="s">
-        <v>282</v>
-      </c>
-      <c r="C32" t="s">
-        <v>283</v>
-      </c>
-      <c r="D32" t="s">
-        <v>284</v>
-      </c>
-      <c r="E32" t="s">
-        <v>16</v>
-      </c>
-      <c r="F32">
-        <v>6</v>
-      </c>
-      <c r="G32" t="s">
-        <v>280</v>
       </c>
       <c r="H32">
         <v>500</v>
@@ -8954,16 +8980,16 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B33" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C33" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D33" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E33" t="s">
         <v>16</v>
@@ -8972,7 +8998,7 @@
         <v>6</v>
       </c>
       <c r="G33" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H33">
         <v>500</v>
@@ -8980,16 +9006,16 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B34" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C34" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D34" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E34" t="s">
         <v>16</v>
@@ -8998,7 +9024,7 @@
         <v>6</v>
       </c>
       <c r="G34" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H34">
         <v>500</v>
@@ -9006,16 +9032,16 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B35" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C35" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D35" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E35" t="s">
         <v>10</v>
@@ -9024,7 +9050,7 @@
         <v>1</v>
       </c>
       <c r="G35" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H35">
         <v>500</v>
@@ -9032,16 +9058,16 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B36" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C36" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D36" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E36" t="s">
         <v>16</v>
@@ -9050,7 +9076,7 @@
         <v>6</v>
       </c>
       <c r="G36" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H36">
         <v>500</v>
@@ -9058,16 +9084,16 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B37" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C37" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D37" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E37" t="s">
         <v>16</v>
@@ -9076,7 +9102,7 @@
         <v>6</v>
       </c>
       <c r="G37" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H37">
         <v>500</v>
@@ -9084,16 +9110,16 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B38" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C38" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D38" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E38" t="s">
         <v>10</v>
@@ -9102,7 +9128,7 @@
         <v>1</v>
       </c>
       <c r="G38" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H38">
         <v>500</v>
@@ -9110,16 +9136,16 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B39" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C39" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D39" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E39" t="s">
         <v>16</v>
@@ -9128,7 +9154,7 @@
         <v>6</v>
       </c>
       <c r="G39" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H39">
         <v>500</v>
@@ -9136,16 +9162,16 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B40" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C40" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D40" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E40" t="s">
         <v>10</v>
@@ -9154,7 +9180,7 @@
         <v>1</v>
       </c>
       <c r="G40" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H40">
         <v>500</v>
@@ -9162,17 +9188,17 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" t="s">
+        <v>326</v>
+      </c>
+      <c r="B41" t="s">
+        <v>289</v>
+      </c>
+      <c r="C41" t="s">
+        <v>290</v>
+      </c>
+      <c r="D41" t="s">
         <v>325</v>
       </c>
-      <c r="B41" t="s">
-        <v>288</v>
-      </c>
-      <c r="C41" t="s">
-        <v>289</v>
-      </c>
-      <c r="D41" t="s">
-        <v>324</v>
-      </c>
       <c r="E41" t="s">
         <v>16</v>
       </c>
@@ -9180,7 +9206,7 @@
         <v>6</v>
       </c>
       <c r="G41" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H41">
         <v>500</v>
@@ -9188,16 +9214,16 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B42" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C42" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D42" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E42" t="s">
         <v>16</v>
@@ -9206,7 +9232,7 @@
         <v>6</v>
       </c>
       <c r="G42" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H42">
         <v>500</v>
@@ -9214,16 +9240,16 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B43" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C43" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D43" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E43" t="s">
         <v>10</v>
@@ -9232,7 +9258,7 @@
         <v>1</v>
       </c>
       <c r="G43" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H43">
         <v>500</v>
@@ -9240,16 +9266,16 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B44" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C44" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D44" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E44" t="s">
         <v>16</v>
@@ -9258,7 +9284,7 @@
         <v>6</v>
       </c>
       <c r="G44" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H44">
         <v>500</v>
@@ -9266,16 +9292,16 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B45" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C45" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D45" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E45" t="s">
         <v>10</v>
@@ -9284,7 +9310,7 @@
         <v>1</v>
       </c>
       <c r="G45" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H45">
         <v>500</v>
@@ -9292,16 +9318,16 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B46" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C46" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D46" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E46" t="s">
         <v>10</v>
@@ -9310,7 +9336,7 @@
         <v>1</v>
       </c>
       <c r="G46" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H46">
         <v>500</v>
@@ -9318,16 +9344,16 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B47" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C47" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D47" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E47" t="s">
         <v>16</v>
@@ -9336,7 +9362,7 @@
         <v>6</v>
       </c>
       <c r="G47" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H47">
         <v>500</v>
@@ -9344,16 +9370,16 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B48" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C48" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D48" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E48" t="s">
         <v>16</v>
@@ -9362,7 +9388,7 @@
         <v>6</v>
       </c>
       <c r="G48" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H48">
         <v>500</v>
@@ -9370,16 +9396,16 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B49" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C49" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D49" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E49" t="s">
         <v>16</v>
@@ -9388,7 +9414,7 @@
         <v>6</v>
       </c>
       <c r="G49" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H49">
         <v>500</v>
@@ -9396,16 +9422,16 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B50" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C50" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D50" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E50" t="s">
         <v>16</v>
@@ -9414,7 +9440,7 @@
         <v>6</v>
       </c>
       <c r="G50" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H50">
         <v>500</v>
@@ -9422,16 +9448,16 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B51" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C51" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D51" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E51" t="s">
         <v>10</v>
@@ -9440,7 +9466,7 @@
         <v>1</v>
       </c>
       <c r="G51" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H51">
         <v>500</v>
@@ -9448,16 +9474,16 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B52" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C52">
         <v>1206</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E52" t="s">
         <v>16</v>
@@ -9477,7 +9503,7 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="5" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -9591,7 +9617,7 @@
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="5" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -9760,7 +9786,7 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B67" t="s">
         <v>245</v>
@@ -9769,7 +9795,7 @@
         <v>246</v>
       </c>
       <c r="D67" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E67" t="s">
         <v>10</v>
@@ -9797,22 +9823,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E284AE-FE25-5549-A175-47F09389E7E4}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0" xr3:uid="{A65CFE46-0130-5F74-9188-A5A59E5FBF9F}">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{A65CFE46-0130-5F74-9188-A5A59E5FBF9F}">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.140625" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="31.5703125" customWidth="1"/>
     <col min="3" max="3" width="22.85546875" customWidth="1"/>
+    <col min="4" max="4" width="76" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="3" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -9842,10 +9869,10 @@
         <v>7</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -9856,7 +9883,10 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>456</v>
+        <v>457</v>
+      </c>
+      <c r="D3" t="s">
+        <v>458</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -9872,14 +9902,17 @@
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4">
-        <v>2</v>
+      <c r="A4" t="s">
+        <v>434</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>435</v>
       </c>
       <c r="C4" t="s">
-        <v>456</v>
+        <v>459</v>
+      </c>
+      <c r="D4" t="s">
+        <v>459</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -9891,18 +9924,21 @@
         <v>11</v>
       </c>
       <c r="H4">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B5" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C5" t="s">
-        <v>457</v>
+        <v>460</v>
+      </c>
+      <c r="D5" t="s">
+        <v>461</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -9919,13 +9955,16 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>430</v>
+        <v>201</v>
       </c>
       <c r="B6" t="s">
-        <v>458</v>
+        <v>202</v>
       </c>
       <c r="C6" t="s">
-        <v>459</v>
+        <v>203</v>
+      </c>
+      <c r="D6" t="s">
+        <v>204</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
@@ -9934,10 +9973,296 @@
         <v>1</v>
       </c>
       <c r="G6" t="s">
+        <v>205</v>
+      </c>
+      <c r="H6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>207</v>
+      </c>
+      <c r="B7" t="s">
+        <v>208</v>
+      </c>
+      <c r="C7" t="s">
+        <v>209</v>
+      </c>
+      <c r="D7" t="s">
+        <v>210</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>205</v>
+      </c>
+      <c r="H7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>211</v>
+      </c>
+      <c r="B8" t="s">
+        <v>212</v>
+      </c>
+      <c r="C8" t="s">
+        <v>213</v>
+      </c>
+      <c r="D8" t="s">
+        <v>462</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>205</v>
+      </c>
+      <c r="H8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>215</v>
+      </c>
+      <c r="B9" t="s">
+        <v>216</v>
+      </c>
+      <c r="C9" t="s">
+        <v>217</v>
+      </c>
+      <c r="D9" t="s">
+        <v>218</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>205</v>
+      </c>
+      <c r="H9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B10" t="s">
+        <v>220</v>
+      </c>
+      <c r="C10" t="s">
+        <v>221</v>
+      </c>
+      <c r="D10" t="s">
+        <v>222</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>205</v>
+      </c>
+      <c r="H10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>249</v>
+      </c>
+      <c r="B11" t="s">
+        <v>250</v>
+      </c>
+      <c r="C11" t="s">
+        <v>251</v>
+      </c>
+      <c r="D11" t="s">
+        <v>252</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
         <v>11</v>
       </c>
-      <c r="H6">
-        <v>10</v>
+      <c r="H11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>253</v>
+      </c>
+      <c r="B12" t="s">
+        <v>254</v>
+      </c>
+      <c r="C12" t="s">
+        <v>255</v>
+      </c>
+      <c r="D12" t="s">
+        <v>256</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>257</v>
+      </c>
+      <c r="B13" t="s">
+        <v>258</v>
+      </c>
+      <c r="C13" t="s">
+        <v>259</v>
+      </c>
+      <c r="D13" t="s">
+        <v>463</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>205</v>
+      </c>
+      <c r="H13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>261</v>
+      </c>
+      <c r="B14" t="s">
+        <v>262</v>
+      </c>
+      <c r="C14" t="s">
+        <v>263</v>
+      </c>
+      <c r="D14" t="s">
+        <v>264</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>265</v>
+      </c>
+      <c r="H14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="8" customFormat="1">
+      <c r="A15" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="8">
+        <v>1</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="H15" s="8">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="8" customFormat="1">
+      <c r="A16" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="8">
+        <v>1</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="H16" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>391</v>
+      </c>
+      <c r="B17" t="s">
+        <v>392</v>
+      </c>
+      <c r="C17" t="s">
+        <v>393</v>
+      </c>
+      <c r="D17" t="s">
+        <v>394</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>272</v>
+      </c>
+      <c r="H17">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Data/github_prjs/EmbeddedNeuromophicCamera_PADS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AFC2944-2A6F-9349-9212-2547D0CA5FA5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39C8A68-8338-CE45-8A3F-6AE817A93FD1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="460" windowWidth="29040" windowHeight="16540" activeTab="2" xr2:uid="{8EA9F011-AF60-47FB-BBDE-C3F1296126CD}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16540" activeTab="1" xr2:uid="{8EA9F011-AF60-47FB-BBDE-C3F1296126CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2108" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2118" uniqueCount="485">
   <si>
     <t xml:space="preserve"> Part Report bom for main_pads.pcb on 2/26/2019 10:16:17</t>
   </si>
@@ -1383,9 +1383,6 @@
   </si>
   <si>
     <t>XC7Z100-2FFG900</t>
-  </si>
-  <si>
-    <t>APX221/AXP22/AXP228/AXP229</t>
   </si>
   <si>
     <t>CLK_24M</t>
@@ -1517,12 +1514,30 @@
   <si>
     <t>贴片单刀三掷开关，见右图</t>
   </si>
+  <si>
+    <t>AXP228</t>
+  </si>
+  <si>
+    <t>U11</t>
+  </si>
+  <si>
+    <t>Geekcreit® FT232RL FTDI</t>
+  </si>
+  <si>
+    <t>USB to UART</t>
+  </si>
+  <si>
+    <t>X3</t>
+  </si>
+  <si>
+    <t>CLK_33.3M</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1589,6 +1604,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1598,7 +1628,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1621,11 +1651,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1637,14 +1681,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1661,8 +1699,24 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2530,7 +2584,7 @@
       <selection activeCell="C264" sqref="C264"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45" bestFit="1" customWidth="1"/>
@@ -2541,12 +2595,12 @@
     <col min="7" max="7" width="7.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -2569,7 +2623,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="3" customFormat="1">
+    <row r="4" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -2589,7 +2643,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="3" customFormat="1">
+    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -2609,7 +2663,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="3" customFormat="1">
+    <row r="6" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
@@ -2632,7 +2686,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="3" customFormat="1">
+    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
@@ -2655,7 +2709,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="3" customFormat="1">
+    <row r="8" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>22</v>
       </c>
@@ -2678,7 +2732,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="3" customFormat="1">
+    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>26</v>
       </c>
@@ -2701,7 +2755,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="3" customFormat="1">
+    <row r="10" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>28</v>
       </c>
@@ -2724,7 +2778,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="3" customFormat="1">
+    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>29</v>
       </c>
@@ -2747,7 +2801,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="3" customFormat="1">
+    <row r="12" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>30</v>
       </c>
@@ -2770,7 +2824,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="3" customFormat="1">
+    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>31</v>
       </c>
@@ -2793,7 +2847,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="3" customFormat="1">
+    <row r="14" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>32</v>
       </c>
@@ -2816,7 +2870,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="3" customFormat="1">
+    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>33</v>
       </c>
@@ -2839,7 +2893,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="3" customFormat="1">
+    <row r="16" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>34</v>
       </c>
@@ -2862,7 +2916,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="3" customFormat="1">
+    <row r="17" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>35</v>
       </c>
@@ -2885,7 +2939,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="3" customFormat="1">
+    <row r="18" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>36</v>
       </c>
@@ -2908,7 +2962,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="3" customFormat="1">
+    <row r="19" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>37</v>
       </c>
@@ -2931,7 +2985,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="3" customFormat="1">
+    <row r="20" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>38</v>
       </c>
@@ -2954,7 +3008,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="3" customFormat="1">
+    <row r="21" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>39</v>
       </c>
@@ -2977,7 +3031,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="3" customFormat="1">
+    <row r="22" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>40</v>
       </c>
@@ -3000,7 +3054,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="3" customFormat="1">
+    <row r="23" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>41</v>
       </c>
@@ -3023,7 +3077,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="3" customFormat="1">
+    <row r="24" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>42</v>
       </c>
@@ -3046,7 +3100,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="3" customFormat="1">
+    <row r="25" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>43</v>
       </c>
@@ -3069,7 +3123,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="3" customFormat="1">
+    <row r="26" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>44</v>
       </c>
@@ -3092,7 +3146,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="3" customFormat="1">
+    <row r="27" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>45</v>
       </c>
@@ -3115,7 +3169,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="3" customFormat="1">
+    <row r="28" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>46</v>
       </c>
@@ -3138,7 +3192,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="3" customFormat="1">
+    <row r="29" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>47</v>
       </c>
@@ -3161,7 +3215,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="3" customFormat="1">
+    <row r="30" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>48</v>
       </c>
@@ -3184,7 +3238,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="3" customFormat="1">
+    <row r="31" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>49</v>
       </c>
@@ -3207,7 +3261,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="3" customFormat="1">
+    <row r="32" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>50</v>
       </c>
@@ -3230,7 +3284,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="3" customFormat="1">
+    <row r="33" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>51</v>
       </c>
@@ -3253,7 +3307,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="3" customFormat="1">
+    <row r="34" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>52</v>
       </c>
@@ -3276,7 +3330,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="3" customFormat="1">
+    <row r="35" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>53</v>
       </c>
@@ -3299,7 +3353,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="3" customFormat="1">
+    <row r="36" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>54</v>
       </c>
@@ -3322,7 +3376,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="3" customFormat="1">
+    <row r="37" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>55</v>
       </c>
@@ -3345,7 +3399,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="3" customFormat="1">
+    <row r="38" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>56</v>
       </c>
@@ -3368,7 +3422,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="3" customFormat="1">
+    <row r="39" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>57</v>
       </c>
@@ -3391,7 +3445,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="3" customFormat="1">
+    <row r="40" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>58</v>
       </c>
@@ -3414,7 +3468,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:7" s="3" customFormat="1">
+    <row r="41" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>59</v>
       </c>
@@ -3437,7 +3491,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:7" s="3" customFormat="1">
+    <row r="42" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>60</v>
       </c>
@@ -3460,7 +3514,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="3" customFormat="1">
+    <row r="43" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>61</v>
       </c>
@@ -3483,7 +3537,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:7" s="3" customFormat="1">
+    <row r="44" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>62</v>
       </c>
@@ -3506,7 +3560,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:7" s="3" customFormat="1">
+    <row r="45" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>63</v>
       </c>
@@ -3529,7 +3583,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="3" customFormat="1">
+    <row r="46" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>64</v>
       </c>
@@ -3552,7 +3606,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:7" s="3" customFormat="1">
+    <row r="47" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>65</v>
       </c>
@@ -3575,7 +3629,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:7" s="3" customFormat="1">
+    <row r="48" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>66</v>
       </c>
@@ -3598,7 +3652,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:7" s="3" customFormat="1">
+    <row r="49" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>67</v>
       </c>
@@ -3621,7 +3675,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:7" s="3" customFormat="1">
+    <row r="50" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>68</v>
       </c>
@@ -3644,7 +3698,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:7" s="3" customFormat="1">
+    <row r="51" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>69</v>
       </c>
@@ -3667,7 +3721,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:7" s="3" customFormat="1">
+    <row r="52" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>70</v>
       </c>
@@ -3690,7 +3744,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="1:7" s="3" customFormat="1">
+    <row r="53" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>71</v>
       </c>
@@ -3713,7 +3767,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="1:7" s="3" customFormat="1">
+    <row r="54" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>72</v>
       </c>
@@ -3736,7 +3790,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:7" s="3" customFormat="1">
+    <row r="55" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>73</v>
       </c>
@@ -3759,7 +3813,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="1:7" s="3" customFormat="1">
+    <row r="56" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>74</v>
       </c>
@@ -3782,7 +3836,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="1:7" s="3" customFormat="1">
+    <row r="57" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>75</v>
       </c>
@@ -3805,7 +3859,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="1:7" s="3" customFormat="1">
+    <row r="58" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>76</v>
       </c>
@@ -3828,7 +3882,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:7" s="3" customFormat="1">
+    <row r="59" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>77</v>
       </c>
@@ -3851,7 +3905,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:7" s="3" customFormat="1">
+    <row r="60" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>79</v>
       </c>
@@ -3874,7 +3928,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="1:7" s="3" customFormat="1">
+    <row r="61" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>80</v>
       </c>
@@ -3897,7 +3951,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="1:7" s="3" customFormat="1">
+    <row r="62" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>81</v>
       </c>
@@ -3920,7 +3974,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:7" s="3" customFormat="1">
+    <row r="63" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>82</v>
       </c>
@@ -3943,7 +3997,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:7" s="3" customFormat="1">
+    <row r="64" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>83</v>
       </c>
@@ -3966,7 +4020,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="1:7" s="3" customFormat="1">
+    <row r="65" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>84</v>
       </c>
@@ -3989,7 +4043,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="1:7" s="3" customFormat="1">
+    <row r="66" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>85</v>
       </c>
@@ -4012,7 +4066,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="1:7" s="3" customFormat="1">
+    <row r="67" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>86</v>
       </c>
@@ -4035,7 +4089,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="1:7" s="3" customFormat="1">
+    <row r="68" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>87</v>
       </c>
@@ -4058,7 +4112,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="1:7" s="3" customFormat="1">
+    <row r="69" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>88</v>
       </c>
@@ -4081,7 +4135,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="70" spans="1:7" s="3" customFormat="1">
+    <row r="70" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>89</v>
       </c>
@@ -4104,7 +4158,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="1:7" s="3" customFormat="1">
+    <row r="71" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>90</v>
       </c>
@@ -4127,7 +4181,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="72" spans="1:7" s="3" customFormat="1">
+    <row r="72" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>91</v>
       </c>
@@ -4150,7 +4204,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="1:7" s="3" customFormat="1">
+    <row r="73" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>92</v>
       </c>
@@ -4173,7 +4227,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="1:7" s="3" customFormat="1">
+    <row r="74" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>93</v>
       </c>
@@ -4196,7 +4250,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="75" spans="1:7" s="3" customFormat="1">
+    <row r="75" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>94</v>
       </c>
@@ -4219,7 +4273,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="76" spans="1:7" s="3" customFormat="1">
+    <row r="76" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>95</v>
       </c>
@@ -4242,7 +4296,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="77" spans="1:7" s="3" customFormat="1">
+    <row r="77" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>96</v>
       </c>
@@ -4265,7 +4319,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="78" spans="1:7" s="3" customFormat="1">
+    <row r="78" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>97</v>
       </c>
@@ -4288,7 +4342,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="79" spans="1:7" s="3" customFormat="1">
+    <row r="79" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>98</v>
       </c>
@@ -4311,7 +4365,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="80" spans="1:7" s="3" customFormat="1">
+    <row r="80" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>99</v>
       </c>
@@ -4334,7 +4388,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="81" spans="1:7" s="3" customFormat="1">
+    <row r="81" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>100</v>
       </c>
@@ -4357,7 +4411,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="82" spans="1:7" s="3" customFormat="1">
+    <row r="82" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>101</v>
       </c>
@@ -4380,7 +4434,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="83" spans="1:7" s="3" customFormat="1">
+    <row r="83" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>102</v>
       </c>
@@ -4403,7 +4457,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="84" spans="1:7" s="3" customFormat="1">
+    <row r="84" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>103</v>
       </c>
@@ -4426,7 +4480,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="85" spans="1:7" s="3" customFormat="1">
+    <row r="85" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>104</v>
       </c>
@@ -4449,7 +4503,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="86" spans="1:7" s="3" customFormat="1">
+    <row r="86" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>105</v>
       </c>
@@ -4472,7 +4526,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="87" spans="1:7" s="3" customFormat="1">
+    <row r="87" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>106</v>
       </c>
@@ -4495,7 +4549,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="88" spans="1:7" s="3" customFormat="1">
+    <row r="88" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>107</v>
       </c>
@@ -4518,7 +4572,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="89" spans="1:7" s="3" customFormat="1">
+    <row r="89" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>108</v>
       </c>
@@ -4541,7 +4595,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="90" spans="1:7" s="3" customFormat="1">
+    <row r="90" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>109</v>
       </c>
@@ -4564,7 +4618,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="91" spans="1:7" s="3" customFormat="1">
+    <row r="91" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>110</v>
       </c>
@@ -4587,7 +4641,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="92" spans="1:7" s="3" customFormat="1">
+    <row r="92" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>111</v>
       </c>
@@ -4610,7 +4664,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="93" spans="1:7" s="3" customFormat="1">
+    <row r="93" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>112</v>
       </c>
@@ -4633,7 +4687,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="94" spans="1:7" s="3" customFormat="1">
+    <row r="94" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>113</v>
       </c>
@@ -4656,7 +4710,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="95" spans="1:7" s="3" customFormat="1">
+    <row r="95" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
         <v>114</v>
       </c>
@@ -4679,7 +4733,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="96" spans="1:7" s="3" customFormat="1">
+    <row r="96" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>116</v>
       </c>
@@ -4702,7 +4756,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="97" spans="1:7" s="3" customFormat="1">
+    <row r="97" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>117</v>
       </c>
@@ -4725,7 +4779,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="98" spans="1:7" s="3" customFormat="1">
+    <row r="98" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
         <v>118</v>
       </c>
@@ -4748,7 +4802,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="99" spans="1:7" s="3" customFormat="1">
+    <row r="99" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>119</v>
       </c>
@@ -4771,7 +4825,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="100" spans="1:7" s="3" customFormat="1">
+    <row r="100" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>120</v>
       </c>
@@ -4794,7 +4848,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="101" spans="1:7" s="3" customFormat="1">
+    <row r="101" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>121</v>
       </c>
@@ -4817,7 +4871,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="102" spans="1:7" s="3" customFormat="1">
+    <row r="102" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
         <v>122</v>
       </c>
@@ -4840,7 +4894,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="103" spans="1:7" s="3" customFormat="1">
+    <row r="103" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>123</v>
       </c>
@@ -4863,7 +4917,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="104" spans="1:7" s="3" customFormat="1">
+    <row r="104" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>124</v>
       </c>
@@ -4886,7 +4940,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="105" spans="1:7" s="3" customFormat="1">
+    <row r="105" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>125</v>
       </c>
@@ -4909,7 +4963,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="106" spans="1:7" s="3" customFormat="1">
+    <row r="106" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>126</v>
       </c>
@@ -4932,7 +4986,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="107" spans="1:7" s="3" customFormat="1">
+    <row r="107" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
         <v>127</v>
       </c>
@@ -4955,7 +5009,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="108" spans="1:7" s="3" customFormat="1">
+    <row r="108" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
         <v>128</v>
       </c>
@@ -4978,7 +5032,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="109" spans="1:7" s="3" customFormat="1">
+    <row r="109" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
         <v>129</v>
       </c>
@@ -5001,7 +5055,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="110" spans="1:7" s="3" customFormat="1">
+    <row r="110" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
         <v>130</v>
       </c>
@@ -5024,7 +5078,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="111" spans="1:7" s="3" customFormat="1">
+    <row r="111" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
         <v>131</v>
       </c>
@@ -5047,7 +5101,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="112" spans="1:7" s="3" customFormat="1">
+    <row r="112" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
         <v>133</v>
       </c>
@@ -5070,7 +5124,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="113" spans="1:7" s="3" customFormat="1">
+    <row r="113" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
         <v>134</v>
       </c>
@@ -5093,7 +5147,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="114" spans="1:7" s="3" customFormat="1">
+    <row r="114" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
         <v>135</v>
       </c>
@@ -5116,7 +5170,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="115" spans="1:7" s="3" customFormat="1">
+    <row r="115" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
         <v>136</v>
       </c>
@@ -5139,7 +5193,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="116" spans="1:7" s="3" customFormat="1">
+    <row r="116" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
         <v>137</v>
       </c>
@@ -5162,7 +5216,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="117" spans="1:7" s="3" customFormat="1">
+    <row r="117" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
         <v>138</v>
       </c>
@@ -5185,7 +5239,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="118" spans="1:7" s="3" customFormat="1">
+    <row r="118" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
         <v>139</v>
       </c>
@@ -5208,7 +5262,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="119" spans="1:7" s="3" customFormat="1">
+    <row r="119" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
         <v>140</v>
       </c>
@@ -5231,7 +5285,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="120" spans="1:7" s="3" customFormat="1">
+    <row r="120" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
         <v>141</v>
       </c>
@@ -5254,7 +5308,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="121" spans="1:7" s="3" customFormat="1">
+    <row r="121" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
         <v>142</v>
       </c>
@@ -5277,7 +5331,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="122" spans="1:7" s="3" customFormat="1">
+    <row r="122" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
         <v>143</v>
       </c>
@@ -5300,7 +5354,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="123" spans="1:7" s="3" customFormat="1">
+    <row r="123" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
         <v>144</v>
       </c>
@@ -5323,7 +5377,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="124" spans="1:7" s="3" customFormat="1">
+    <row r="124" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
         <v>145</v>
       </c>
@@ -5346,7 +5400,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="125" spans="1:7" s="3" customFormat="1">
+    <row r="125" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
         <v>146</v>
       </c>
@@ -5369,7 +5423,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="126" spans="1:7" s="3" customFormat="1">
+    <row r="126" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
         <v>147</v>
       </c>
@@ -5392,7 +5446,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="127" spans="1:7" s="3" customFormat="1">
+    <row r="127" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
         <v>148</v>
       </c>
@@ -5415,7 +5469,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="128" spans="1:7" s="3" customFormat="1">
+    <row r="128" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
         <v>149</v>
       </c>
@@ -5438,7 +5492,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="129" spans="1:7" s="3" customFormat="1">
+    <row r="129" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
         <v>150</v>
       </c>
@@ -5461,7 +5515,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="130" spans="1:7" s="3" customFormat="1">
+    <row r="130" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
         <v>151</v>
       </c>
@@ -5484,7 +5538,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="131" spans="1:7" s="3" customFormat="1">
+    <row r="131" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
         <v>152</v>
       </c>
@@ -5507,7 +5561,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="132" spans="1:7" s="3" customFormat="1">
+    <row r="132" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
         <v>153</v>
       </c>
@@ -5530,7 +5584,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="133" spans="1:7" s="3" customFormat="1">
+    <row r="133" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
         <v>154</v>
       </c>
@@ -5553,7 +5607,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="134" spans="1:7" s="3" customFormat="1">
+    <row r="134" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
         <v>155</v>
       </c>
@@ -5576,7 +5630,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="135" spans="1:7" s="3" customFormat="1">
+    <row r="135" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
         <v>156</v>
       </c>
@@ -5599,7 +5653,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="136" spans="1:7" s="3" customFormat="1">
+    <row r="136" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
         <v>157</v>
       </c>
@@ -5622,7 +5676,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="137" spans="1:7" s="3" customFormat="1">
+    <row r="137" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
         <v>158</v>
       </c>
@@ -5645,7 +5699,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="138" spans="1:7" s="3" customFormat="1">
+    <row r="138" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
         <v>159</v>
       </c>
@@ -5668,7 +5722,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="139" spans="1:7" s="3" customFormat="1">
+    <row r="139" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
         <v>160</v>
       </c>
@@ -5691,7 +5745,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="140" spans="1:7" s="3" customFormat="1">
+    <row r="140" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
         <v>162</v>
       </c>
@@ -5714,7 +5768,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="141" spans="1:7" s="3" customFormat="1">
+    <row r="141" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
         <v>164</v>
       </c>
@@ -5737,7 +5791,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="142" spans="1:7" s="3" customFormat="1">
+    <row r="142" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
         <v>169</v>
       </c>
@@ -5760,7 +5814,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="143" spans="1:7" s="3" customFormat="1">
+    <row r="143" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
         <v>173</v>
       </c>
@@ -5783,7 +5837,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="144" spans="1:7" s="3" customFormat="1">
+    <row r="144" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
         <v>176</v>
       </c>
@@ -5806,7 +5860,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="145" spans="1:7" s="3" customFormat="1">
+    <row r="145" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
         <v>180</v>
       </c>
@@ -5829,7 +5883,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>181</v>
       </c>
@@ -5849,7 +5903,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="147" spans="1:7" s="3" customFormat="1">
+    <row r="147" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
         <v>184</v>
       </c>
@@ -5872,7 +5926,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="148" spans="1:7" s="3" customFormat="1">
+    <row r="148" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
         <v>188</v>
       </c>
@@ -5895,7 +5949,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="149" spans="1:7" s="3" customFormat="1">
+    <row r="149" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
         <v>190</v>
       </c>
@@ -5918,7 +5972,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="150" spans="1:7" s="3" customFormat="1">
+    <row r="150" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
         <v>192</v>
       </c>
@@ -5941,7 +5995,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="151" spans="1:7" s="3" customFormat="1">
+    <row r="151" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
         <v>194</v>
       </c>
@@ -5964,7 +6018,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="152" spans="1:7" s="3" customFormat="1">
+    <row r="152" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
         <v>196</v>
       </c>
@@ -5987,7 +6041,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="153" spans="1:7" s="3" customFormat="1">
+    <row r="153" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
         <v>197</v>
       </c>
@@ -6010,7 +6064,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="154" spans="1:7" s="3" customFormat="1">
+    <row r="154" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
         <v>201</v>
       </c>
@@ -6033,7 +6087,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="155" spans="1:7" s="3" customFormat="1">
+    <row r="155" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
         <v>206</v>
       </c>
@@ -6056,7 +6110,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="156" spans="1:7" s="3" customFormat="1">
+    <row r="156" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
         <v>207</v>
       </c>
@@ -6079,7 +6133,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="157" spans="1:7" s="3" customFormat="1">
+    <row r="157" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
         <v>211</v>
       </c>
@@ -6102,7 +6156,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="158" spans="1:7" s="3" customFormat="1">
+    <row r="158" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
         <v>215</v>
       </c>
@@ -6125,7 +6179,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="159" spans="1:7" s="3" customFormat="1">
+    <row r="159" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
         <v>219</v>
       </c>
@@ -6148,7 +6202,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="160" spans="1:7" s="3" customFormat="1">
+    <row r="160" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
         <v>223</v>
       </c>
@@ -6171,7 +6225,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="161" spans="1:7" s="3" customFormat="1">
+    <row r="161" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
         <v>228</v>
       </c>
@@ -6194,7 +6248,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="162" spans="1:7" s="3" customFormat="1">
+    <row r="162" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
         <v>229</v>
       </c>
@@ -6217,7 +6271,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="163" spans="1:7" s="3" customFormat="1">
+    <row r="163" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
         <v>230</v>
       </c>
@@ -6240,7 +6294,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="164" spans="1:7" s="3" customFormat="1">
+    <row r="164" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
         <v>231</v>
       </c>
@@ -6263,7 +6317,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="165" spans="1:7" s="3" customFormat="1">
+    <row r="165" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
         <v>235</v>
       </c>
@@ -6286,7 +6340,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="166" spans="1:7" s="3" customFormat="1">
+    <row r="166" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
         <v>236</v>
       </c>
@@ -6309,7 +6363,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="167" spans="1:7" s="3" customFormat="1">
+    <row r="167" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
         <v>237</v>
       </c>
@@ -6332,7 +6386,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="168" spans="1:7" s="3" customFormat="1">
+    <row r="168" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
         <v>238</v>
       </c>
@@ -6355,7 +6409,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="169" spans="1:7" s="3" customFormat="1">
+    <row r="169" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
         <v>239</v>
       </c>
@@ -6378,7 +6432,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="170" spans="1:7" s="3" customFormat="1">
+    <row r="170" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
         <v>240</v>
       </c>
@@ -6401,7 +6455,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="171" spans="1:7" s="3" customFormat="1">
+    <row r="171" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
         <v>244</v>
       </c>
@@ -6424,7 +6478,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="172" spans="1:7" s="3" customFormat="1">
+    <row r="172" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
         <v>248</v>
       </c>
@@ -6447,7 +6501,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="173" spans="1:7" s="3" customFormat="1">
+    <row r="173" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
         <v>249</v>
       </c>
@@ -6470,7 +6524,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="174" spans="1:7" s="3" customFormat="1">
+    <row r="174" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
         <v>253</v>
       </c>
@@ -6493,7 +6547,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="175" spans="1:7" s="3" customFormat="1">
+    <row r="175" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
         <v>257</v>
       </c>
@@ -6516,7 +6570,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="176" spans="1:7" s="3" customFormat="1">
+    <row r="176" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
         <v>261</v>
       </c>
@@ -6539,7 +6593,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="177" spans="1:7" s="3" customFormat="1">
+    <row r="177" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
         <v>266</v>
       </c>
@@ -6562,7 +6616,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="178" spans="1:7" s="3" customFormat="1">
+    <row r="178" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="s">
         <v>268</v>
       </c>
@@ -6585,7 +6639,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="179" spans="1:7" s="3" customFormat="1">
+    <row r="179" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A179" s="3" t="s">
         <v>273</v>
       </c>
@@ -6608,7 +6662,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="180" spans="1:7" s="3" customFormat="1" ht="17.25" customHeight="1">
+    <row r="180" spans="1:7" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="s">
         <v>277</v>
       </c>
@@ -6631,7 +6685,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="181" spans="1:7" s="3" customFormat="1">
+    <row r="181" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="s">
         <v>282</v>
       </c>
@@ -6654,7 +6708,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="182" spans="1:7" s="3" customFormat="1">
+    <row r="182" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="s">
         <v>286</v>
       </c>
@@ -6677,7 +6731,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="183" spans="1:7" s="3" customFormat="1">
+    <row r="183" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
         <v>287</v>
       </c>
@@ -6700,7 +6754,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="184" spans="1:7" s="3" customFormat="1">
+    <row r="184" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
         <v>288</v>
       </c>
@@ -6723,7 +6777,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="185" spans="1:7" s="3" customFormat="1">
+    <row r="185" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A185" s="3" t="s">
         <v>292</v>
       </c>
@@ -6746,7 +6800,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="186" spans="1:7" s="3" customFormat="1">
+    <row r="186" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A186" s="3" t="s">
         <v>294</v>
       </c>
@@ -6769,7 +6823,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="187" spans="1:7" s="3" customFormat="1">
+    <row r="187" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A187" s="3" t="s">
         <v>295</v>
       </c>
@@ -6792,7 +6846,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="188" spans="1:7" s="3" customFormat="1">
+    <row r="188" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A188" s="3" t="s">
         <v>296</v>
       </c>
@@ -6815,7 +6869,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="189" spans="1:7" s="3" customFormat="1">
+    <row r="189" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A189" s="3" t="s">
         <v>297</v>
       </c>
@@ -6838,7 +6892,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="190" spans="1:7" s="3" customFormat="1">
+    <row r="190" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A190" s="3" t="s">
         <v>298</v>
       </c>
@@ -6861,7 +6915,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="191" spans="1:7" s="3" customFormat="1">
+    <row r="191" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
         <v>299</v>
       </c>
@@ -6884,7 +6938,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="192" spans="1:7" s="3" customFormat="1">
+    <row r="192" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A192" s="3" t="s">
         <v>301</v>
       </c>
@@ -6907,7 +6961,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="193" spans="1:7" s="3" customFormat="1">
+    <row r="193" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A193" s="3" t="s">
         <v>302</v>
       </c>
@@ -6930,7 +6984,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="194" spans="1:7" s="3" customFormat="1">
+    <row r="194" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A194" s="3" t="s">
         <v>303</v>
       </c>
@@ -6953,7 +7007,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="195" spans="1:7" s="3" customFormat="1">
+    <row r="195" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A195" s="3" t="s">
         <v>305</v>
       </c>
@@ -6976,7 +7030,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="196" spans="1:7" s="3" customFormat="1">
+    <row r="196" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A196" s="3" t="s">
         <v>307</v>
       </c>
@@ -6999,7 +7053,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="197" spans="1:7" s="3" customFormat="1">
+    <row r="197" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A197" s="3" t="s">
         <v>308</v>
       </c>
@@ -7022,7 +7076,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="198" spans="1:7" s="3" customFormat="1">
+    <row r="198" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A198" s="3" t="s">
         <v>309</v>
       </c>
@@ -7045,7 +7099,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="199" spans="1:7" s="3" customFormat="1">
+    <row r="199" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A199" s="3" t="s">
         <v>311</v>
       </c>
@@ -7068,7 +7122,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="200" spans="1:7" s="3" customFormat="1">
+    <row r="200" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A200" s="3" t="s">
         <v>312</v>
       </c>
@@ -7091,7 +7145,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="201" spans="1:7" s="3" customFormat="1">
+    <row r="201" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A201" s="3" t="s">
         <v>313</v>
       </c>
@@ -7114,7 +7168,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="202" spans="1:7" s="3" customFormat="1">
+    <row r="202" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A202" s="3" t="s">
         <v>315</v>
       </c>
@@ -7137,7 +7191,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="203" spans="1:7" s="3" customFormat="1">
+    <row r="203" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A203" s="3" t="s">
         <v>316</v>
       </c>
@@ -7160,7 +7214,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="204" spans="1:7" s="3" customFormat="1">
+    <row r="204" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A204" s="3" t="s">
         <v>317</v>
       </c>
@@ -7183,7 +7237,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="205" spans="1:7" s="3" customFormat="1">
+    <row r="205" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A205" s="3" t="s">
         <v>319</v>
       </c>
@@ -7206,7 +7260,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="206" spans="1:7" s="3" customFormat="1">
+    <row r="206" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A206" s="3" t="s">
         <v>321</v>
       </c>
@@ -7229,7 +7283,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="207" spans="1:7" s="3" customFormat="1">
+    <row r="207" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A207" s="3" t="s">
         <v>322</v>
       </c>
@@ -7252,7 +7306,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="208" spans="1:7" s="3" customFormat="1">
+    <row r="208" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A208" s="3" t="s">
         <v>323</v>
       </c>
@@ -7275,7 +7329,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="209" spans="1:7" s="3" customFormat="1">
+    <row r="209" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A209" s="3" t="s">
         <v>324</v>
       </c>
@@ -7298,7 +7352,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="210" spans="1:7" s="3" customFormat="1">
+    <row r="210" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A210" s="3" t="s">
         <v>326</v>
       </c>
@@ -7321,7 +7375,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="211" spans="1:7" s="3" customFormat="1">
+    <row r="211" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A211" s="3" t="s">
         <v>327</v>
       </c>
@@ -7344,7 +7398,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="212" spans="1:7" s="3" customFormat="1">
+    <row r="212" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A212" s="3" t="s">
         <v>328</v>
       </c>
@@ -7367,7 +7421,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="213" spans="1:7" s="3" customFormat="1">
+    <row r="213" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A213" s="3" t="s">
         <v>329</v>
       </c>
@@ -7390,7 +7444,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="214" spans="1:7" s="3" customFormat="1">
+    <row r="214" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A214" s="3" t="s">
         <v>331</v>
       </c>
@@ -7413,7 +7467,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="215" spans="1:7" s="3" customFormat="1">
+    <row r="215" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A215" s="3" t="s">
         <v>332</v>
       </c>
@@ -7436,7 +7490,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="216" spans="1:7" s="3" customFormat="1">
+    <row r="216" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A216" s="3" t="s">
         <v>333</v>
       </c>
@@ -7459,7 +7513,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="217" spans="1:7" s="3" customFormat="1">
+    <row r="217" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A217" s="3" t="s">
         <v>334</v>
       </c>
@@ -7482,7 +7536,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="218" spans="1:7" s="3" customFormat="1">
+    <row r="218" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A218" s="3" t="s">
         <v>335</v>
       </c>
@@ -7505,7 +7559,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="219" spans="1:7" s="3" customFormat="1">
+    <row r="219" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A219" s="3" t="s">
         <v>336</v>
       </c>
@@ -7528,7 +7582,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="220" spans="1:7" s="3" customFormat="1">
+    <row r="220" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A220" s="3" t="s">
         <v>338</v>
       </c>
@@ -7551,7 +7605,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="221" spans="1:7" s="3" customFormat="1">
+    <row r="221" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A221" s="3" t="s">
         <v>339</v>
       </c>
@@ -7574,7 +7628,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="222" spans="1:7" s="3" customFormat="1">
+    <row r="222" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A222" s="3" t="s">
         <v>340</v>
       </c>
@@ -7597,7 +7651,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="223" spans="1:7" s="3" customFormat="1">
+    <row r="223" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A223" s="3" t="s">
         <v>341</v>
       </c>
@@ -7620,7 +7674,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="224" spans="1:7" s="3" customFormat="1">
+    <row r="224" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A224" s="3" t="s">
         <v>342</v>
       </c>
@@ -7643,7 +7697,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="225" spans="1:7" s="3" customFormat="1">
+    <row r="225" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A225" s="3" t="s">
         <v>343</v>
       </c>
@@ -7666,7 +7720,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="226" spans="1:7" s="3" customFormat="1">
+    <row r="226" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A226" s="3" t="s">
         <v>345</v>
       </c>
@@ -7689,7 +7743,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="227" spans="1:7" s="3" customFormat="1">
+    <row r="227" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A227" s="3" t="s">
         <v>346</v>
       </c>
@@ -7712,7 +7766,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="228" spans="1:7" s="3" customFormat="1">
+    <row r="228" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A228" s="3" t="s">
         <v>347</v>
       </c>
@@ -7735,7 +7789,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="229" spans="1:7" s="3" customFormat="1">
+    <row r="229" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A229" s="3" t="s">
         <v>348</v>
       </c>
@@ -7758,7 +7812,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="230" spans="1:7" s="3" customFormat="1">
+    <row r="230" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A230" s="3" t="s">
         <v>350</v>
       </c>
@@ -7781,7 +7835,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="231" spans="1:7" s="3" customFormat="1">
+    <row r="231" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A231" s="3" t="s">
         <v>351</v>
       </c>
@@ -7804,7 +7858,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="232" spans="1:7" s="3" customFormat="1">
+    <row r="232" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A232" s="3" t="s">
         <v>353</v>
       </c>
@@ -7827,7 +7881,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="233" spans="1:7" s="3" customFormat="1">
+    <row r="233" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A233" s="3" t="s">
         <v>354</v>
       </c>
@@ -7850,7 +7904,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="234" spans="1:7" s="3" customFormat="1">
+    <row r="234" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A234" s="3" t="s">
         <v>355</v>
       </c>
@@ -7873,7 +7927,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="235" spans="1:7" s="3" customFormat="1">
+    <row r="235" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A235" s="3" t="s">
         <v>356</v>
       </c>
@@ -7896,7 +7950,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="236" spans="1:7" s="3" customFormat="1">
+    <row r="236" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A236" s="3" t="s">
         <v>357</v>
       </c>
@@ -7919,7 +7973,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="237" spans="1:7" s="3" customFormat="1">
+    <row r="237" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A237" s="3" t="s">
         <v>358</v>
       </c>
@@ -7942,7 +7996,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="238" spans="1:7" s="3" customFormat="1">
+    <row r="238" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A238" s="3" t="s">
         <v>359</v>
       </c>
@@ -7965,7 +8019,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="239" spans="1:7" s="3" customFormat="1">
+    <row r="239" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A239" s="3" t="s">
         <v>363</v>
       </c>
@@ -7988,7 +8042,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="240" spans="1:7" s="3" customFormat="1">
+    <row r="240" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A240" s="3" t="s">
         <v>364</v>
       </c>
@@ -8011,7 +8065,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="241" spans="1:7" s="3" customFormat="1">
+    <row r="241" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A241" s="3" t="s">
         <v>365</v>
       </c>
@@ -8034,7 +8088,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="242" spans="1:7" s="3" customFormat="1">
+    <row r="242" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A242" s="3" t="s">
         <v>366</v>
       </c>
@@ -8057,7 +8111,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="243" spans="1:7" s="3" customFormat="1">
+    <row r="243" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A243" s="3" t="s">
         <v>368</v>
       </c>
@@ -8080,7 +8134,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="244" spans="1:7" s="3" customFormat="1">
+    <row r="244" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A244" s="3" t="s">
         <v>370</v>
       </c>
@@ -8103,7 +8157,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="245" spans="1:7" s="3" customFormat="1">
+    <row r="245" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A245" s="3" t="s">
         <v>371</v>
       </c>
@@ -8126,7 +8180,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="246" spans="1:7" s="3" customFormat="1">
+    <row r="246" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A246" s="3" t="s">
         <v>372</v>
       </c>
@@ -8149,7 +8203,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="247" spans="1:7" s="3" customFormat="1">
+    <row r="247" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A247" s="3" t="s">
         <v>373</v>
       </c>
@@ -8172,7 +8226,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="248" spans="1:7" s="3" customFormat="1">
+    <row r="248" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A248" s="3" t="s">
         <v>376</v>
       </c>
@@ -8195,7 +8249,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="249" spans="1:7" s="3" customFormat="1">
+    <row r="249" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A249" s="3" t="s">
         <v>377</v>
       </c>
@@ -8218,7 +8272,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="250" spans="1:7" s="3" customFormat="1">
+    <row r="250" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A250" s="3" t="s">
         <v>378</v>
       </c>
@@ -8241,7 +8295,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="251" spans="1:7" s="3" customFormat="1">
+    <row r="251" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A251" s="3" t="s">
         <v>379</v>
       </c>
@@ -8264,7 +8318,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="252" spans="1:7" s="3" customFormat="1">
+    <row r="252" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A252" s="3" t="s">
         <v>380</v>
       </c>
@@ -8287,7 +8341,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="253" spans="1:7" s="3" customFormat="1">
+    <row r="253" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A253" s="3" t="s">
         <v>381</v>
       </c>
@@ -8310,7 +8364,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="254" spans="1:7" s="3" customFormat="1">
+    <row r="254" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A254" s="3" t="s">
         <v>382</v>
       </c>
@@ -8333,7 +8387,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="255" spans="1:7" s="3" customFormat="1">
+    <row r="255" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A255" s="3" t="s">
         <v>383</v>
       </c>
@@ -8356,7 +8410,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="256" spans="1:7" s="3" customFormat="1">
+    <row r="256" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A256" s="3" t="s">
         <v>384</v>
       </c>
@@ -8379,7 +8433,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="257" spans="1:7" s="3" customFormat="1">
+    <row r="257" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A257" s="3" t="s">
         <v>385</v>
       </c>
@@ -8402,7 +8456,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="258" spans="1:7" s="3" customFormat="1">
+    <row r="258" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A258" s="3" t="s">
         <v>386</v>
       </c>
@@ -8425,7 +8479,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="259" spans="1:7" s="3" customFormat="1">
+    <row r="259" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A259" s="3" t="s">
         <v>387</v>
       </c>
@@ -8448,7 +8502,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="260" spans="1:7" s="3" customFormat="1">
+    <row r="260" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A260" s="3" t="s">
         <v>388</v>
       </c>
@@ -8471,7 +8525,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="261" spans="1:7" s="3" customFormat="1">
+    <row r="261" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A261" s="3" t="s">
         <v>391</v>
       </c>
@@ -8494,7 +8548,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="262" spans="1:7" s="3" customFormat="1">
+    <row r="262" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A262" s="3" t="s">
         <v>395</v>
       </c>
@@ -8514,7 +8568,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="263" spans="1:7" s="3" customFormat="1">
+    <row r="263" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A263" s="3" t="s">
         <v>396</v>
       </c>
@@ -8537,7 +8591,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="264" spans="1:7" s="3" customFormat="1">
+    <row r="264" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A264" s="3" t="s">
         <v>398</v>
       </c>
@@ -8557,7 +8611,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="265" spans="1:7" s="3" customFormat="1">
+    <row r="265" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A265" s="3" t="s">
         <v>399</v>
       </c>
@@ -8580,7 +8634,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="266" spans="1:7" s="3" customFormat="1">
+    <row r="266" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A266" s="3" t="s">
         <v>403</v>
       </c>
@@ -8600,7 +8654,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="267" spans="1:7" s="3" customFormat="1">
+    <row r="267" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A267" s="3" t="s">
         <v>407</v>
       </c>
@@ -8620,7 +8674,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="268" spans="1:7" s="3" customFormat="1">
+    <row r="268" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A268" s="3" t="s">
         <v>411</v>
       </c>
@@ -8640,7 +8694,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="269" spans="1:7" s="3" customFormat="1">
+    <row r="269" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A269" s="3" t="s">
         <v>414</v>
       </c>
@@ -8660,7 +8714,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="270" spans="1:7" s="3" customFormat="1">
+    <row r="270" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A270" s="3" t="s">
         <v>415</v>
       </c>
@@ -8680,7 +8734,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="271" spans="1:7" s="3" customFormat="1">
+    <row r="271" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A271" s="3" t="s">
         <v>418</v>
       </c>
@@ -8700,7 +8754,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="272" spans="1:7" s="3" customFormat="1">
+    <row r="272" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A272" s="3" t="s">
         <v>419</v>
       </c>
@@ -8720,7 +8774,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="273" spans="1:7" s="3" customFormat="1">
+    <row r="273" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A273" s="3" t="s">
         <v>422</v>
       </c>
@@ -8740,7 +8794,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="274" spans="1:7" s="3" customFormat="1">
+    <row r="274" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A274" s="3" t="s">
         <v>425</v>
       </c>
@@ -8760,7 +8814,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="275" spans="1:7" s="3" customFormat="1">
+    <row r="275" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A275" s="3" t="s">
         <v>428</v>
       </c>
@@ -8780,7 +8834,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="276" spans="1:7" s="3" customFormat="1">
+    <row r="276" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A276" s="3" t="s">
         <v>431</v>
       </c>
@@ -8800,7 +8854,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="277" spans="1:7" s="3" customFormat="1">
+    <row r="277" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A277" s="3" t="s">
         <v>434</v>
       </c>
@@ -8820,7 +8874,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="278" spans="1:7" s="3" customFormat="1">
+    <row r="278" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A278" s="3" t="s">
         <v>437</v>
       </c>
@@ -8840,7 +8894,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="279" spans="1:7" s="3" customFormat="1">
+    <row r="279" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A279" s="3" t="s">
         <v>441</v>
       </c>
@@ -8860,7 +8914,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="281" spans="1:7" s="1" customFormat="1">
+    <row r="281" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
         <v>442</v>
       </c>
@@ -8874,1820 +8928,1879 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62A830F9-959C-B34F-BCA6-4F4F23785374}">
-  <dimension ref="A1:I67"/>
+  <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="28.1640625" customWidth="1"/>
     <col min="4" max="4" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>464</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="6"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="6">
+        <v>1</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="H3" s="6">
+        <v>3</v>
+      </c>
+      <c r="I3" s="6">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="6">
+        <v>1</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="H4" s="6">
+        <v>3</v>
+      </c>
+      <c r="I4" s="6">
+        <v>2950</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="6">
+        <v>1</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="H5" s="6">
+        <v>3</v>
+      </c>
+      <c r="I5" s="6">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="H6" s="6">
+        <v>3</v>
+      </c>
+      <c r="I6" s="6">
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="6">
+        <v>6</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="H7" s="6">
+        <v>5</v>
+      </c>
+      <c r="I7" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="6">
+        <v>1</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="H8" s="6">
+        <v>10</v>
+      </c>
+      <c r="I8" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="6">
+        <v>1</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="H9" s="6">
+        <v>10</v>
+      </c>
+      <c r="I9" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="6">
+        <v>1</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="H10" s="6">
+        <v>5</v>
+      </c>
+      <c r="I10" s="6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="6">
+        <v>6</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="H11" s="6">
+        <v>10</v>
+      </c>
+      <c r="I11" s="6">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="6">
+        <v>6</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="H12" s="6">
+        <v>5</v>
+      </c>
+      <c r="I12" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="6">
+        <v>1</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="H13" s="6">
+        <v>5</v>
+      </c>
+      <c r="I13" s="6">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>481</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="17">
+        <v>1</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>410</v>
+      </c>
+      <c r="H14" s="17">
+        <v>5</v>
+      </c>
+      <c r="I14" s="6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="6">
+        <v>1</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="H15" s="6">
+        <v>5</v>
+      </c>
+      <c r="I15" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="6">
+        <v>1</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="H16" s="6">
+        <v>5</v>
+      </c>
+      <c r="I16" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="6">
+        <v>1</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="H17" s="6">
+        <v>5</v>
+      </c>
+      <c r="I17" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="6">
+        <v>6</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="H18" s="6">
+        <v>50</v>
+      </c>
+      <c r="I18" s="6">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="13" t="s">
+        <v>451</v>
+      </c>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="6">
+        <v>6</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="6">
+        <v>1000</v>
+      </c>
+      <c r="I21" s="6">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="6">
+        <v>6</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" s="6">
+        <v>500</v>
+      </c>
+      <c r="I22" s="6">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="6">
+        <v>6</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="6">
+        <v>500</v>
+      </c>
+      <c r="I23" s="6">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="6">
+        <v>6</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" s="6">
+        <v>500</v>
+      </c>
+      <c r="I24" s="6">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="6">
+        <v>6</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" s="6">
+        <v>500</v>
+      </c>
+      <c r="I25" s="6">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="6">
+        <v>1</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" s="6">
+        <v>500</v>
+      </c>
+      <c r="I26" s="6">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="6">
+        <v>1</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" s="6">
+        <v>500</v>
+      </c>
+      <c r="I27" s="6">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" s="6">
+        <v>6</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" s="6">
+        <v>500</v>
+      </c>
+      <c r="I28" s="6">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" s="6">
+        <v>6</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" s="6">
+        <v>500</v>
+      </c>
+      <c r="I29" s="6">
+        <v>8.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="6">
+        <v>6</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="H30" s="6">
+        <v>100</v>
+      </c>
+      <c r="I30" s="6">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" s="6">
+        <v>6</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="H31" s="6">
+        <v>100</v>
+      </c>
+      <c r="I31" s="6">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" s="6">
+        <v>6</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="H32" s="6">
+        <v>100</v>
+      </c>
+      <c r="I32" s="6">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" s="6">
+        <v>6</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="H33" s="6">
+        <v>500</v>
+      </c>
+      <c r="I33" s="6">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" s="6">
+        <v>6</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="H34" s="6">
+        <v>500</v>
+      </c>
+      <c r="I34" s="6">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" s="6">
+        <v>6</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="H35" s="6">
+        <v>500</v>
+      </c>
+      <c r="I35" s="6">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F36" s="6">
+        <v>6</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="H36" s="6">
+        <v>500</v>
+      </c>
+      <c r="I36" s="6">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="6">
+        <v>1</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="H37" s="6">
+        <v>500</v>
+      </c>
+      <c r="I37" s="6">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F38" s="6">
+        <v>6</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="H38" s="6">
+        <v>500</v>
+      </c>
+      <c r="I38" s="6">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F39" s="6">
+        <v>6</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="H39" s="6">
+        <v>500</v>
+      </c>
+      <c r="I39" s="6">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" s="6">
+        <v>1</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="H40" s="6">
+        <v>500</v>
+      </c>
+      <c r="I40" s="6">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" s="6">
+        <v>6</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="H41" s="6">
+        <v>500</v>
+      </c>
+      <c r="I41" s="6">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" s="6">
+        <v>1</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="H42" s="6">
+        <v>500</v>
+      </c>
+      <c r="I42" s="6">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F43" s="6">
+        <v>6</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="H43" s="6">
+        <v>500</v>
+      </c>
+      <c r="I43" s="6">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F44" s="6">
+        <v>6</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="H44" s="6">
+        <v>500</v>
+      </c>
+      <c r="I44" s="6">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" s="6">
+        <v>1</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="H45" s="6">
+        <v>500</v>
+      </c>
+      <c r="I45" s="6">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F46" s="6">
+        <v>6</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="H46" s="6">
+        <v>500</v>
+      </c>
+      <c r="I46" s="6">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" s="6">
+        <v>1</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="H47" s="6">
+        <v>500</v>
+      </c>
+      <c r="I47" s="6">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48" s="6">
+        <v>1</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="H48" s="6">
+        <v>500</v>
+      </c>
+      <c r="I48" s="6">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F49" s="6">
+        <v>6</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="H49" s="6">
+        <v>500</v>
+      </c>
+      <c r="I49" s="6">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F50" s="6">
+        <v>6</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="H50" s="6">
+        <v>500</v>
+      </c>
+      <c r="I50" s="6">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F51" s="6">
+        <v>6</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="H51" s="6">
+        <v>500</v>
+      </c>
+      <c r="I51" s="6">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F52" s="6">
+        <v>6</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="H52" s="6">
+        <v>500</v>
+      </c>
+      <c r="I52" s="6">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53" s="6">
+        <v>1</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="H53" s="6">
+        <v>500</v>
+      </c>
+      <c r="I53" s="6">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="C54" s="6">
+        <v>1206</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F54" s="6">
+        <v>6</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H54" s="6">
+        <v>500</v>
+      </c>
+      <c r="I54" s="6">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="6"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="B56" s="13"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="13"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57" s="6">
+        <v>1</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="H57" s="6">
+        <v>100</v>
+      </c>
+      <c r="I57" s="6">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F58" s="6">
+        <v>1</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="H58" s="6">
+        <v>100</v>
+      </c>
+      <c r="I58" s="6">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F59" s="6">
+        <v>1</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="H59" s="6">
+        <v>100</v>
+      </c>
+      <c r="I59" s="6">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F60" s="6">
+        <v>1</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" s="6"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" s="13" t="s">
+        <v>453</v>
+      </c>
+      <c r="B62" s="13"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="13"/>
+      <c r="I62" s="13"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F63" s="6">
+        <v>1</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="H63" s="6">
+        <v>50</v>
+      </c>
+      <c r="I63" s="6">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F64" s="6">
+        <v>1</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="H64" s="6">
+        <v>50</v>
+      </c>
+      <c r="I64" s="6">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F65" s="6">
+        <v>1</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="H65" s="6">
+        <v>50</v>
+      </c>
+      <c r="I65" s="6" t="s">
         <v>465</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="7"/>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="7">
-        <v>1</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="H3" s="7">
-        <v>3</v>
-      </c>
-      <c r="I3" s="7">
-        <v>2800</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="7">
-        <v>1</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="H4" s="7">
-        <v>3</v>
-      </c>
-      <c r="I4" s="7">
-        <v>2950</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="7">
-        <v>1</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="H5" s="7">
-        <v>3</v>
-      </c>
-      <c r="I5" s="7">
-        <v>3200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="7">
-        <v>1</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="H6" s="7">
-        <v>3</v>
-      </c>
-      <c r="I6" s="7">
-        <v>3700</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="7">
-        <v>6</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="H7" s="7">
-        <v>5</v>
-      </c>
-      <c r="I7" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="7">
-        <v>1</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="H8" s="7">
-        <v>10</v>
-      </c>
-      <c r="I8" s="7">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="7">
-        <v>1</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="H9" s="7">
-        <v>10</v>
-      </c>
-      <c r="I9" s="7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="7">
-        <v>1</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="H10" s="7">
-        <v>5</v>
-      </c>
-      <c r="I10" s="7">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="7">
-        <v>6</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="H11" s="7">
-        <v>10</v>
-      </c>
-      <c r="I11" s="7"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="7">
-        <v>6</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="H12" s="7">
-        <v>5</v>
-      </c>
-      <c r="I12" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="7">
-        <v>1</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="H13" s="7">
-        <v>5</v>
-      </c>
-      <c r="I13" s="7">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="7">
-        <v>1</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="H14" s="7">
-        <v>5</v>
-      </c>
-      <c r="I14" s="7">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="7">
-        <v>1</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="H15" s="7">
-        <v>5</v>
-      </c>
-      <c r="I15" s="7">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="7">
-        <v>6</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="H16" s="7">
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F66" s="6">
+        <v>1</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="H66" s="6">
         <v>50</v>
       </c>
-      <c r="I16" s="7">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="6" t="s">
-        <v>452</v>
-      </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="7">
-        <v>6</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1000</v>
-      </c>
-      <c r="I19" s="7">
-        <v>3.5000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="7">
-        <v>6</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" s="7">
-        <v>500</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" s="7">
-        <v>6</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" s="7">
-        <v>500</v>
-      </c>
-      <c r="I21" s="7">
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F22" s="7">
-        <v>6</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H22" s="7">
-        <v>500</v>
-      </c>
-      <c r="I22" s="7">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23" s="7">
-        <v>6</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H23" s="7">
-        <v>500</v>
-      </c>
-      <c r="I23" s="7">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="7">
-        <v>1</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H24" s="7">
-        <v>500</v>
-      </c>
-      <c r="I24" s="7">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" s="7">
-        <v>1</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H25" s="7">
-        <v>500</v>
-      </c>
-      <c r="I25" s="7">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F26" s="7">
-        <v>6</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H26" s="7">
-        <v>500</v>
-      </c>
-      <c r="I26" s="7">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F27" s="7">
-        <v>6</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H27" s="7">
-        <v>500</v>
-      </c>
-      <c r="I27" s="7">
-        <v>8.5000000000000006E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F28" s="7">
-        <v>6</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="H28" s="7">
-        <v>100</v>
-      </c>
-      <c r="I28" s="7">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F29" s="7">
-        <v>6</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="H29" s="7">
-        <v>100</v>
-      </c>
-      <c r="I29" s="7">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F30" s="7">
-        <v>6</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="H30" s="7">
-        <v>100</v>
-      </c>
-      <c r="I30" s="7">
-        <v>1.55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F31" s="7">
-        <v>6</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="H31" s="7">
-        <v>500</v>
-      </c>
-      <c r="I31" s="7">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F32" s="7">
-        <v>6</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="H32" s="7">
-        <v>500</v>
-      </c>
-      <c r="I32" s="7">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F33" s="7">
-        <v>6</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="H33" s="7">
-        <v>500</v>
-      </c>
-      <c r="I33" s="7">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F34" s="7">
-        <v>6</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="H34" s="7">
-        <v>500</v>
-      </c>
-      <c r="I34" s="7">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F35" s="7">
-        <v>1</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="H35" s="7">
-        <v>500</v>
-      </c>
-      <c r="I35" s="7">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F36" s="7">
-        <v>6</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="H36" s="7">
-        <v>500</v>
-      </c>
-      <c r="I36" s="7">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F37" s="7">
-        <v>6</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="H37" s="7">
-        <v>500</v>
-      </c>
-      <c r="I37" s="7">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38" s="7">
-        <v>1</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="H38" s="7">
-        <v>500</v>
-      </c>
-      <c r="I38" s="7">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F39" s="7">
-        <v>6</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="H39" s="7">
-        <v>500</v>
-      </c>
-      <c r="I39" s="7">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F40" s="7">
-        <v>1</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="H40" s="7">
-        <v>500</v>
-      </c>
-      <c r="I40" s="7">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F41" s="7">
-        <v>6</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="H41" s="7">
-        <v>500</v>
-      </c>
-      <c r="I41" s="7">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F42" s="7">
-        <v>6</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="H42" s="7">
-        <v>500</v>
-      </c>
-      <c r="I42" s="7">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F43" s="7">
-        <v>1</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="H43" s="7">
-        <v>500</v>
-      </c>
-      <c r="I43" s="7">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F44" s="7">
-        <v>6</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="H44" s="7">
-        <v>500</v>
-      </c>
-      <c r="I44" s="7">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F45" s="7">
-        <v>1</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="H45" s="7">
-        <v>500</v>
-      </c>
-      <c r="I45" s="7">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F46" s="7">
-        <v>1</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="H46" s="7">
-        <v>500</v>
-      </c>
-      <c r="I46" s="7">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F47" s="7">
-        <v>6</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="H47" s="7">
-        <v>500</v>
-      </c>
-      <c r="I47" s="7">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F48" s="7">
-        <v>6</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="H48" s="7">
-        <v>500</v>
-      </c>
-      <c r="I48" s="7">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F49" s="7">
-        <v>6</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="H49" s="7">
-        <v>500</v>
-      </c>
-      <c r="I49" s="7">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F50" s="7">
-        <v>6</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="H50" s="7">
-        <v>500</v>
-      </c>
-      <c r="I50" s="7">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F51" s="7">
-        <v>1</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="H51" s="7">
-        <v>500</v>
-      </c>
-      <c r="I51" s="7">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
-      <c r="A52" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="C52" s="7">
-        <v>1206</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F52" s="7">
-        <v>6</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H52" s="7">
-        <v>500</v>
-      </c>
-      <c r="I52" s="7">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="A53" s="7"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="7"/>
-    </row>
-    <row r="54" spans="1:9">
-      <c r="A54" s="6" t="s">
-        <v>453</v>
-      </c>
-      <c r="B54" s="6"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-    </row>
-    <row r="55" spans="1:9">
-      <c r="A55" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F55" s="7">
-        <v>1</v>
-      </c>
-      <c r="G55" s="7" t="s">
+      <c r="I66" s="6">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F67" s="6">
+        <v>1</v>
+      </c>
+      <c r="G67" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="H55" s="7">
-        <v>100</v>
-      </c>
-      <c r="I55" s="7">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
-      <c r="A56" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F56" s="7">
-        <v>1</v>
-      </c>
-      <c r="G56" s="7" t="s">
+      <c r="H67" s="6">
+        <v>50</v>
+      </c>
+      <c r="I67" s="6">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F68" s="6">
+        <v>1</v>
+      </c>
+      <c r="G68" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="H56" s="7">
-        <v>100</v>
-      </c>
-      <c r="I56" s="7">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
-      <c r="A57" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F57" s="7">
-        <v>1</v>
-      </c>
-      <c r="G57" s="7" t="s">
+      <c r="H68" s="6">
+        <v>50</v>
+      </c>
+      <c r="I68" s="6">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F69" s="6">
+        <v>1</v>
+      </c>
+      <c r="G69" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="H57" s="7">
-        <v>100</v>
-      </c>
-      <c r="I57" s="7">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
-      <c r="A58" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="E58" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F58" s="7">
-        <v>1</v>
-      </c>
-      <c r="G58" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H58" s="7"/>
-      <c r="I58" s="7">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
-      <c r="A59" s="7"/>
-      <c r="B59" s="7"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
-      <c r="I59" s="7"/>
-    </row>
-    <row r="60" spans="1:9">
-      <c r="A60" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="B60" s="6"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
-      <c r="I60" s="6"/>
-    </row>
-    <row r="61" spans="1:9">
-      <c r="A61" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="E61" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F61" s="7">
-        <v>1</v>
-      </c>
-      <c r="G61" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="H61" s="7">
+      <c r="H69" s="6">
         <v>50</v>
       </c>
-      <c r="I61" s="7">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
-      <c r="A62" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F62" s="7">
-        <v>1</v>
-      </c>
-      <c r="G62" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="H62" s="7">
-        <v>50</v>
-      </c>
-      <c r="I62" s="7">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
-      <c r="A63" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="E63" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F63" s="7">
-        <v>1</v>
-      </c>
-      <c r="G63" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="H63" s="7">
-        <v>50</v>
-      </c>
-      <c r="I63" s="7" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
-      <c r="A64" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="E64" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F64" s="7">
-        <v>1</v>
-      </c>
-      <c r="G64" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="H64" s="7">
-        <v>50</v>
-      </c>
-      <c r="I64" s="7">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
-      <c r="A65" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="E65" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F65" s="7">
-        <v>1</v>
-      </c>
-      <c r="G65" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="H65" s="7">
-        <v>50</v>
-      </c>
-      <c r="I65" s="7">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
-      <c r="A66" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="E66" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F66" s="7">
-        <v>1</v>
-      </c>
-      <c r="G66" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="H66" s="7">
-        <v>50</v>
-      </c>
-      <c r="I66" s="7">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
-      <c r="A67" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="E67" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F67" s="7">
-        <v>1</v>
-      </c>
-      <c r="G67" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="H67" s="7">
-        <v>50</v>
-      </c>
-      <c r="I67" s="7">
+      <c r="I69" s="6">
         <v>0.2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A18:I18"/>
-    <mergeCell ref="A54:I54"/>
-    <mergeCell ref="A60:I60"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="A56:I56"/>
+    <mergeCell ref="A62:I62"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B14" r:id="rId1" xr:uid="{DC63E2D8-3BDD-C64C-BEEA-3E0FDA244DE4}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10696,11 +10809,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E284AE-FE25-5549-A175-47F09389E7E4}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="65" workbookViewId="0">
+    <sheetView zoomScale="65" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.1640625" customWidth="1"/>
     <col min="2" max="2" width="31.5" customWidth="1"/>
@@ -10709,537 +10822,537 @@
     <col min="5" max="5" width="39.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="21">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+    </row>
+    <row r="2" spans="1:11" ht="44" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>467</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-    </row>
-    <row r="2" spans="1:11" ht="44">
-      <c r="A2" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="E2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="44" x14ac:dyDescent="0.2">
+      <c r="A3" s="10">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>455</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="10">
+        <v>1</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="10">
+        <v>20</v>
+      </c>
+      <c r="J3" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="K3" s="11"/>
+    </row>
+    <row r="4" spans="1:11" ht="44" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>457</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10" t="s">
+        <v>457</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="10">
+        <v>1</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="10">
+        <v>10</v>
+      </c>
+      <c r="J4" s="10">
+        <v>8</v>
+      </c>
+      <c r="K4" s="11"/>
+    </row>
+    <row r="5" spans="1:11" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>458</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="10">
+        <v>1</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="10">
+        <v>10</v>
+      </c>
+      <c r="J5" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="K5" s="11"/>
+    </row>
+    <row r="6" spans="1:11" ht="22" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="10">
+        <v>1</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="I6" s="10">
+        <v>20</v>
+      </c>
+      <c r="J6" s="10">
+        <v>1.4</v>
+      </c>
+      <c r="K6" s="11"/>
+    </row>
+    <row r="7" spans="1:11" ht="22" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="10">
+        <v>1</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="I7" s="10">
+        <v>20</v>
+      </c>
+      <c r="J7" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="K7" s="11"/>
+    </row>
+    <row r="8" spans="1:11" ht="154" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10" t="s">
+        <v>460</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="10">
+        <v>1</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="I8" s="10">
+        <v>10</v>
+      </c>
+      <c r="J8" s="10">
+        <v>14</v>
+      </c>
+      <c r="K8" s="11"/>
+    </row>
+    <row r="9" spans="1:11" ht="44" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>470</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="10">
+        <v>1</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="I9" s="10">
+        <v>20</v>
+      </c>
+      <c r="J9" s="10">
         <v>2</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>468</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>443</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>455</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="44">
-      <c r="A3" s="12">
-        <v>1</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>456</v>
-      </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12" t="s">
-        <v>457</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="12">
-        <v>1</v>
-      </c>
-      <c r="H3" s="12" t="s">
+      <c r="K9" s="11"/>
+    </row>
+    <row r="10" spans="1:11" ht="44" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="10">
+        <v>1</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="I10" s="10">
+        <v>20</v>
+      </c>
+      <c r="J10" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="K10" s="11"/>
+    </row>
+    <row r="11" spans="1:11" ht="110" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="10">
+        <v>1</v>
+      </c>
+      <c r="H11" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="12">
+      <c r="I11" s="10">
         <v>20</v>
       </c>
-      <c r="J3" s="12">
-        <v>1.2</v>
-      </c>
-      <c r="K3" s="13"/>
-    </row>
-    <row r="4" spans="1:11" ht="66">
-      <c r="A4" s="12" t="s">
-        <v>434</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>435</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>458</v>
-      </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12" t="s">
-        <v>458</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="12">
-        <v>1</v>
-      </c>
-      <c r="H4" s="12" t="s">
+      <c r="J11" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="K11" s="11"/>
+    </row>
+    <row r="12" spans="1:11" ht="44" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>473</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="10">
+        <v>1</v>
+      </c>
+      <c r="H12" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="12">
-        <v>10</v>
-      </c>
-      <c r="J4" s="12">
-        <v>8</v>
-      </c>
-      <c r="K4" s="13"/>
-    </row>
-    <row r="5" spans="1:11" ht="97" customHeight="1">
-      <c r="A5" s="12" t="s">
-        <v>431</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>432</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>459</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>470</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>460</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="12">
-        <v>1</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="12">
-        <v>10</v>
-      </c>
-      <c r="J5" s="12">
+      <c r="I12" s="10">
+        <v>20</v>
+      </c>
+      <c r="J12" s="10">
+        <v>1.8</v>
+      </c>
+      <c r="K12" s="11"/>
+    </row>
+    <row r="13" spans="1:11" ht="44" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>474</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>461</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="10">
+        <v>1</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="I13" s="10">
+        <v>20</v>
+      </c>
+      <c r="J13" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="K13" s="11"/>
+    </row>
+    <row r="14" spans="1:11" ht="22" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>475</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="10">
+        <v>1</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="I14" s="10">
+        <v>20</v>
+      </c>
+      <c r="J14" s="10">
         <v>0.8</v>
       </c>
-      <c r="K5" s="13"/>
-    </row>
-    <row r="6" spans="1:11" ht="44">
-      <c r="A6" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="12">
-        <v>1</v>
-      </c>
-      <c r="H6" s="12" t="s">
+    </row>
+    <row r="15" spans="1:11" s="5" customFormat="1" ht="66" x14ac:dyDescent="0.2">
+      <c r="A15" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>476</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="12">
+        <v>1</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="I15" s="12">
+        <v>80</v>
+      </c>
+      <c r="J15" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="K15" s="11"/>
+    </row>
+    <row r="16" spans="1:11" s="5" customFormat="1" ht="66" x14ac:dyDescent="0.2">
+      <c r="A16" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>477</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>463</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="12">
+        <v>1</v>
+      </c>
+      <c r="H16" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I16" s="12">
         <v>20</v>
       </c>
-      <c r="J6" s="12">
-        <v>1.4</v>
-      </c>
-      <c r="K6" s="13"/>
-    </row>
-    <row r="7" spans="1:11" ht="66">
-      <c r="A7" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="12">
-        <v>1</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="I7" s="12">
+      <c r="J16" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="K16" s="11"/>
+    </row>
+    <row r="17" spans="1:11" ht="44" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>478</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="10">
+        <v>1</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="I17" s="10">
         <v>20</v>
       </c>
-      <c r="J7" s="12">
-        <v>1.2</v>
-      </c>
-      <c r="K7" s="13"/>
-    </row>
-    <row r="8" spans="1:11" ht="409.6">
-      <c r="A8" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12" t="s">
-        <v>461</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="12">
-        <v>1</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="I8" s="12">
-        <v>10</v>
-      </c>
-      <c r="J8" s="12">
-        <v>14</v>
-      </c>
-      <c r="K8" s="13"/>
-    </row>
-    <row r="9" spans="1:11" ht="44">
-      <c r="A9" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>471</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="12">
-        <v>1</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="I9" s="12">
-        <v>20</v>
-      </c>
-      <c r="J9" s="12">
-        <v>2</v>
-      </c>
-      <c r="K9" s="13"/>
-    </row>
-    <row r="10" spans="1:11" ht="44">
-      <c r="A10" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>472</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="12">
-        <v>1</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="I10" s="12">
-        <v>20</v>
-      </c>
-      <c r="J10" s="12">
-        <v>0.6</v>
-      </c>
-      <c r="K10" s="13"/>
-    </row>
-    <row r="11" spans="1:11" ht="110">
-      <c r="A11" s="12" t="s">
-        <v>473</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="12">
-        <v>1</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" s="12">
-        <v>20</v>
-      </c>
-      <c r="J11" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="K11" s="13"/>
-    </row>
-    <row r="12" spans="1:11" ht="88">
-      <c r="A12" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>474</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="12">
-        <v>1</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="I12" s="12">
-        <v>20</v>
-      </c>
-      <c r="J12" s="12">
-        <v>1.8</v>
-      </c>
-      <c r="K12" s="13"/>
-    </row>
-    <row r="13" spans="1:11" ht="110">
-      <c r="A13" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>475</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>462</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="12">
-        <v>1</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="I13" s="12">
-        <v>20</v>
-      </c>
-      <c r="J13" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="K13" s="13"/>
-    </row>
-    <row r="14" spans="1:11" ht="44">
-      <c r="A14" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>476</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="12">
-        <v>1</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="I14" s="12">
-        <v>20</v>
-      </c>
-      <c r="J14" s="12">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" s="5" customFormat="1" ht="220">
-      <c r="A15" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>269</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>270</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>477</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>463</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="14">
-        <v>1</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>272</v>
-      </c>
-      <c r="I15" s="14">
-        <v>80</v>
-      </c>
-      <c r="J15" s="12">
-        <v>0.2</v>
-      </c>
-      <c r="K15" s="13"/>
-    </row>
-    <row r="16" spans="1:11" s="5" customFormat="1" ht="264">
-      <c r="A16" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>274</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>478</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>464</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" s="14">
-        <v>1</v>
-      </c>
-      <c r="H16" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="I16" s="14">
-        <v>20</v>
-      </c>
-      <c r="J16" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="K16" s="13"/>
-    </row>
-    <row r="17" spans="1:11" ht="176">
-      <c r="A17" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>393</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>479</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>394</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="12">
-        <v>1</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="I17" s="12">
-        <v>20</v>
-      </c>
-      <c r="J17" s="12" t="s">
-        <v>466</v>
-      </c>
-      <c r="K17" s="13"/>
+      <c r="J17" s="10" t="s">
+        <v>465</v>
+      </c>
+      <c r="K17" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Data/github_prjs/EmbeddedNeuromophicCamera_PADS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39C8A68-8338-CE45-8A3F-6AE817A93FD1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB4CF1D4-165E-9E4B-8E50-B19E67C8F663}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16540" activeTab="1" xr2:uid="{8EA9F011-AF60-47FB-BBDE-C3F1296126CD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2118" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2118" uniqueCount="486">
   <si>
     <t xml:space="preserve"> Part Report bom for main_pads.pcb on 2/26/2019 10:16:17</t>
   </si>
@@ -1531,6 +1531,9 @@
   </si>
   <si>
     <t>CLK_33.3M</t>
+  </si>
+  <si>
+    <t>SS34/SMA</t>
   </si>
 </sst>
 </file>
@@ -1699,12 +1702,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1713,6 +1710,12 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8930,8 +8933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62A830F9-959C-B34F-BCA6-4F4F23785374}">
   <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8941,16 +8944,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="16" t="s">
         <v>464</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
       <c r="I1" s="6"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -9283,23 +9286,23 @@
       <c r="A14" s="6" t="s">
         <v>480</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="13" t="s">
         <v>481</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>482</v>
       </c>
       <c r="D14" s="6"/>
-      <c r="E14" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="17">
-        <v>1</v>
-      </c>
-      <c r="G14" s="17" t="s">
+      <c r="E14" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="15">
+        <v>1</v>
+      </c>
+      <c r="G14" s="15" t="s">
         <v>410</v>
       </c>
-      <c r="H14" s="17">
+      <c r="H14" s="15">
         <v>5</v>
       </c>
       <c r="I14" s="6">
@@ -9428,17 +9431,17 @@
       <c r="I19" s="6"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="16" t="s">
         <v>451</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
@@ -10438,17 +10441,17 @@
       <c r="I55" s="6"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="13" t="s">
+      <c r="A56" s="16" t="s">
         <v>452</v>
       </c>
-      <c r="B56" s="13"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13"/>
-      <c r="H56" s="13"/>
-      <c r="I56" s="13"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="16"/>
+      <c r="I56" s="16"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
@@ -10516,7 +10519,7 @@
         <v>177</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>178</v>
+        <v>485</v>
       </c>
       <c r="D59" s="6" t="s">
         <v>179</v>
@@ -10576,17 +10579,17 @@
       <c r="I61" s="6"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="13" t="s">
+      <c r="A62" s="16" t="s">
         <v>453</v>
       </c>
-      <c r="B62" s="13"/>
-      <c r="C62" s="13"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="13"/>
-      <c r="F62" s="13"/>
-      <c r="G62" s="13"/>
-      <c r="H62" s="13"/>
-      <c r="I62" s="13"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="16"/>
+      <c r="F62" s="16"/>
+      <c r="G62" s="16"/>
+      <c r="H62" s="16"/>
+      <c r="I62" s="16"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
@@ -10823,19 +10826,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="17" t="s">
         <v>466</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
     </row>
     <row r="2" spans="1:11" ht="44" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
